--- a/Doc/lin.xlsx
+++ b/Doc/lin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="477">
   <si>
     <t>media_name</t>
   </si>
@@ -30,15 +30,18 @@
     <t>优先级</t>
   </si>
   <si>
+    <t>栏目</t>
+  </si>
+  <si>
+    <t>频率</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
     <t>url</t>
   </si>
   <si>
-    <t>栏目</t>
-  </si>
-  <si>
-    <t>频率</t>
-  </si>
-  <si>
     <t>千龙网</t>
   </si>
   <si>
@@ -54,9 +57,18 @@
     <t>北京日报网</t>
   </si>
   <si>
+    <t>新闻 财经</t>
+  </si>
+  <si>
+    <t>https://www.bjd.com.cn/index.shtml</t>
+  </si>
+  <si>
     <t>北青网</t>
   </si>
   <si>
+    <t>http://www.ynet.com/index.html</t>
+  </si>
+  <si>
     <t>北京时间</t>
   </si>
   <si>
@@ -64,6 +76,12 @@
   </si>
   <si>
     <t>新京报网</t>
+  </si>
+  <si>
+    <t>财经 时事  政事儿 国际</t>
+  </si>
+  <si>
+    <t>https://www.bjnews.com.cn/</t>
   </si>
   <si>
     <t>北京青年报</t>
@@ -1447,6 +1465,22 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1473,22 +1507,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1902,10 +1920,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1914,31 +1932,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1959,13 +1977,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1977,10 +1995,10 @@
     <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1995,56 +2013,56 @@
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2052,6 +2070,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2400,19 +2424,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G454"/>
+  <dimension ref="A1:H454"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="15.875" customWidth="1"/>
     <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
+    <col min="8" max="8" width="38.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2434,91 +2460,112 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>1</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2526,13 +2573,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2540,101 +2587,101 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2642,13 +2689,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2656,13 +2703,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2670,35 +2717,35 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2706,13 +2753,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2720,13 +2767,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2734,13 +2781,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2748,24 +2795,24 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2773,35 +2820,35 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2809,13 +2856,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2823,35 +2870,35 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2859,24 +2906,24 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2884,13 +2931,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2898,13 +2945,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -2912,24 +2959,24 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -2937,13 +2984,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -2951,13 +2998,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -2965,123 +3012,123 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -3089,13 +3136,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -3103,13 +3150,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -3117,13 +3164,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -3131,13 +3178,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -3145,13 +3192,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -3159,13 +3206,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -3173,24 +3220,24 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -3198,13 +3245,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -3212,13 +3259,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -3226,13 +3273,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -3240,13 +3287,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -3254,13 +3301,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -3268,112 +3315,112 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -3381,13 +3428,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -3395,13 +3442,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -3409,35 +3456,35 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -3445,13 +3492,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -3459,24 +3506,24 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -3484,13 +3531,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -3498,13 +3545,13 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -3512,57 +3559,57 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -3570,13 +3617,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -3584,13 +3631,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -3598,46 +3645,46 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -3645,13 +3692,13 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -3659,13 +3706,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -3673,13 +3720,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -3687,13 +3734,13 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -3701,24 +3748,24 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -3726,13 +3773,13 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -3740,13 +3787,13 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -3754,24 +3801,24 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -3779,13 +3826,13 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -3793,46 +3840,46 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -3840,13 +3887,13 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -3854,13 +3901,13 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -3868,24 +3915,24 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -3893,35 +3940,35 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -3929,24 +3976,24 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -3954,13 +4001,13 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -3968,24 +4015,24 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -3993,13 +4040,13 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -4007,24 +4054,24 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -4032,46 +4079,46 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -4079,13 +4126,13 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -4093,13 +4140,13 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -4107,35 +4154,35 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -4143,24 +4190,24 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -4168,112 +4215,112 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -4281,13 +4328,13 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -4295,13 +4342,13 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -4309,13 +4356,13 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -4323,13 +4370,13 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -4337,13 +4384,13 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -4351,13 +4398,13 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -4365,68 +4412,68 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -4434,13 +4481,13 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -4448,13 +4495,13 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -4462,13 +4509,13 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -4476,13 +4523,13 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -4490,13 +4537,13 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166">
         <v>1</v>
@@ -4504,13 +4551,13 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -4518,13 +4565,13 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -4532,13 +4579,13 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -4546,13 +4593,13 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -4560,13 +4607,13 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -4574,13 +4621,13 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -4588,13 +4635,13 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -4602,13 +4649,13 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -4616,13 +4663,13 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175">
         <v>1</v>
@@ -4630,57 +4677,57 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180">
         <v>1</v>
@@ -4688,13 +4735,13 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181">
         <v>1</v>
@@ -4702,13 +4749,13 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -4716,13 +4763,13 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -4730,13 +4777,13 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184">
         <v>1</v>
@@ -4744,13 +4791,13 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185">
         <v>1</v>
@@ -4758,24 +4805,24 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -4783,35 +4830,35 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -4819,35 +4866,35 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -4855,13 +4902,13 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -4869,13 +4916,13 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -4883,90 +4930,90 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203">
         <v>1</v>
@@ -4974,13 +5021,13 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -4988,13 +5035,13 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -5002,24 +5049,24 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207">
         <v>1</v>
@@ -5027,35 +5074,35 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210">
         <v>1</v>
@@ -5063,68 +5110,68 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="2" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -5132,24 +5179,24 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -5157,13 +5204,13 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D219">
         <v>1</v>
@@ -5171,79 +5218,79 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D226">
         <v>1</v>
@@ -5251,13 +5298,13 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D227">
         <v>1</v>
@@ -5265,13 +5312,13 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D228">
         <v>1</v>
@@ -5279,13 +5326,13 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D229">
         <v>1</v>
@@ -5293,13 +5340,13 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D230">
         <v>1</v>
@@ -5307,13 +5354,13 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D231">
         <v>1</v>
@@ -5321,13 +5368,13 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D232">
         <v>1</v>
@@ -5335,871 +5382,871 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="2" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="2" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="2" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="2" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="2" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="2" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="2" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="2" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="2" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="2" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="2" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="2" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="2" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="2" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="2" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="2" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="2" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="2" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="2" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="2" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="2" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="2" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="2" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="2" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="2" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="2" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="2" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="2" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="2" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="2" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="2" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="2" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="2" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="2" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="2" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="2" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="2" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="2" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="2" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="2" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="2" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="2" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="2" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="2" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="2" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="2" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="2" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="2" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D311">
         <v>1</v>
@@ -6207,13 +6254,13 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D312">
         <v>1</v>
@@ -6221,57 +6268,57 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="2" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="2" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="2" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="2" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D317">
         <v>1</v>
@@ -6279,134 +6326,134 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="2" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="2" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="2" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="2" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="2" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="2" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="2" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="2" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="2" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="2" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="2" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D329">
         <v>1</v>
@@ -6414,101 +6461,101 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="2" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="2" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="2" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="2" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="2" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="2" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="2" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="2" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D338">
         <v>1</v>
@@ -6516,134 +6563,134 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="2" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="2" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="2" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="2" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="2" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="2" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="2" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D350">
         <v>1</v>
@@ -6651,46 +6698,46 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="2" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="2" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="2" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D354">
         <v>1</v>
@@ -6698,24 +6745,24 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="2" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D356">
         <v>1</v>
@@ -6723,13 +6770,13 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D357">
         <v>1</v>
@@ -6737,321 +6784,321 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="2" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="2" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="2" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="2" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="2" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="2" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="2" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="2" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="2" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="2" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="2" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="2" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="2" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="2" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="2" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="2" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="2" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="2" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="2" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="2" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="2" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="2" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="2" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="2" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="2" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="2" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D386">
         <v>1</v>
@@ -7059,343 +7106,343 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="2" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="2" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="2" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="2" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="2" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="2" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="2" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="2" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="2" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="2" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="2" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="2" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="2" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="2" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="2" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="2" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="2" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="2" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="2" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="2" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="2" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="2" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="2" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="2" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="2" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="2" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="2" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="2" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="2" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D417">
         <v>1</v>
@@ -7403,244 +7450,244 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="2" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="2" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="2" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="2" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="2" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="2" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="2" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="2" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="2" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="2" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="2" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="2" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="2" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="2" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="2" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="2" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="2" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="2" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="2" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="2" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="2" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="2" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D439">
         <v>1</v>
@@ -7648,13 +7695,13 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="2" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D440">
         <v>1</v>
@@ -7662,35 +7709,35 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="2" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="2" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="2" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D443">
         <v>1</v>
@@ -7698,101 +7745,101 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="2" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="2" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="2" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="2" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="2" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="2" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="2" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="2" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D452">
         <v>1</v>
@@ -7800,13 +7847,13 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="2" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D453">
         <v>1</v>
@@ -7814,19 +7861,24 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="2" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D454">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H4" r:id="rId1" display="https://www.bjd.com.cn/index.shtml"/>
+    <hyperlink ref="H5" r:id="rId2" display="http://www.ynet.com/index.html"/>
+    <hyperlink ref="H7" r:id="rId3" display="https://www.bjnews.com.cn/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Doc/lin.xlsx
+++ b/Doc/lin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="478">
   <si>
     <t>media_name</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>北青网</t>
+  </si>
+  <si>
+    <t>新闻 财经 金融</t>
   </si>
   <si>
     <t>http://www.ynet.com/index.html</t>
@@ -2427,7 +2430,7 @@
   <dimension ref="A1:H454"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2502,6 +2505,9 @@
       <c r="E4" t="s">
         <v>13</v>
       </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
       <c r="H4" s="3" t="s">
         <v>14</v>
       </c>
@@ -2519,16 +2525,22 @@
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
       <c r="H5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -2536,10 +2548,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
@@ -2548,21 +2560,21 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -2573,10 +2585,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -2587,10 +2599,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -2598,10 +2610,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -2609,10 +2621,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -2620,10 +2632,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -2631,10 +2643,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -2642,10 +2654,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
@@ -2653,10 +2665,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
@@ -2664,10 +2676,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
@@ -2675,10 +2687,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
@@ -2689,10 +2701,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
@@ -2703,10 +2715,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
@@ -2717,10 +2729,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
@@ -2728,10 +2740,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -2739,10 +2751,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
@@ -2753,10 +2765,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
@@ -2767,10 +2779,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
@@ -2781,10 +2793,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
@@ -2795,10 +2807,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
@@ -2806,10 +2818,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -2820,10 +2832,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
@@ -2831,10 +2843,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
@@ -2842,10 +2854,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
@@ -2856,10 +2868,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
@@ -2870,10 +2882,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
@@ -2881,10 +2893,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -2892,10 +2904,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
@@ -2906,10 +2918,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
@@ -2917,10 +2929,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
@@ -2931,10 +2943,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -2945,10 +2957,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
@@ -2959,10 +2971,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
@@ -2970,10 +2982,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
@@ -2984,10 +2996,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
@@ -2998,10 +3010,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
@@ -3012,10 +3024,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
@@ -3023,10 +3035,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
@@ -3034,10 +3046,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -3045,10 +3057,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
@@ -3056,10 +3068,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -3067,10 +3079,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
@@ -3078,10 +3090,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
@@ -3089,10 +3101,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
@@ -3100,10 +3112,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
@@ -3111,10 +3123,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
@@ -3122,10 +3134,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
@@ -3136,10 +3148,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
@@ -3150,10 +3162,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
@@ -3164,10 +3176,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
@@ -3178,10 +3190,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
@@ -3192,10 +3204,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
@@ -3206,10 +3218,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
@@ -3220,10 +3232,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
@@ -3231,10 +3243,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
@@ -3245,10 +3257,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
@@ -3259,10 +3271,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
@@ -3273,10 +3285,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
@@ -3287,10 +3299,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
@@ -3301,10 +3313,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
@@ -3315,10 +3327,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
@@ -3326,10 +3338,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
@@ -3337,10 +3349,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
@@ -3348,10 +3360,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
@@ -3359,10 +3371,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
@@ -3370,10 +3382,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
@@ -3381,10 +3393,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -3392,10 +3404,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -3403,10 +3415,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -3414,10 +3426,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -3428,10 +3440,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -3442,10 +3454,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -3456,10 +3468,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -3467,10 +3479,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -3478,10 +3490,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -3492,10 +3504,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -3506,10 +3518,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -3517,10 +3529,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -3531,10 +3543,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -3545,10 +3557,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
@@ -3559,10 +3571,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -3570,10 +3582,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
@@ -3581,10 +3593,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
@@ -3592,10 +3604,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
@@ -3603,10 +3615,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -3617,10 +3629,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
@@ -3631,10 +3643,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -3645,10 +3657,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -3656,10 +3668,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -3667,10 +3679,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -3678,10 +3690,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -3692,10 +3704,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -3706,10 +3718,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -3720,10 +3732,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -3734,10 +3746,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -3748,10 +3760,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -3759,10 +3771,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -3773,10 +3785,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3787,10 +3799,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3801,10 +3813,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3812,10 +3824,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3826,10 +3838,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -3840,10 +3852,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -3851,10 +3863,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
@@ -3862,10 +3874,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
@@ -3873,10 +3885,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
@@ -3887,10 +3899,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -3901,10 +3913,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -3915,10 +3927,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -3926,10 +3938,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -3940,10 +3952,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -3951,10 +3963,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
@@ -3962,10 +3974,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
@@ -3976,10 +3988,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
@@ -3987,10 +3999,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -4001,10 +4013,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
@@ -4015,10 +4027,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -4026,10 +4038,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -4040,10 +4052,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -4054,10 +4066,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -4065,10 +4077,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -4079,10 +4091,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -4090,10 +4102,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -4101,10 +4113,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -4112,10 +4124,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -4126,10 +4138,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -4140,10 +4152,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -4154,10 +4166,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -4165,10 +4177,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -4176,10 +4188,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -4190,10 +4202,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -4201,10 +4213,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -4215,10 +4227,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -4226,10 +4238,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
@@ -4237,10 +4249,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
@@ -4248,10 +4260,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
@@ -4259,10 +4271,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
@@ -4270,10 +4282,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
@@ -4281,10 +4293,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -4292,10 +4304,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -4303,10 +4315,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4314,10 +4326,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
@@ -4328,10 +4340,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
@@ -4342,10 +4354,10 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
@@ -4356,10 +4368,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
@@ -4370,10 +4382,10 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
@@ -4384,10 +4396,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
@@ -4398,10 +4410,10 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
@@ -4412,10 +4424,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
@@ -4423,10 +4435,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
@@ -4434,10 +4446,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -4445,10 +4457,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
@@ -4456,10 +4468,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
@@ -4467,10 +4479,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4481,10 +4493,10 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -4495,10 +4507,10 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -4509,10 +4521,10 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -4523,10 +4535,10 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
@@ -4537,10 +4549,10 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -4551,10 +4563,10 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -4565,10 +4577,10 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -4579,10 +4591,10 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
@@ -4593,10 +4605,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
@@ -4607,10 +4619,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
@@ -4621,10 +4633,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
@@ -4635,10 +4647,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
@@ -4649,10 +4661,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
@@ -4663,10 +4675,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
@@ -4677,10 +4689,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
@@ -4688,10 +4700,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
@@ -4699,10 +4711,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
@@ -4710,10 +4722,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
@@ -4721,10 +4733,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
@@ -4735,10 +4747,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
@@ -4749,10 +4761,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
@@ -4763,10 +4775,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
@@ -4777,10 +4789,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
@@ -4791,10 +4803,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
@@ -4805,10 +4817,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
@@ -4816,10 +4828,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
@@ -4830,10 +4842,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
@@ -4841,10 +4853,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
@@ -4852,10 +4864,10 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
@@ -4866,10 +4878,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
@@ -4877,10 +4889,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
@@ -4888,10 +4900,10 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
@@ -4902,10 +4914,10 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
@@ -4916,10 +4928,10 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
@@ -4930,10 +4942,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
@@ -4941,10 +4953,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
@@ -4952,10 +4964,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
@@ -4963,10 +4975,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
@@ -4974,10 +4986,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
@@ -4985,10 +4997,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
@@ -4996,10 +5008,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
@@ -5007,10 +5019,10 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
@@ -5021,10 +5033,10 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
@@ -5035,10 +5047,10 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
@@ -5049,10 +5061,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
@@ -5060,10 +5072,10 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
@@ -5074,10 +5086,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
@@ -5085,10 +5097,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
@@ -5096,10 +5108,10 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
@@ -5110,10 +5122,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
@@ -5121,10 +5133,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
@@ -5132,10 +5144,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
@@ -5143,10 +5155,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
@@ -5154,10 +5166,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
@@ -5165,10 +5177,10 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
@@ -5179,10 +5191,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
@@ -5190,10 +5202,10 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
@@ -5204,10 +5216,10 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
@@ -5218,10 +5230,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
@@ -5229,10 +5241,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>9</v>
@@ -5240,10 +5252,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>9</v>
@@ -5251,10 +5263,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>9</v>
@@ -5262,10 +5274,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
@@ -5273,10 +5285,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
@@ -5284,10 +5296,10 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
@@ -5298,10 +5310,10 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>9</v>
@@ -5312,10 +5324,10 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>9</v>
@@ -5326,10 +5338,10 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>9</v>
@@ -5340,10 +5352,10 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>9</v>
@@ -5354,10 +5366,10 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>9</v>
@@ -5368,10 +5380,10 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>9</v>
@@ -5382,10 +5394,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>9</v>
@@ -5393,10 +5405,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>9</v>
@@ -5404,10 +5416,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>9</v>
@@ -5415,10 +5427,10 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>9</v>
@@ -5426,10 +5438,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
@@ -5437,10 +5449,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>9</v>
@@ -5448,10 +5460,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>9</v>
@@ -5459,10 +5471,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>9</v>
@@ -5470,10 +5482,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>9</v>
@@ -5481,10 +5493,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>9</v>
@@ -5492,10 +5504,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>9</v>
@@ -5503,10 +5515,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>9</v>
@@ -5514,10 +5526,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>9</v>
@@ -5525,10 +5537,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>9</v>
@@ -5536,10 +5548,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>9</v>
@@ -5547,10 +5559,10 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>9</v>
@@ -5558,10 +5570,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>9</v>
@@ -5569,10 +5581,10 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>9</v>
@@ -5580,10 +5592,10 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>9</v>
@@ -5591,10 +5603,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>9</v>
@@ -5602,10 +5614,10 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>9</v>
@@ -5613,10 +5625,10 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>9</v>
@@ -5624,10 +5636,10 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>9</v>
@@ -5635,10 +5647,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>9</v>
@@ -5646,10 +5658,10 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>9</v>
@@ -5657,10 +5669,10 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>9</v>
@@ -5668,10 +5680,10 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>9</v>
@@ -5679,10 +5691,10 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>9</v>
@@ -5690,10 +5702,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>9</v>
@@ -5701,10 +5713,10 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>9</v>
@@ -5712,10 +5724,10 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>9</v>
@@ -5723,10 +5735,10 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>9</v>
@@ -5734,10 +5746,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>9</v>
@@ -5745,10 +5757,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>9</v>
@@ -5756,10 +5768,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>9</v>
@@ -5767,10 +5779,10 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>9</v>
@@ -5778,10 +5790,10 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>9</v>
@@ -5789,10 +5801,10 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>9</v>
@@ -5800,10 +5812,10 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>9</v>
@@ -5811,10 +5823,10 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>9</v>
@@ -5822,10 +5834,10 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>9</v>
@@ -5833,10 +5845,10 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>9</v>
@@ -5844,10 +5856,10 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>9</v>
@@ -5855,10 +5867,10 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>9</v>
@@ -5866,10 +5878,10 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>9</v>
@@ -5877,10 +5889,10 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>9</v>
@@ -5888,10 +5900,10 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>9</v>
@@ -5899,10 +5911,10 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>9</v>
@@ -5910,10 +5922,10 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>9</v>
@@ -5921,10 +5933,10 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>9</v>
@@ -5932,10 +5944,10 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>9</v>
@@ -5943,10 +5955,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>9</v>
@@ -5954,10 +5966,10 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>9</v>
@@ -5965,10 +5977,10 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>9</v>
@@ -5976,10 +5988,10 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>9</v>
@@ -5987,10 +5999,10 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>9</v>
@@ -5998,10 +6010,10 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>9</v>
@@ -6009,10 +6021,10 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>9</v>
@@ -6020,10 +6032,10 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>9</v>
@@ -6031,10 +6043,10 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>9</v>
@@ -6042,10 +6054,10 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>9</v>
@@ -6053,10 +6065,10 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>9</v>
@@ -6064,10 +6076,10 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>9</v>
@@ -6075,10 +6087,10 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>9</v>
@@ -6086,10 +6098,10 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>9</v>
@@ -6097,10 +6109,10 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>9</v>
@@ -6108,10 +6120,10 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>9</v>
@@ -6119,10 +6131,10 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>9</v>
@@ -6130,10 +6142,10 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>9</v>
@@ -6141,10 +6153,10 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>9</v>
@@ -6152,10 +6164,10 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>9</v>
@@ -6163,10 +6175,10 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>9</v>
@@ -6174,10 +6186,10 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>9</v>
@@ -6185,10 +6197,10 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>9</v>
@@ -6196,10 +6208,10 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>9</v>
@@ -6207,10 +6219,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>9</v>
@@ -6218,10 +6230,10 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>9</v>
@@ -6229,10 +6241,10 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>9</v>
@@ -6240,10 +6252,10 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>9</v>
@@ -6254,10 +6266,10 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>9</v>
@@ -6268,10 +6280,10 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>9</v>
@@ -6279,10 +6291,10 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>9</v>
@@ -6290,10 +6302,10 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>9</v>
@@ -6301,10 +6313,10 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>9</v>
@@ -6312,10 +6324,10 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>9</v>
@@ -6326,10 +6338,10 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>9</v>
@@ -6337,10 +6349,10 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>9</v>
@@ -6348,10 +6360,10 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>9</v>
@@ -6359,10 +6371,10 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>9</v>
@@ -6370,10 +6382,10 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>9</v>
@@ -6381,10 +6393,10 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>9</v>
@@ -6392,10 +6404,10 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>9</v>
@@ -6403,10 +6415,10 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>9</v>
@@ -6414,10 +6426,10 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>9</v>
@@ -6425,10 +6437,10 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>9</v>
@@ -6436,10 +6448,10 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>9</v>
@@ -6447,10 +6459,10 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>9</v>
@@ -6461,10 +6473,10 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>9</v>
@@ -6472,10 +6484,10 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>9</v>
@@ -6483,10 +6495,10 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>9</v>
@@ -6494,10 +6506,10 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>9</v>
@@ -6505,10 +6517,10 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>9</v>
@@ -6516,10 +6528,10 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>9</v>
@@ -6527,10 +6539,10 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>9</v>
@@ -6538,10 +6550,10 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>9</v>
@@ -6549,10 +6561,10 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>9</v>
@@ -6563,10 +6575,10 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>9</v>
@@ -6574,10 +6586,10 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>9</v>
@@ -6585,10 +6597,10 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>9</v>
@@ -6596,10 +6608,10 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>9</v>
@@ -6607,10 +6619,10 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>9</v>
@@ -6618,10 +6630,10 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>9</v>
@@ -6629,10 +6641,10 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>9</v>
@@ -6640,10 +6652,10 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>9</v>
@@ -6651,10 +6663,10 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>9</v>
@@ -6662,10 +6674,10 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>9</v>
@@ -6673,10 +6685,10 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>9</v>
@@ -6684,10 +6696,10 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>9</v>
@@ -6698,10 +6710,10 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>9</v>
@@ -6709,10 +6721,10 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>9</v>
@@ -6720,10 +6732,10 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>9</v>
@@ -6731,10 +6743,10 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>9</v>
@@ -6745,10 +6757,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>9</v>
@@ -6756,10 +6768,10 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>9</v>
@@ -6770,10 +6782,10 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>9</v>
@@ -6784,10 +6796,10 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>9</v>
@@ -6795,10 +6807,10 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>9</v>
@@ -6806,10 +6818,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>9</v>
@@ -6817,10 +6829,10 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>9</v>
@@ -6828,10 +6840,10 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>9</v>
@@ -6839,10 +6851,10 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>9</v>
@@ -6850,10 +6862,10 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>9</v>
@@ -6861,10 +6873,10 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>9</v>
@@ -6872,10 +6884,10 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>9</v>
@@ -6883,10 +6895,10 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>9</v>
@@ -6894,10 +6906,10 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>9</v>
@@ -6905,10 +6917,10 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>9</v>
@@ -6916,10 +6928,10 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>9</v>
@@ -6927,10 +6939,10 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>9</v>
@@ -6938,10 +6950,10 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>9</v>
@@ -6949,10 +6961,10 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>9</v>
@@ -6960,10 +6972,10 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>9</v>
@@ -6971,10 +6983,10 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>9</v>
@@ -6982,10 +6994,10 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>9</v>
@@ -6993,10 +7005,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>9</v>
@@ -7004,10 +7016,10 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>9</v>
@@ -7015,10 +7027,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>9</v>
@@ -7026,10 +7038,10 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>9</v>
@@ -7037,10 +7049,10 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>9</v>
@@ -7048,10 +7060,10 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>9</v>
@@ -7059,10 +7071,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>9</v>
@@ -7070,10 +7082,10 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>9</v>
@@ -7081,10 +7093,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>9</v>
@@ -7092,10 +7104,10 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>9</v>
@@ -7106,10 +7118,10 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>9</v>
@@ -7117,10 +7129,10 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>9</v>
@@ -7128,10 +7140,10 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>9</v>
@@ -7139,10 +7151,10 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>9</v>
@@ -7150,10 +7162,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>9</v>
@@ -7161,10 +7173,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>9</v>
@@ -7172,10 +7184,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>9</v>
@@ -7183,10 +7195,10 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>9</v>
@@ -7194,10 +7206,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>9</v>
@@ -7205,10 +7217,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>9</v>
@@ -7216,10 +7228,10 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>9</v>
@@ -7227,10 +7239,10 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>9</v>
@@ -7238,10 +7250,10 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>9</v>
@@ -7249,10 +7261,10 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>9</v>
@@ -7260,10 +7272,10 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>9</v>
@@ -7271,10 +7283,10 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>9</v>
@@ -7282,10 +7294,10 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>9</v>
@@ -7293,10 +7305,10 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>9</v>
@@ -7304,10 +7316,10 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>9</v>
@@ -7315,10 +7327,10 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>9</v>
@@ -7326,10 +7338,10 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>9</v>
@@ -7337,10 +7349,10 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>9</v>
@@ -7348,10 +7360,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>9</v>
@@ -7359,10 +7371,10 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>9</v>
@@ -7370,10 +7382,10 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>9</v>
@@ -7381,10 +7393,10 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>9</v>
@@ -7392,10 +7404,10 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>9</v>
@@ -7403,10 +7415,10 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>9</v>
@@ -7414,10 +7426,10 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>9</v>
@@ -7425,10 +7437,10 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>9</v>
@@ -7436,10 +7448,10 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>9</v>
@@ -7450,10 +7462,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>9</v>
@@ -7461,10 +7473,10 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>9</v>
@@ -7472,10 +7484,10 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>9</v>
@@ -7483,10 +7495,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>9</v>
@@ -7494,10 +7506,10 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>9</v>
@@ -7505,10 +7517,10 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>9</v>
@@ -7516,10 +7528,10 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>9</v>
@@ -7527,10 +7539,10 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>9</v>
@@ -7538,10 +7550,10 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>9</v>
@@ -7549,10 +7561,10 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>9</v>
@@ -7560,10 +7572,10 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>9</v>
@@ -7571,10 +7583,10 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>9</v>
@@ -7582,10 +7594,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>9</v>
@@ -7593,10 +7605,10 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>9</v>
@@ -7604,10 +7616,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>9</v>
@@ -7615,10 +7627,10 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>9</v>
@@ -7626,10 +7638,10 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>9</v>
@@ -7637,10 +7649,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>9</v>
@@ -7648,10 +7660,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>9</v>
@@ -7659,10 +7671,10 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>9</v>
@@ -7670,10 +7682,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>9</v>
@@ -7681,10 +7693,10 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>9</v>
@@ -7695,10 +7707,10 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>9</v>
@@ -7709,10 +7721,10 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>9</v>
@@ -7720,10 +7732,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>9</v>
@@ -7731,10 +7743,10 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>9</v>
@@ -7745,10 +7757,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>9</v>
@@ -7756,10 +7768,10 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>9</v>
@@ -7767,10 +7779,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>9</v>
@@ -7778,10 +7790,10 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>9</v>
@@ -7789,10 +7801,10 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>9</v>
@@ -7800,10 +7812,10 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>9</v>
@@ -7811,10 +7823,10 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>9</v>
@@ -7822,10 +7834,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>9</v>
@@ -7833,10 +7845,10 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>9</v>
@@ -7847,10 +7859,10 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>9</v>
@@ -7861,10 +7873,10 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>9</v>
@@ -7875,8 +7887,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" display="https://www.bjd.com.cn/index.shtml"/>
-    <hyperlink ref="H5" r:id="rId2" display="http://www.ynet.com/index.html"/>
+    <hyperlink ref="H4" r:id="rId1" display="https://www.bjd.com.cn/index.shtml" tooltip="https://www.bjd.com.cn/index.shtml"/>
+    <hyperlink ref="H5" r:id="rId2" display="http://www.ynet.com/index.html" tooltip="http://www.ynet.com/index.html"/>
     <hyperlink ref="H7" r:id="rId3" display="https://www.bjnews.com.cn/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/lin.xlsx
+++ b/Doc/lin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="480">
   <si>
     <t>media_name</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>北京商报</t>
+  </si>
+  <si>
+    <t>国际 政经 基金</t>
+  </si>
+  <si>
+    <t>https://bbtnews.com.cn/</t>
   </si>
   <si>
     <t>劳动午报</t>
@@ -2430,7 +2436,7 @@
   <dimension ref="A1:H454"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2565,11 +2571,11 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2582,8 +2588,17 @@
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -2596,13 +2611,22 @@
       <c r="D9">
         <v>1</v>
       </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -2610,10 +2634,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -2621,10 +2645,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -2632,10 +2656,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -2643,10 +2667,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -2654,10 +2678,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
@@ -2665,10 +2689,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
@@ -2676,10 +2700,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
@@ -2687,10 +2711,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
@@ -2701,10 +2725,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
@@ -2715,10 +2739,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
@@ -2729,10 +2753,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
@@ -2740,10 +2764,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -2751,10 +2775,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
@@ -2765,10 +2789,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
@@ -2779,10 +2803,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
@@ -2793,10 +2817,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
@@ -2807,10 +2831,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
@@ -2818,10 +2842,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -2832,10 +2856,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
@@ -2843,10 +2867,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
@@ -2854,10 +2878,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
@@ -2868,10 +2892,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
@@ -2882,10 +2906,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
@@ -2893,10 +2917,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -2904,10 +2928,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
@@ -2918,10 +2942,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
@@ -2929,10 +2953,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
@@ -2943,10 +2967,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -2957,10 +2981,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
@@ -2971,10 +2995,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
@@ -2982,10 +3006,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
@@ -2996,10 +3020,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
@@ -3010,10 +3034,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
@@ -3024,10 +3048,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
@@ -3035,10 +3059,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
@@ -3046,10 +3070,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -3057,10 +3081,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
@@ -3068,10 +3092,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -3079,10 +3103,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
@@ -3090,10 +3114,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
@@ -3101,10 +3125,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
@@ -3112,10 +3136,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
@@ -3123,10 +3147,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
@@ -3134,10 +3158,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
@@ -3148,10 +3172,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
@@ -3162,10 +3186,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
@@ -3176,10 +3200,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
@@ -3190,10 +3214,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
@@ -3204,10 +3228,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
@@ -3218,10 +3242,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
@@ -3232,10 +3256,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
@@ -3243,10 +3267,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
@@ -3257,10 +3281,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
@@ -3271,10 +3295,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
@@ -3285,10 +3309,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
@@ -3299,10 +3323,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
@@ -3313,10 +3337,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
@@ -3327,10 +3351,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
@@ -3338,10 +3362,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
@@ -3349,10 +3373,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
@@ -3360,10 +3384,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
@@ -3371,10 +3395,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
@@ -3382,10 +3406,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
@@ -3393,10 +3417,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -3404,10 +3428,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -3415,10 +3439,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -3426,10 +3450,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -3440,10 +3464,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -3454,10 +3478,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -3468,10 +3492,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -3479,10 +3503,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -3490,10 +3514,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -3504,10 +3528,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -3518,10 +3542,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -3529,10 +3553,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -3543,10 +3567,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -3557,10 +3581,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
@@ -3571,10 +3595,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -3582,10 +3606,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
@@ -3593,10 +3617,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
@@ -3604,10 +3628,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
@@ -3615,10 +3639,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -3629,10 +3653,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
@@ -3643,10 +3667,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -3657,10 +3681,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -3668,10 +3692,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -3679,10 +3703,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -3690,10 +3714,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -3704,10 +3728,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -3718,10 +3742,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -3732,10 +3756,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -3746,10 +3770,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -3760,10 +3784,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -3771,10 +3795,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -3785,10 +3809,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3799,10 +3823,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3813,10 +3837,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3824,10 +3848,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3838,10 +3862,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -3852,10 +3876,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -3863,10 +3887,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
@@ -3874,10 +3898,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
@@ -3885,10 +3909,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
@@ -3899,10 +3923,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -3913,10 +3937,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -3927,10 +3951,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -3938,10 +3962,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -3952,10 +3976,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -3963,10 +3987,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
@@ -3974,10 +3998,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
@@ -3988,10 +4012,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
@@ -3999,10 +4023,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -4013,10 +4037,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
@@ -4027,10 +4051,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -4038,10 +4062,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -4052,10 +4076,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -4066,10 +4090,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -4077,10 +4101,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -4091,10 +4115,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -4102,10 +4126,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -4113,10 +4137,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -4124,10 +4148,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -4138,10 +4162,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -4152,10 +4176,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -4166,10 +4190,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -4177,10 +4201,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -4188,10 +4212,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -4202,10 +4226,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -4213,10 +4237,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -4227,10 +4251,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -4238,10 +4262,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
@@ -4249,10 +4273,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
@@ -4260,10 +4284,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
@@ -4271,10 +4295,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
@@ -4282,10 +4306,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
@@ -4293,10 +4317,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -4304,10 +4328,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -4315,10 +4339,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4326,10 +4350,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
@@ -4340,10 +4364,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
@@ -4354,10 +4378,10 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
@@ -4368,10 +4392,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
@@ -4382,10 +4406,10 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
@@ -4396,10 +4420,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
@@ -4410,10 +4434,10 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
@@ -4424,10 +4448,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
@@ -4435,10 +4459,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
@@ -4446,10 +4470,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -4457,10 +4481,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
@@ -4468,10 +4492,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
@@ -4479,10 +4503,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4493,10 +4517,10 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -4507,10 +4531,10 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -4521,10 +4545,10 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -4535,10 +4559,10 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
@@ -4549,10 +4573,10 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -4563,10 +4587,10 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -4577,10 +4601,10 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -4591,10 +4615,10 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
@@ -4605,10 +4629,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
@@ -4619,10 +4643,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
@@ -4633,10 +4657,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
@@ -4647,10 +4671,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
@@ -4661,10 +4685,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
@@ -4675,10 +4699,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
@@ -4689,10 +4713,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
@@ -4700,10 +4724,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
@@ -4711,10 +4735,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
@@ -4722,10 +4746,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
@@ -4733,10 +4757,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
@@ -4747,10 +4771,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
@@ -4761,10 +4785,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
@@ -4775,10 +4799,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
@@ -4789,10 +4813,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
@@ -4803,10 +4827,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
@@ -4817,10 +4841,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
@@ -4828,10 +4852,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
@@ -4842,10 +4866,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
@@ -4853,10 +4877,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
@@ -4864,10 +4888,10 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
@@ -4878,10 +4902,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
@@ -4889,10 +4913,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
@@ -4900,10 +4924,10 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
@@ -4914,10 +4938,10 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
@@ -4928,10 +4952,10 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
@@ -4942,10 +4966,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
@@ -4953,10 +4977,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
@@ -4964,10 +4988,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
@@ -4975,10 +4999,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
@@ -4986,10 +5010,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
@@ -4997,10 +5021,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
@@ -5008,10 +5032,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
@@ -5019,10 +5043,10 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
@@ -5033,10 +5057,10 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
@@ -5047,10 +5071,10 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
@@ -5061,10 +5085,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
@@ -5072,10 +5096,10 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
@@ -5086,10 +5110,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
@@ -5097,10 +5121,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
@@ -5108,10 +5132,10 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
@@ -5122,10 +5146,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
@@ -5133,10 +5157,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
@@ -5144,10 +5168,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
@@ -5155,10 +5179,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
@@ -5166,10 +5190,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
@@ -5177,10 +5201,10 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
@@ -5191,10 +5215,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
@@ -5202,10 +5226,10 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
@@ -5216,10 +5240,10 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
@@ -5230,10 +5254,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
@@ -5241,10 +5265,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>9</v>
@@ -5252,10 +5276,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>9</v>
@@ -5263,10 +5287,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>9</v>
@@ -5274,10 +5298,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
@@ -5285,10 +5309,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
@@ -5296,10 +5320,10 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
@@ -5310,10 +5334,10 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>9</v>
@@ -5324,10 +5348,10 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>9</v>
@@ -5338,10 +5362,10 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>9</v>
@@ -5352,10 +5376,10 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>9</v>
@@ -5366,10 +5390,10 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>9</v>
@@ -5380,10 +5404,10 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>9</v>
@@ -5394,10 +5418,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>9</v>
@@ -5405,10 +5429,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>9</v>
@@ -5416,10 +5440,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>9</v>
@@ -5427,10 +5451,10 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>9</v>
@@ -5438,10 +5462,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
@@ -5449,10 +5473,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>9</v>
@@ -5460,10 +5484,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>9</v>
@@ -5471,10 +5495,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>9</v>
@@ -5482,10 +5506,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>9</v>
@@ -5493,10 +5517,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>9</v>
@@ -5504,10 +5528,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>9</v>
@@ -5515,10 +5539,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>9</v>
@@ -5526,10 +5550,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>9</v>
@@ -5537,10 +5561,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>9</v>
@@ -5548,10 +5572,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>9</v>
@@ -5559,10 +5583,10 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>9</v>
@@ -5570,10 +5594,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>9</v>
@@ -5581,10 +5605,10 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>9</v>
@@ -5592,10 +5616,10 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>9</v>
@@ -5603,10 +5627,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>9</v>
@@ -5614,10 +5638,10 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>9</v>
@@ -5625,10 +5649,10 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>9</v>
@@ -5636,10 +5660,10 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>9</v>
@@ -5647,10 +5671,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>9</v>
@@ -5658,10 +5682,10 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>9</v>
@@ -5669,10 +5693,10 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>9</v>
@@ -5680,10 +5704,10 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>9</v>
@@ -5691,10 +5715,10 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>9</v>
@@ -5702,10 +5726,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>9</v>
@@ -5713,10 +5737,10 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>9</v>
@@ -5724,10 +5748,10 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>9</v>
@@ -5735,10 +5759,10 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>9</v>
@@ -5746,10 +5770,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>9</v>
@@ -5757,10 +5781,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>9</v>
@@ -5768,10 +5792,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>9</v>
@@ -5779,10 +5803,10 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>9</v>
@@ -5790,10 +5814,10 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>9</v>
@@ -5801,10 +5825,10 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>9</v>
@@ -5812,10 +5836,10 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>9</v>
@@ -5823,10 +5847,10 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>9</v>
@@ -5834,10 +5858,10 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>9</v>
@@ -5845,10 +5869,10 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>9</v>
@@ -5856,10 +5880,10 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>9</v>
@@ -5867,10 +5891,10 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>9</v>
@@ -5878,10 +5902,10 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>9</v>
@@ -5889,10 +5913,10 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>9</v>
@@ -5900,10 +5924,10 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>9</v>
@@ -5911,10 +5935,10 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>9</v>
@@ -5922,10 +5946,10 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>9</v>
@@ -5933,10 +5957,10 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>9</v>
@@ -5944,10 +5968,10 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>9</v>
@@ -5955,10 +5979,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>9</v>
@@ -5966,10 +5990,10 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>9</v>
@@ -5977,10 +6001,10 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>9</v>
@@ -5988,10 +6012,10 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>9</v>
@@ -5999,10 +6023,10 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>9</v>
@@ -6010,10 +6034,10 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>9</v>
@@ -6021,10 +6045,10 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>9</v>
@@ -6032,10 +6056,10 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>9</v>
@@ -6043,10 +6067,10 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>9</v>
@@ -6054,10 +6078,10 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>9</v>
@@ -6065,10 +6089,10 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>9</v>
@@ -6076,10 +6100,10 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>9</v>
@@ -6087,10 +6111,10 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>9</v>
@@ -6098,10 +6122,10 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>9</v>
@@ -6109,10 +6133,10 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>9</v>
@@ -6120,10 +6144,10 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>9</v>
@@ -6131,10 +6155,10 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>9</v>
@@ -6142,10 +6166,10 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>9</v>
@@ -6153,10 +6177,10 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>9</v>
@@ -6164,10 +6188,10 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>9</v>
@@ -6175,10 +6199,10 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>9</v>
@@ -6186,10 +6210,10 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>9</v>
@@ -6197,10 +6221,10 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>9</v>
@@ -6208,10 +6232,10 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>9</v>
@@ -6219,10 +6243,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>9</v>
@@ -6230,10 +6254,10 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>9</v>
@@ -6241,10 +6265,10 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>9</v>
@@ -6252,10 +6276,10 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>9</v>
@@ -6266,10 +6290,10 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>9</v>
@@ -6280,10 +6304,10 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>9</v>
@@ -6291,10 +6315,10 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>9</v>
@@ -6302,10 +6326,10 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>9</v>
@@ -6313,10 +6337,10 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>9</v>
@@ -6324,10 +6348,10 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>9</v>
@@ -6338,10 +6362,10 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>9</v>
@@ -6349,10 +6373,10 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>9</v>
@@ -6360,10 +6384,10 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>9</v>
@@ -6371,10 +6395,10 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>9</v>
@@ -6382,10 +6406,10 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>9</v>
@@ -6393,10 +6417,10 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>9</v>
@@ -6404,10 +6428,10 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>9</v>
@@ -6415,10 +6439,10 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>9</v>
@@ -6426,10 +6450,10 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>9</v>
@@ -6437,10 +6461,10 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>9</v>
@@ -6448,10 +6472,10 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>9</v>
@@ -6459,10 +6483,10 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>9</v>
@@ -6473,10 +6497,10 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>9</v>
@@ -6484,10 +6508,10 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>9</v>
@@ -6495,10 +6519,10 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>9</v>
@@ -6506,10 +6530,10 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>9</v>
@@ -6517,10 +6541,10 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>9</v>
@@ -6528,10 +6552,10 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>9</v>
@@ -6539,10 +6563,10 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>9</v>
@@ -6550,10 +6574,10 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>9</v>
@@ -6561,10 +6585,10 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>9</v>
@@ -6575,10 +6599,10 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>9</v>
@@ -6586,10 +6610,10 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>9</v>
@@ -6597,10 +6621,10 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>9</v>
@@ -6608,10 +6632,10 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>9</v>
@@ -6619,10 +6643,10 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>9</v>
@@ -6630,10 +6654,10 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>9</v>
@@ -6641,10 +6665,10 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>9</v>
@@ -6652,10 +6676,10 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>9</v>
@@ -6663,10 +6687,10 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>9</v>
@@ -6674,10 +6698,10 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>9</v>
@@ -6685,10 +6709,10 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>9</v>
@@ -6696,10 +6720,10 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>9</v>
@@ -6710,10 +6734,10 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>9</v>
@@ -6721,10 +6745,10 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>9</v>
@@ -6732,10 +6756,10 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>9</v>
@@ -6743,10 +6767,10 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>9</v>
@@ -6757,10 +6781,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>9</v>
@@ -6768,10 +6792,10 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>9</v>
@@ -6782,10 +6806,10 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>9</v>
@@ -6796,10 +6820,10 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>9</v>
@@ -6807,10 +6831,10 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>9</v>
@@ -6818,10 +6842,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>9</v>
@@ -6829,10 +6853,10 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>9</v>
@@ -6840,10 +6864,10 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>9</v>
@@ -6851,10 +6875,10 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>9</v>
@@ -6862,10 +6886,10 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>9</v>
@@ -6873,10 +6897,10 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>9</v>
@@ -6884,10 +6908,10 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>9</v>
@@ -6895,10 +6919,10 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>9</v>
@@ -6906,10 +6930,10 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>9</v>
@@ -6917,10 +6941,10 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>9</v>
@@ -6928,10 +6952,10 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>9</v>
@@ -6939,10 +6963,10 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>9</v>
@@ -6950,10 +6974,10 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>9</v>
@@ -6961,10 +6985,10 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>9</v>
@@ -6972,10 +6996,10 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>9</v>
@@ -6983,10 +7007,10 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>9</v>
@@ -6994,10 +7018,10 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>9</v>
@@ -7005,10 +7029,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>9</v>
@@ -7016,10 +7040,10 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>9</v>
@@ -7027,10 +7051,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>9</v>
@@ -7038,10 +7062,10 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>9</v>
@@ -7049,10 +7073,10 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>9</v>
@@ -7060,10 +7084,10 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>9</v>
@@ -7071,10 +7095,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>9</v>
@@ -7082,10 +7106,10 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>9</v>
@@ -7093,10 +7117,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>9</v>
@@ -7104,10 +7128,10 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>9</v>
@@ -7118,10 +7142,10 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>9</v>
@@ -7129,10 +7153,10 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>9</v>
@@ -7140,10 +7164,10 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>9</v>
@@ -7151,10 +7175,10 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>9</v>
@@ -7162,10 +7186,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>9</v>
@@ -7173,10 +7197,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>9</v>
@@ -7184,10 +7208,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>9</v>
@@ -7195,10 +7219,10 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>9</v>
@@ -7206,10 +7230,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>9</v>
@@ -7217,10 +7241,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>9</v>
@@ -7228,10 +7252,10 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>9</v>
@@ -7239,10 +7263,10 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>9</v>
@@ -7250,10 +7274,10 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>9</v>
@@ -7261,10 +7285,10 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>9</v>
@@ -7272,10 +7296,10 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>9</v>
@@ -7283,10 +7307,10 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>9</v>
@@ -7294,10 +7318,10 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>9</v>
@@ -7305,10 +7329,10 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>9</v>
@@ -7316,10 +7340,10 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>9</v>
@@ -7327,10 +7351,10 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>9</v>
@@ -7338,10 +7362,10 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>9</v>
@@ -7349,10 +7373,10 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>9</v>
@@ -7360,10 +7384,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>9</v>
@@ -7371,10 +7395,10 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>9</v>
@@ -7382,10 +7406,10 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>9</v>
@@ -7393,10 +7417,10 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>9</v>
@@ -7404,10 +7428,10 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>9</v>
@@ -7415,10 +7439,10 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>9</v>
@@ -7426,10 +7450,10 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>9</v>
@@ -7437,10 +7461,10 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>9</v>
@@ -7448,10 +7472,10 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>9</v>
@@ -7462,10 +7486,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>9</v>
@@ -7473,10 +7497,10 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>9</v>
@@ -7484,10 +7508,10 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>9</v>
@@ -7495,10 +7519,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>9</v>
@@ -7506,10 +7530,10 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>9</v>
@@ -7517,10 +7541,10 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>9</v>
@@ -7528,10 +7552,10 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>9</v>
@@ -7539,10 +7563,10 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>9</v>
@@ -7550,10 +7574,10 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>9</v>
@@ -7561,10 +7585,10 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>9</v>
@@ -7572,10 +7596,10 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>9</v>
@@ -7583,10 +7607,10 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>9</v>
@@ -7594,10 +7618,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>9</v>
@@ -7605,10 +7629,10 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>9</v>
@@ -7616,10 +7640,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>9</v>
@@ -7627,10 +7651,10 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>9</v>
@@ -7638,10 +7662,10 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>9</v>
@@ -7649,10 +7673,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>9</v>
@@ -7660,10 +7684,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>9</v>
@@ -7671,10 +7695,10 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>9</v>
@@ -7682,10 +7706,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>9</v>
@@ -7693,10 +7717,10 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>9</v>
@@ -7707,10 +7731,10 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>9</v>
@@ -7721,10 +7745,10 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>9</v>
@@ -7732,10 +7756,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>9</v>
@@ -7743,10 +7767,10 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>9</v>
@@ -7757,10 +7781,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>9</v>
@@ -7768,10 +7792,10 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>9</v>
@@ -7779,10 +7803,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>9</v>
@@ -7790,10 +7814,10 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>9</v>
@@ -7801,10 +7825,10 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>9</v>
@@ -7812,10 +7836,10 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>9</v>
@@ -7823,10 +7847,10 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>9</v>
@@ -7834,10 +7858,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>9</v>
@@ -7845,10 +7869,10 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>9</v>
@@ -7859,10 +7883,10 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>9</v>
@@ -7873,10 +7897,10 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>9</v>
@@ -7890,6 +7914,8 @@
     <hyperlink ref="H4" r:id="rId1" display="https://www.bjd.com.cn/index.shtml" tooltip="https://www.bjd.com.cn/index.shtml"/>
     <hyperlink ref="H5" r:id="rId2" display="http://www.ynet.com/index.html" tooltip="http://www.ynet.com/index.html"/>
     <hyperlink ref="H7" r:id="rId3" display="https://www.bjnews.com.cn/"/>
+    <hyperlink ref="H8" r:id="rId2" display="http://www.ynet.com/index.html" tooltip="http://www.ynet.com/index.html"/>
+    <hyperlink ref="H9" r:id="rId4" display="https://bbtnews.com.cn/" tooltip="https://bbtnews.com.cn/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Doc/lin.xlsx
+++ b/Doc/lin.xlsx
@@ -15,8 +15,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1完成
+0找不着
+2有特殊配置
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="484">
   <si>
     <t>media_name</t>
   </si>
@@ -126,10 +161,22 @@
     <t>长城网</t>
   </si>
   <si>
+    <t>新闻资讯</t>
+  </si>
+  <si>
+    <t>http://www.thegreatwall.cn/</t>
+  </si>
+  <si>
     <t>河青新闻网</t>
   </si>
   <si>
     <t>河工新闻网</t>
+  </si>
+  <si>
+    <t>国内 国际 产经</t>
+  </si>
+  <si>
+    <t>http://www.hbgrb.net/</t>
   </si>
   <si>
     <t>河北法制网</t>
@@ -1468,7 +1515,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1619,6 +1666,17 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2436,7 +2494,7 @@
   <dimension ref="A1:H454"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2709,7 +2767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -2722,13 +2780,22 @@
       <c r="D18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
@@ -2736,27 +2803,39 @@
       <c r="D19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20">
         <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
@@ -2764,10 +2843,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -2775,10 +2854,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
@@ -2789,10 +2868,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
@@ -2803,10 +2882,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
@@ -2817,10 +2896,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
@@ -2831,10 +2910,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
@@ -2842,10 +2921,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -2856,10 +2935,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
@@ -2867,10 +2946,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
@@ -2878,10 +2957,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
@@ -2892,10 +2971,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
@@ -2906,10 +2985,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
@@ -2917,10 +2996,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -2928,10 +3007,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
@@ -2942,10 +3021,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
@@ -2953,10 +3032,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
@@ -2967,10 +3046,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -2981,10 +3060,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
@@ -2995,10 +3074,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
@@ -3006,10 +3085,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
@@ -3020,10 +3099,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
@@ -3034,10 +3113,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
@@ -3048,10 +3127,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
@@ -3059,10 +3138,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
@@ -3070,10 +3149,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -3081,10 +3160,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
@@ -3092,10 +3171,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -3103,10 +3182,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
@@ -3114,10 +3193,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
@@ -3125,10 +3204,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
@@ -3136,10 +3215,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
@@ -3147,10 +3226,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
@@ -3158,10 +3237,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
@@ -3172,10 +3251,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
@@ -3186,10 +3265,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
@@ -3200,10 +3279,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
@@ -3214,10 +3293,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
@@ -3228,10 +3307,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
@@ -3242,10 +3321,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
@@ -3256,10 +3335,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
@@ -3267,10 +3346,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
@@ -3281,10 +3360,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
@@ -3295,10 +3374,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
@@ -3309,10 +3388,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
@@ -3323,10 +3402,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
@@ -3337,10 +3416,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
@@ -3351,10 +3430,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
@@ -3362,10 +3441,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
@@ -3373,10 +3452,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
@@ -3384,10 +3463,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
@@ -3395,10 +3474,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
@@ -3406,10 +3485,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
@@ -3417,10 +3496,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -3428,10 +3507,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -3439,10 +3518,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -3450,10 +3529,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -3464,10 +3543,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -3478,10 +3557,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -3492,10 +3571,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -3503,10 +3582,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -3514,10 +3593,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -3528,10 +3607,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -3542,10 +3621,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -3553,10 +3632,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -3567,10 +3646,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -3581,10 +3660,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
@@ -3595,10 +3674,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -3606,10 +3685,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
@@ -3617,10 +3696,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
@@ -3628,10 +3707,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
@@ -3639,10 +3718,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -3653,10 +3732,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
@@ -3667,10 +3746,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -3681,10 +3760,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -3692,10 +3771,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -3703,10 +3782,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -3714,10 +3793,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -3728,10 +3807,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -3742,10 +3821,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -3756,10 +3835,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -3770,10 +3849,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -3784,10 +3863,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -3795,10 +3874,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -3809,10 +3888,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3823,10 +3902,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3837,10 +3916,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3848,10 +3927,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3862,10 +3941,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -3876,10 +3955,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -3887,10 +3966,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
@@ -3898,10 +3977,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
@@ -3909,10 +3988,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
@@ -3923,10 +4002,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -3937,10 +4016,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -3951,10 +4030,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -3962,10 +4041,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -3976,10 +4055,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -3987,10 +4066,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
@@ -3998,10 +4077,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
@@ -4012,10 +4091,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
@@ -4023,10 +4102,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -4037,10 +4116,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
@@ -4051,10 +4130,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -4062,10 +4141,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -4076,10 +4155,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -4090,10 +4169,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -4101,10 +4180,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -4115,10 +4194,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -4126,10 +4205,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -4137,10 +4216,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -4148,10 +4227,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -4162,10 +4241,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -4176,10 +4255,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -4190,10 +4269,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -4201,10 +4280,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -4212,10 +4291,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -4226,10 +4305,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -4237,10 +4316,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -4251,10 +4330,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -4262,10 +4341,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
@@ -4273,10 +4352,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
@@ -4284,10 +4363,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
@@ -4295,10 +4374,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
@@ -4306,10 +4385,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
@@ -4317,10 +4396,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -4328,10 +4407,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -4339,10 +4418,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4350,10 +4429,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
@@ -4364,10 +4443,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
@@ -4378,10 +4457,10 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
@@ -4392,10 +4471,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
@@ -4406,10 +4485,10 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
@@ -4420,10 +4499,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
@@ -4434,10 +4513,10 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
@@ -4448,10 +4527,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
@@ -4459,10 +4538,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
@@ -4470,10 +4549,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -4481,10 +4560,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
@@ -4492,10 +4571,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
@@ -4503,10 +4582,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4517,10 +4596,10 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -4531,10 +4610,10 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -4545,10 +4624,10 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -4559,10 +4638,10 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
@@ -4573,10 +4652,10 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -4587,10 +4666,10 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -4601,10 +4680,10 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -4615,10 +4694,10 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
@@ -4629,10 +4708,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
@@ -4643,10 +4722,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
@@ -4657,10 +4736,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
@@ -4671,10 +4750,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
@@ -4685,10 +4764,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
@@ -4699,10 +4778,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
@@ -4713,10 +4792,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
@@ -4724,10 +4803,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
@@ -4735,10 +4814,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
@@ -4746,10 +4825,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
@@ -4757,10 +4836,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
@@ -4771,10 +4850,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
@@ -4785,10 +4864,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
@@ -4799,10 +4878,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
@@ -4813,10 +4892,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
@@ -4827,10 +4906,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
@@ -4841,10 +4920,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
@@ -4852,10 +4931,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
@@ -4866,10 +4945,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
@@ -4877,10 +4956,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
@@ -4888,10 +4967,10 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
@@ -4902,10 +4981,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
@@ -4913,10 +4992,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
@@ -4924,10 +5003,10 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
@@ -4938,10 +5017,10 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
@@ -4952,10 +5031,10 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
@@ -4966,10 +5045,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
@@ -4977,10 +5056,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
@@ -4988,10 +5067,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
@@ -4999,10 +5078,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
@@ -5010,10 +5089,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
@@ -5021,10 +5100,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
@@ -5032,10 +5111,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
@@ -5043,10 +5122,10 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
@@ -5057,10 +5136,10 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
@@ -5071,10 +5150,10 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
@@ -5085,10 +5164,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
@@ -5096,10 +5175,10 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
@@ -5110,10 +5189,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
@@ -5121,10 +5200,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
@@ -5132,10 +5211,10 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
@@ -5146,10 +5225,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
@@ -5157,10 +5236,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
@@ -5168,10 +5247,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
@@ -5179,10 +5258,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
@@ -5190,10 +5269,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
@@ -5201,10 +5280,10 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
@@ -5215,10 +5294,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
@@ -5226,10 +5305,10 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
@@ -5240,10 +5319,10 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
@@ -5254,10 +5333,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
@@ -5265,10 +5344,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>9</v>
@@ -5276,10 +5355,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>9</v>
@@ -5287,10 +5366,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>9</v>
@@ -5298,10 +5377,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
@@ -5309,10 +5388,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
@@ -5320,10 +5399,10 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
@@ -5334,10 +5413,10 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>9</v>
@@ -5348,10 +5427,10 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>9</v>
@@ -5362,10 +5441,10 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>9</v>
@@ -5376,10 +5455,10 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>9</v>
@@ -5390,10 +5469,10 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>9</v>
@@ -5404,10 +5483,10 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>9</v>
@@ -5418,10 +5497,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>9</v>
@@ -5429,10 +5508,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>9</v>
@@ -5440,10 +5519,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>9</v>
@@ -5451,10 +5530,10 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>9</v>
@@ -5462,10 +5541,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
@@ -5473,10 +5552,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>9</v>
@@ -5484,10 +5563,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>9</v>
@@ -5495,10 +5574,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>9</v>
@@ -5506,10 +5585,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>9</v>
@@ -5517,10 +5596,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>9</v>
@@ -5528,10 +5607,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>9</v>
@@ -5539,10 +5618,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>9</v>
@@ -5550,10 +5629,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>9</v>
@@ -5561,10 +5640,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>9</v>
@@ -5572,10 +5651,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>9</v>
@@ -5583,10 +5662,10 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>9</v>
@@ -5594,10 +5673,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>9</v>
@@ -5605,10 +5684,10 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>9</v>
@@ -5616,10 +5695,10 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>9</v>
@@ -5627,10 +5706,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>9</v>
@@ -5638,10 +5717,10 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>9</v>
@@ -5649,10 +5728,10 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>9</v>
@@ -5660,10 +5739,10 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>9</v>
@@ -5671,10 +5750,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>9</v>
@@ -5682,10 +5761,10 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>9</v>
@@ -5693,10 +5772,10 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>9</v>
@@ -5704,10 +5783,10 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>9</v>
@@ -5715,10 +5794,10 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>9</v>
@@ -5726,10 +5805,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>9</v>
@@ -5737,10 +5816,10 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>9</v>
@@ -5748,10 +5827,10 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>9</v>
@@ -5759,10 +5838,10 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>9</v>
@@ -5770,10 +5849,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>9</v>
@@ -5781,10 +5860,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>9</v>
@@ -5792,10 +5871,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>9</v>
@@ -5803,10 +5882,10 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>9</v>
@@ -5814,10 +5893,10 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>9</v>
@@ -5825,10 +5904,10 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>9</v>
@@ -5836,10 +5915,10 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>9</v>
@@ -5847,10 +5926,10 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>9</v>
@@ -5858,10 +5937,10 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>9</v>
@@ -5869,10 +5948,10 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>9</v>
@@ -5880,10 +5959,10 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>9</v>
@@ -5891,10 +5970,10 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>9</v>
@@ -5902,10 +5981,10 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>9</v>
@@ -5913,10 +5992,10 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>9</v>
@@ -5924,10 +6003,10 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>9</v>
@@ -5935,10 +6014,10 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>9</v>
@@ -5946,10 +6025,10 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>9</v>
@@ -5957,10 +6036,10 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>9</v>
@@ -5968,10 +6047,10 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>9</v>
@@ -5979,10 +6058,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>9</v>
@@ -5990,10 +6069,10 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>9</v>
@@ -6001,10 +6080,10 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>9</v>
@@ -6012,10 +6091,10 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>9</v>
@@ -6023,10 +6102,10 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>9</v>
@@ -6034,10 +6113,10 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>9</v>
@@ -6045,10 +6124,10 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>9</v>
@@ -6056,10 +6135,10 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>9</v>
@@ -6067,10 +6146,10 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>9</v>
@@ -6078,10 +6157,10 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>9</v>
@@ -6089,10 +6168,10 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>9</v>
@@ -6100,10 +6179,10 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>9</v>
@@ -6111,10 +6190,10 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>9</v>
@@ -6122,10 +6201,10 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>9</v>
@@ -6133,10 +6212,10 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>9</v>
@@ -6144,10 +6223,10 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>9</v>
@@ -6155,10 +6234,10 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>9</v>
@@ -6166,10 +6245,10 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="2" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>9</v>
@@ -6177,10 +6256,10 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>9</v>
@@ -6188,10 +6267,10 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="2" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>9</v>
@@ -6199,10 +6278,10 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>9</v>
@@ -6210,10 +6289,10 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>9</v>
@@ -6221,10 +6300,10 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>9</v>
@@ -6232,10 +6311,10 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>9</v>
@@ -6243,10 +6322,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>9</v>
@@ -6254,10 +6333,10 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>9</v>
@@ -6265,10 +6344,10 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>9</v>
@@ -6276,10 +6355,10 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>9</v>
@@ -6290,10 +6369,10 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>9</v>
@@ -6304,10 +6383,10 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>9</v>
@@ -6315,10 +6394,10 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>9</v>
@@ -6326,10 +6405,10 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>9</v>
@@ -6337,10 +6416,10 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>9</v>
@@ -6348,10 +6427,10 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>9</v>
@@ -6362,10 +6441,10 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>9</v>
@@ -6373,10 +6452,10 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>9</v>
@@ -6384,10 +6463,10 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>9</v>
@@ -6395,10 +6474,10 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>9</v>
@@ -6406,10 +6485,10 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="2" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>9</v>
@@ -6417,10 +6496,10 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="2" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>9</v>
@@ -6428,10 +6507,10 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="2" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>9</v>
@@ -6439,10 +6518,10 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>9</v>
@@ -6450,10 +6529,10 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>9</v>
@@ -6461,10 +6540,10 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="2" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>9</v>
@@ -6472,10 +6551,10 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>9</v>
@@ -6483,10 +6562,10 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>9</v>
@@ -6497,10 +6576,10 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>9</v>
@@ -6508,10 +6587,10 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>9</v>
@@ -6519,10 +6598,10 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="2" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>9</v>
@@ -6530,10 +6609,10 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="2" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>9</v>
@@ -6541,10 +6620,10 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>9</v>
@@ -6552,10 +6631,10 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="2" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>9</v>
@@ -6563,10 +6642,10 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="2" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>9</v>
@@ -6574,10 +6653,10 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>9</v>
@@ -6585,10 +6664,10 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>9</v>
@@ -6599,10 +6678,10 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>9</v>
@@ -6610,10 +6689,10 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>9</v>
@@ -6621,10 +6700,10 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>9</v>
@@ -6632,10 +6711,10 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="2" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>9</v>
@@ -6643,10 +6722,10 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>9</v>
@@ -6654,10 +6733,10 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>9</v>
@@ -6665,10 +6744,10 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>9</v>
@@ -6676,10 +6755,10 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="2" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>9</v>
@@ -6687,10 +6766,10 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="2" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>9</v>
@@ -6698,10 +6777,10 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>9</v>
@@ -6709,10 +6788,10 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="2" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>9</v>
@@ -6720,10 +6799,10 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>9</v>
@@ -6734,10 +6813,10 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>9</v>
@@ -6745,10 +6824,10 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>9</v>
@@ -6756,10 +6835,10 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="2" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>9</v>
@@ -6767,10 +6846,10 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>9</v>
@@ -6781,10 +6860,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="2" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>9</v>
@@ -6792,10 +6871,10 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>9</v>
@@ -6806,10 +6885,10 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>9</v>
@@ -6820,10 +6899,10 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="2" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>9</v>
@@ -6831,10 +6910,10 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>9</v>
@@ -6842,10 +6921,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="2" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>9</v>
@@ -6853,10 +6932,10 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="2" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>9</v>
@@ -6864,10 +6943,10 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="2" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>9</v>
@@ -6875,10 +6954,10 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="2" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>9</v>
@@ -6886,10 +6965,10 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="2" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>9</v>
@@ -6897,10 +6976,10 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="2" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>9</v>
@@ -6908,10 +6987,10 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>9</v>
@@ -6919,10 +6998,10 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>9</v>
@@ -6930,10 +7009,10 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>9</v>
@@ -6941,10 +7020,10 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>9</v>
@@ -6952,10 +7031,10 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="2" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>9</v>
@@ -6963,10 +7042,10 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="2" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>9</v>
@@ -6974,10 +7053,10 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>9</v>
@@ -6985,10 +7064,10 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="2" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>9</v>
@@ -6996,10 +7075,10 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="2" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>9</v>
@@ -7007,10 +7086,10 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>9</v>
@@ -7018,10 +7097,10 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>9</v>
@@ -7029,10 +7108,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="2" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>9</v>
@@ -7040,10 +7119,10 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="2" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>9</v>
@@ -7051,10 +7130,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="2" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>9</v>
@@ -7062,10 +7141,10 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="2" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>9</v>
@@ -7073,10 +7152,10 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="2" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>9</v>
@@ -7084,10 +7163,10 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="2" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>9</v>
@@ -7095,10 +7174,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>9</v>
@@ -7106,10 +7185,10 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="2" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>9</v>
@@ -7117,10 +7196,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="2" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>9</v>
@@ -7128,10 +7207,10 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>9</v>
@@ -7142,10 +7221,10 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>9</v>
@@ -7153,10 +7232,10 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="2" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>9</v>
@@ -7164,10 +7243,10 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="2" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>9</v>
@@ -7175,10 +7254,10 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="2" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>9</v>
@@ -7186,10 +7265,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="2" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>9</v>
@@ -7197,10 +7276,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="2" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>9</v>
@@ -7208,10 +7287,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="2" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>9</v>
@@ -7219,10 +7298,10 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="2" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>9</v>
@@ -7230,10 +7309,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="2" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>9</v>
@@ -7241,10 +7320,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>9</v>
@@ -7252,10 +7331,10 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="2" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>9</v>
@@ -7263,10 +7342,10 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>9</v>
@@ -7274,10 +7353,10 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="2" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>9</v>
@@ -7285,10 +7364,10 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="2" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>9</v>
@@ -7296,10 +7375,10 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="2" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>9</v>
@@ -7307,10 +7386,10 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="2" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>9</v>
@@ -7318,10 +7397,10 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="2" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>9</v>
@@ -7329,10 +7408,10 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="2" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>9</v>
@@ -7340,10 +7419,10 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="2" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>9</v>
@@ -7351,10 +7430,10 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>9</v>
@@ -7362,10 +7441,10 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>9</v>
@@ -7373,10 +7452,10 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>9</v>
@@ -7384,10 +7463,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="2" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>9</v>
@@ -7395,10 +7474,10 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="2" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>9</v>
@@ -7406,10 +7485,10 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="2" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>9</v>
@@ -7417,10 +7496,10 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="2" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>9</v>
@@ -7428,10 +7507,10 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="2" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>9</v>
@@ -7439,10 +7518,10 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="2" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>9</v>
@@ -7450,10 +7529,10 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="2" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>9</v>
@@ -7461,10 +7540,10 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="2" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>9</v>
@@ -7472,10 +7551,10 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="2" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>9</v>
@@ -7486,10 +7565,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>9</v>
@@ -7497,10 +7576,10 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="2" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>9</v>
@@ -7508,10 +7587,10 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>9</v>
@@ -7519,10 +7598,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="2" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>9</v>
@@ -7530,10 +7609,10 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="2" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>9</v>
@@ -7541,10 +7620,10 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="2" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>9</v>
@@ -7552,10 +7631,10 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="2" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>9</v>
@@ -7563,10 +7642,10 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>9</v>
@@ -7574,10 +7653,10 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="2" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>9</v>
@@ -7585,10 +7664,10 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="2" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>9</v>
@@ -7596,10 +7675,10 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="2" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>9</v>
@@ -7607,10 +7686,10 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="2" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>9</v>
@@ -7618,10 +7697,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="2" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>9</v>
@@ -7629,10 +7708,10 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="2" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>9</v>
@@ -7640,10 +7719,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>9</v>
@@ -7651,10 +7730,10 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="2" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>9</v>
@@ -7662,10 +7741,10 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="2" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>9</v>
@@ -7673,10 +7752,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="2" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>9</v>
@@ -7684,10 +7763,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="2" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>9</v>
@@ -7695,10 +7774,10 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="2" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>9</v>
@@ -7706,10 +7785,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="2" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>9</v>
@@ -7717,10 +7796,10 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="2" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>9</v>
@@ -7731,10 +7810,10 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>9</v>
@@ -7745,10 +7824,10 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="2" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>9</v>
@@ -7756,10 +7835,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="2" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>9</v>
@@ -7767,10 +7846,10 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="2" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>9</v>
@@ -7781,10 +7860,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>9</v>
@@ -7792,10 +7871,10 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>9</v>
@@ -7803,10 +7882,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="2" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>9</v>
@@ -7814,10 +7893,10 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>9</v>
@@ -7825,10 +7904,10 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="2" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>9</v>
@@ -7836,10 +7915,10 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="2" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>9</v>
@@ -7847,10 +7926,10 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="2" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>9</v>
@@ -7858,10 +7937,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="2" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>9</v>
@@ -7869,10 +7948,10 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="2" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>9</v>
@@ -7883,10 +7962,10 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="2" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>9</v>
@@ -7897,10 +7976,10 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="2" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>9</v>
@@ -7911,15 +7990,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" display="https://www.bjd.com.cn/index.shtml" tooltip="https://www.bjd.com.cn/index.shtml"/>
-    <hyperlink ref="H5" r:id="rId2" display="http://www.ynet.com/index.html" tooltip="http://www.ynet.com/index.html"/>
-    <hyperlink ref="H7" r:id="rId3" display="https://www.bjnews.com.cn/"/>
-    <hyperlink ref="H8" r:id="rId2" display="http://www.ynet.com/index.html" tooltip="http://www.ynet.com/index.html"/>
-    <hyperlink ref="H9" r:id="rId4" display="https://bbtnews.com.cn/" tooltip="https://bbtnews.com.cn/"/>
+    <hyperlink ref="H4" r:id="rId3" display="https://www.bjd.com.cn/index.shtml" tooltip="https://www.bjd.com.cn/index.shtml"/>
+    <hyperlink ref="H5" r:id="rId4" display="http://www.ynet.com/index.html" tooltip="http://www.ynet.com/index.html"/>
+    <hyperlink ref="H7" r:id="rId5" display="https://www.bjnews.com.cn/"/>
+    <hyperlink ref="H8" r:id="rId4" display="http://www.ynet.com/index.html" tooltip="http://www.ynet.com/index.html"/>
+    <hyperlink ref="H9" r:id="rId6" display="https://bbtnews.com.cn/" tooltip="https://bbtnews.com.cn/"/>
+    <hyperlink ref="H18" r:id="rId7" display="http://www.thegreatwall.cn/" tooltip="http://www.thegreatwall.cn/"/>
+    <hyperlink ref="H20" r:id="rId8" display="http://www.hbgrb.net/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Doc/lin.xlsx
+++ b/Doc/lin.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="485">
   <si>
     <t>media_name</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>石家庄新闻网</t>
+  </si>
+  <si>
+    <t>http://sjzdaily.com.cn/</t>
   </si>
   <si>
     <t>秦皇岛新闻网</t>
@@ -2494,7 +2497,7 @@
   <dimension ref="A1:H454"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2852,7 +2855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -2865,13 +2868,22 @@
       <c r="D23">
         <v>1</v>
       </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
@@ -2882,10 +2894,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
@@ -2896,10 +2908,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
@@ -2910,10 +2922,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
@@ -2921,10 +2933,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -2935,10 +2947,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
@@ -2946,10 +2958,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
@@ -2957,10 +2969,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
@@ -2971,10 +2983,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
@@ -2985,10 +2997,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
@@ -2996,10 +3008,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -3007,10 +3019,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
@@ -3021,10 +3033,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
@@ -3032,10 +3044,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
@@ -3046,10 +3058,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -3060,10 +3072,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
@@ -3074,10 +3086,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
@@ -3085,10 +3097,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
@@ -3099,10 +3111,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
@@ -3113,10 +3125,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
@@ -3127,10 +3139,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
@@ -3138,10 +3150,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
@@ -3149,10 +3161,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -3160,10 +3172,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
@@ -3171,10 +3183,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -3182,10 +3194,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
@@ -3193,10 +3205,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
@@ -3204,10 +3216,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
@@ -3215,10 +3227,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
@@ -3226,10 +3238,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
@@ -3237,10 +3249,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
@@ -3251,10 +3263,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
@@ -3265,10 +3277,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
@@ -3279,10 +3291,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
@@ -3293,10 +3305,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
@@ -3307,10 +3319,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
@@ -3321,10 +3333,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
@@ -3335,10 +3347,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
@@ -3346,10 +3358,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
@@ -3360,10 +3372,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
@@ -3374,10 +3386,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
@@ -3388,10 +3400,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
@@ -3402,10 +3414,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
@@ -3416,10 +3428,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
@@ -3430,10 +3442,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
@@ -3441,10 +3453,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
@@ -3452,10 +3464,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
@@ -3463,10 +3475,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
@@ -3474,10 +3486,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
@@ -3485,10 +3497,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
@@ -3496,10 +3508,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -3507,10 +3519,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -3518,10 +3530,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -3529,10 +3541,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -3543,10 +3555,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -3557,10 +3569,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -3571,10 +3583,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -3582,10 +3594,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -3593,10 +3605,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -3607,10 +3619,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -3621,10 +3633,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -3632,10 +3644,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -3646,10 +3658,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -3660,10 +3672,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
@@ -3674,10 +3686,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -3685,10 +3697,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
@@ -3696,10 +3708,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
@@ -3707,10 +3719,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
@@ -3718,10 +3730,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -3732,10 +3744,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
@@ -3746,10 +3758,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -3760,10 +3772,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -3771,10 +3783,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -3782,10 +3794,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -3793,10 +3805,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -3807,10 +3819,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -3821,10 +3833,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -3835,10 +3847,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -3849,10 +3861,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -3863,10 +3875,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -3874,10 +3886,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -3888,10 +3900,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3902,10 +3914,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3916,10 +3928,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3927,10 +3939,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3941,10 +3953,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -3955,10 +3967,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -3966,10 +3978,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
@@ -3977,10 +3989,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
@@ -3988,10 +4000,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
@@ -4002,10 +4014,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -4016,10 +4028,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -4030,10 +4042,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -4041,10 +4053,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -4055,10 +4067,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -4066,10 +4078,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
@@ -4077,10 +4089,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
@@ -4091,10 +4103,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
@@ -4102,10 +4114,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -4116,10 +4128,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
@@ -4130,10 +4142,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -4141,10 +4153,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -4155,10 +4167,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -4169,10 +4181,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -4180,10 +4192,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -4194,10 +4206,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -4205,10 +4217,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -4216,10 +4228,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -4227,10 +4239,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -4241,10 +4253,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -4255,10 +4267,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -4269,10 +4281,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -4280,10 +4292,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -4291,10 +4303,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -4305,10 +4317,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -4316,10 +4328,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -4330,10 +4342,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -4341,10 +4353,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
@@ -4352,10 +4364,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
@@ -4363,10 +4375,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
@@ -4374,10 +4386,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
@@ -4385,10 +4397,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
@@ -4396,10 +4408,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -4407,10 +4419,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -4418,10 +4430,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4429,10 +4441,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
@@ -4443,10 +4455,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
@@ -4457,10 +4469,10 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
@@ -4471,10 +4483,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
@@ -4485,10 +4497,10 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
@@ -4499,10 +4511,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
@@ -4513,10 +4525,10 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
@@ -4527,10 +4539,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
@@ -4538,10 +4550,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
@@ -4549,10 +4561,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -4560,10 +4572,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
@@ -4571,10 +4583,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
@@ -4582,10 +4594,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4596,10 +4608,10 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -4610,10 +4622,10 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -4624,10 +4636,10 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -4638,10 +4650,10 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
@@ -4652,10 +4664,10 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -4666,10 +4678,10 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -4680,10 +4692,10 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -4694,10 +4706,10 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
@@ -4708,10 +4720,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
@@ -4722,10 +4734,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
@@ -4736,10 +4748,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
@@ -4750,10 +4762,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
@@ -4764,10 +4776,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
@@ -4778,10 +4790,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
@@ -4792,10 +4804,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
@@ -4803,10 +4815,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
@@ -4814,10 +4826,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
@@ -4825,10 +4837,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
@@ -4836,10 +4848,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
@@ -4850,10 +4862,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
@@ -4864,10 +4876,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
@@ -4878,10 +4890,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
@@ -4892,10 +4904,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
@@ -4906,10 +4918,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
@@ -4920,10 +4932,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
@@ -4931,10 +4943,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
@@ -4945,10 +4957,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
@@ -4956,10 +4968,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
@@ -4967,10 +4979,10 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
@@ -4981,10 +4993,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
@@ -4992,10 +5004,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
@@ -5003,10 +5015,10 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
@@ -5017,10 +5029,10 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
@@ -5031,10 +5043,10 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
@@ -5045,10 +5057,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
@@ -5056,10 +5068,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
@@ -5067,10 +5079,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
@@ -5078,10 +5090,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
@@ -5089,10 +5101,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
@@ -5100,10 +5112,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
@@ -5111,10 +5123,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
@@ -5122,10 +5134,10 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
@@ -5136,10 +5148,10 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
@@ -5150,10 +5162,10 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
@@ -5164,10 +5176,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
@@ -5175,10 +5187,10 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
@@ -5189,10 +5201,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
@@ -5200,10 +5212,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
@@ -5211,10 +5223,10 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
@@ -5225,10 +5237,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
@@ -5236,10 +5248,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
@@ -5247,10 +5259,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
@@ -5258,10 +5270,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
@@ -5269,10 +5281,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
@@ -5280,10 +5292,10 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
@@ -5294,10 +5306,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
@@ -5305,10 +5317,10 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
@@ -5319,10 +5331,10 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
@@ -5333,10 +5345,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
@@ -5344,10 +5356,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>9</v>
@@ -5355,10 +5367,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>9</v>
@@ -5366,10 +5378,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>9</v>
@@ -5377,10 +5389,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
@@ -5388,10 +5400,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
@@ -5399,10 +5411,10 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
@@ -5413,10 +5425,10 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>9</v>
@@ -5427,10 +5439,10 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>9</v>
@@ -5441,10 +5453,10 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>9</v>
@@ -5455,10 +5467,10 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>9</v>
@@ -5469,10 +5481,10 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>9</v>
@@ -5483,10 +5495,10 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>9</v>
@@ -5497,10 +5509,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>9</v>
@@ -5508,10 +5520,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>9</v>
@@ -5519,10 +5531,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>9</v>
@@ -5530,10 +5542,10 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>9</v>
@@ -5541,10 +5553,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
@@ -5552,10 +5564,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>9</v>
@@ -5563,10 +5575,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>9</v>
@@ -5574,10 +5586,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>9</v>
@@ -5585,10 +5597,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>9</v>
@@ -5596,10 +5608,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>9</v>
@@ -5607,10 +5619,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>9</v>
@@ -5618,10 +5630,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>9</v>
@@ -5629,10 +5641,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>9</v>
@@ -5640,10 +5652,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>9</v>
@@ -5651,10 +5663,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>9</v>
@@ -5662,10 +5674,10 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>9</v>
@@ -5673,10 +5685,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>9</v>
@@ -5684,10 +5696,10 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>9</v>
@@ -5695,10 +5707,10 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>9</v>
@@ -5706,10 +5718,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>9</v>
@@ -5717,10 +5729,10 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>9</v>
@@ -5728,10 +5740,10 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>9</v>
@@ -5739,10 +5751,10 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>9</v>
@@ -5750,10 +5762,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>9</v>
@@ -5761,10 +5773,10 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>9</v>
@@ -5772,10 +5784,10 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>9</v>
@@ -5783,10 +5795,10 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>9</v>
@@ -5794,10 +5806,10 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>9</v>
@@ -5805,10 +5817,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>9</v>
@@ -5816,10 +5828,10 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>9</v>
@@ -5827,10 +5839,10 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>9</v>
@@ -5838,10 +5850,10 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>9</v>
@@ -5849,10 +5861,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>9</v>
@@ -5860,10 +5872,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>9</v>
@@ -5871,10 +5883,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>9</v>
@@ -5882,10 +5894,10 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>9</v>
@@ -5893,10 +5905,10 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>9</v>
@@ -5904,10 +5916,10 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>9</v>
@@ -5915,10 +5927,10 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>9</v>
@@ -5926,10 +5938,10 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>9</v>
@@ -5937,10 +5949,10 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>9</v>
@@ -5948,10 +5960,10 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>9</v>
@@ -5959,10 +5971,10 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>9</v>
@@ -5970,10 +5982,10 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>9</v>
@@ -5981,10 +5993,10 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>9</v>
@@ -5992,10 +6004,10 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>9</v>
@@ -6003,10 +6015,10 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>9</v>
@@ -6014,10 +6026,10 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>9</v>
@@ -6025,10 +6037,10 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>9</v>
@@ -6036,10 +6048,10 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>9</v>
@@ -6047,10 +6059,10 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>9</v>
@@ -6058,10 +6070,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>9</v>
@@ -6069,10 +6081,10 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>9</v>
@@ -6080,10 +6092,10 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>9</v>
@@ -6091,10 +6103,10 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>9</v>
@@ -6102,10 +6114,10 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>9</v>
@@ -6113,10 +6125,10 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>9</v>
@@ -6124,10 +6136,10 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>9</v>
@@ -6135,10 +6147,10 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>9</v>
@@ -6146,10 +6158,10 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>9</v>
@@ -6157,10 +6169,10 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>9</v>
@@ -6168,10 +6180,10 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>9</v>
@@ -6179,10 +6191,10 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>9</v>
@@ -6190,10 +6202,10 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>9</v>
@@ -6201,10 +6213,10 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>9</v>
@@ -6212,10 +6224,10 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>9</v>
@@ -6223,10 +6235,10 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>9</v>
@@ -6234,10 +6246,10 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>9</v>
@@ -6245,10 +6257,10 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>9</v>
@@ -6256,10 +6268,10 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>9</v>
@@ -6267,10 +6279,10 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>9</v>
@@ -6278,10 +6290,10 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>9</v>
@@ -6289,10 +6301,10 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>9</v>
@@ -6300,10 +6312,10 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>9</v>
@@ -6311,10 +6323,10 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>9</v>
@@ -6322,10 +6334,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>9</v>
@@ -6333,10 +6345,10 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>9</v>
@@ -6344,10 +6356,10 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>9</v>
@@ -6355,10 +6367,10 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>9</v>
@@ -6369,10 +6381,10 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>9</v>
@@ -6383,10 +6395,10 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>9</v>
@@ -6394,10 +6406,10 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>9</v>
@@ -6405,10 +6417,10 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>9</v>
@@ -6416,10 +6428,10 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>9</v>
@@ -6427,10 +6439,10 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>9</v>
@@ -6441,10 +6453,10 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>9</v>
@@ -6452,10 +6464,10 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>9</v>
@@ -6463,10 +6475,10 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>9</v>
@@ -6474,10 +6486,10 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>9</v>
@@ -6485,10 +6497,10 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>9</v>
@@ -6496,10 +6508,10 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>9</v>
@@ -6507,10 +6519,10 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>9</v>
@@ -6518,10 +6530,10 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>9</v>
@@ -6529,10 +6541,10 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>9</v>
@@ -6540,10 +6552,10 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>9</v>
@@ -6551,10 +6563,10 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>9</v>
@@ -6562,10 +6574,10 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>9</v>
@@ -6576,10 +6588,10 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>9</v>
@@ -6587,10 +6599,10 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>9</v>
@@ -6598,10 +6610,10 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>9</v>
@@ -6609,10 +6621,10 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>9</v>
@@ -6620,10 +6632,10 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>9</v>
@@ -6631,10 +6643,10 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>9</v>
@@ -6642,10 +6654,10 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>9</v>
@@ -6653,10 +6665,10 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>9</v>
@@ -6664,10 +6676,10 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>9</v>
@@ -6678,10 +6690,10 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>9</v>
@@ -6689,10 +6701,10 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>9</v>
@@ -6700,10 +6712,10 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>9</v>
@@ -6711,10 +6723,10 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>9</v>
@@ -6722,10 +6734,10 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>9</v>
@@ -6733,10 +6745,10 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>9</v>
@@ -6744,10 +6756,10 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>9</v>
@@ -6755,10 +6767,10 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>9</v>
@@ -6766,10 +6778,10 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>9</v>
@@ -6777,10 +6789,10 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>9</v>
@@ -6788,10 +6800,10 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>9</v>
@@ -6799,10 +6811,10 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>9</v>
@@ -6813,10 +6825,10 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>9</v>
@@ -6824,10 +6836,10 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>9</v>
@@ -6835,10 +6847,10 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>9</v>
@@ -6846,10 +6858,10 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>9</v>
@@ -6860,10 +6872,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>9</v>
@@ -6871,10 +6883,10 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>9</v>
@@ -6885,10 +6897,10 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>9</v>
@@ -6899,10 +6911,10 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>9</v>
@@ -6910,10 +6922,10 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>9</v>
@@ -6921,10 +6933,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>9</v>
@@ -6932,10 +6944,10 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>9</v>
@@ -6943,10 +6955,10 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>9</v>
@@ -6954,10 +6966,10 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>9</v>
@@ -6965,10 +6977,10 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>9</v>
@@ -6976,10 +6988,10 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>9</v>
@@ -6987,10 +6999,10 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>9</v>
@@ -6998,10 +7010,10 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>9</v>
@@ -7009,10 +7021,10 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>9</v>
@@ -7020,10 +7032,10 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>9</v>
@@ -7031,10 +7043,10 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>9</v>
@@ -7042,10 +7054,10 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>9</v>
@@ -7053,10 +7065,10 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>9</v>
@@ -7064,10 +7076,10 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>9</v>
@@ -7075,10 +7087,10 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>9</v>
@@ -7086,10 +7098,10 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>9</v>
@@ -7097,10 +7109,10 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>9</v>
@@ -7108,10 +7120,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>9</v>
@@ -7119,10 +7131,10 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>9</v>
@@ -7130,10 +7142,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>9</v>
@@ -7141,10 +7153,10 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>9</v>
@@ -7152,10 +7164,10 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>9</v>
@@ -7163,10 +7175,10 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>9</v>
@@ -7174,10 +7186,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>9</v>
@@ -7185,10 +7197,10 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>9</v>
@@ -7196,10 +7208,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>9</v>
@@ -7207,10 +7219,10 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>9</v>
@@ -7221,10 +7233,10 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>9</v>
@@ -7232,10 +7244,10 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>9</v>
@@ -7243,10 +7255,10 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>9</v>
@@ -7254,10 +7266,10 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>9</v>
@@ -7265,10 +7277,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>9</v>
@@ -7276,10 +7288,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>9</v>
@@ -7287,10 +7299,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>9</v>
@@ -7298,10 +7310,10 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>9</v>
@@ -7309,10 +7321,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>9</v>
@@ -7320,10 +7332,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>9</v>
@@ -7331,10 +7343,10 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>9</v>
@@ -7342,10 +7354,10 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>9</v>
@@ -7353,10 +7365,10 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>9</v>
@@ -7364,10 +7376,10 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>9</v>
@@ -7375,10 +7387,10 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>9</v>
@@ -7386,10 +7398,10 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>9</v>
@@ -7397,10 +7409,10 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>9</v>
@@ -7408,10 +7420,10 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>9</v>
@@ -7419,10 +7431,10 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>9</v>
@@ -7430,10 +7442,10 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>9</v>
@@ -7441,10 +7453,10 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>9</v>
@@ -7452,10 +7464,10 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>9</v>
@@ -7463,10 +7475,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>9</v>
@@ -7474,10 +7486,10 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>9</v>
@@ -7485,10 +7497,10 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>9</v>
@@ -7496,10 +7508,10 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>9</v>
@@ -7507,10 +7519,10 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>9</v>
@@ -7518,10 +7530,10 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>9</v>
@@ -7529,10 +7541,10 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>9</v>
@@ -7540,10 +7552,10 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>9</v>
@@ -7551,10 +7563,10 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>9</v>
@@ -7565,10 +7577,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>9</v>
@@ -7576,10 +7588,10 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>9</v>
@@ -7587,10 +7599,10 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>9</v>
@@ -7598,10 +7610,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>9</v>
@@ -7609,10 +7621,10 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>9</v>
@@ -7620,10 +7632,10 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>9</v>
@@ -7631,10 +7643,10 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>9</v>
@@ -7642,10 +7654,10 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>9</v>
@@ -7653,10 +7665,10 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>9</v>
@@ -7664,10 +7676,10 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>9</v>
@@ -7675,10 +7687,10 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>9</v>
@@ -7686,10 +7698,10 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>9</v>
@@ -7697,10 +7709,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>9</v>
@@ -7708,10 +7720,10 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>9</v>
@@ -7719,10 +7731,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>9</v>
@@ -7730,10 +7742,10 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>9</v>
@@ -7741,10 +7753,10 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>9</v>
@@ -7752,10 +7764,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>9</v>
@@ -7763,10 +7775,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>9</v>
@@ -7774,10 +7786,10 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>9</v>
@@ -7785,10 +7797,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>9</v>
@@ -7796,10 +7808,10 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>9</v>
@@ -7810,10 +7822,10 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>9</v>
@@ -7824,10 +7836,10 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>9</v>
@@ -7835,10 +7847,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>9</v>
@@ -7846,10 +7858,10 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>9</v>
@@ -7860,10 +7872,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>9</v>
@@ -7871,10 +7883,10 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>9</v>
@@ -7882,10 +7894,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>9</v>
@@ -7893,10 +7905,10 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>9</v>
@@ -7904,10 +7916,10 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>9</v>
@@ -7915,10 +7927,10 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>9</v>
@@ -7926,10 +7938,10 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>9</v>
@@ -7937,10 +7949,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>9</v>
@@ -7948,10 +7960,10 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>9</v>
@@ -7962,10 +7974,10 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>9</v>
@@ -7976,10 +7988,10 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>9</v>

--- a/Doc/lin.xlsx
+++ b/Doc/lin.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="492">
   <si>
     <t>media_name</t>
   </si>
@@ -194,13 +194,34 @@
     <t>秦皇岛新闻网</t>
   </si>
   <si>
+    <t>国内要闻 本地要闻 头条新闻 财经新闻</t>
+  </si>
+  <si>
+    <t>http://www.qhdnews.com/</t>
+  </si>
+  <si>
     <t>秦皇岛传媒网</t>
   </si>
   <si>
+    <t>http://www.qhdcm.com/</t>
+  </si>
+  <si>
     <t>今日渤海网</t>
   </si>
   <si>
+    <t>国内新闻</t>
+  </si>
+  <si>
+    <t>http://www.bohaitoday.cn/</t>
+  </si>
+  <si>
     <t>沧州广电网</t>
+  </si>
+  <si>
+    <t>新闻中心</t>
+  </si>
+  <si>
+    <t>http://www.czgd.tv/</t>
   </si>
   <si>
     <t>沧州新闻网</t>
@@ -2497,7 +2518,7 @@
   <dimension ref="A1:H454"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2878,7 +2899,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -2891,13 +2912,22 @@
       <c r="D24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
@@ -2905,13 +2935,19 @@
       <c r="D25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
@@ -2919,24 +2955,39 @@
       <c r="D26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="E26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -2947,10 +2998,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
@@ -2958,10 +3009,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
@@ -2969,10 +3020,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
@@ -2983,10 +3034,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
@@ -2997,10 +3048,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
@@ -3008,10 +3059,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -3019,10 +3070,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
@@ -3033,10 +3084,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
@@ -3044,10 +3095,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
@@ -3058,10 +3109,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -3072,10 +3123,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
@@ -3086,10 +3137,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
@@ -3097,10 +3148,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
@@ -3111,10 +3162,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
@@ -3125,10 +3176,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
@@ -3139,10 +3190,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
@@ -3150,10 +3201,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
@@ -3161,10 +3212,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -3172,10 +3223,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
@@ -3183,10 +3234,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -3194,10 +3245,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
@@ -3205,10 +3256,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
@@ -3216,10 +3267,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
@@ -3227,10 +3278,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
@@ -3238,10 +3289,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
@@ -3249,10 +3300,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
@@ -3263,10 +3314,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
@@ -3277,10 +3328,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
@@ -3291,10 +3342,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
@@ -3305,10 +3356,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
@@ -3319,10 +3370,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
@@ -3333,10 +3384,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
@@ -3347,10 +3398,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
@@ -3358,10 +3409,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
@@ -3372,10 +3423,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
@@ -3386,10 +3437,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
@@ -3400,10 +3451,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
@@ -3414,10 +3465,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
@@ -3428,10 +3479,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
@@ -3442,10 +3493,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
@@ -3453,10 +3504,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
@@ -3464,10 +3515,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
@@ -3475,10 +3526,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
@@ -3486,10 +3537,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
@@ -3497,10 +3548,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
@@ -3508,10 +3559,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -3519,10 +3570,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -3530,10 +3581,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -3541,10 +3592,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -3555,10 +3606,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -3569,10 +3620,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -3583,10 +3634,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -3594,10 +3645,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -3605,10 +3656,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -3619,10 +3670,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -3633,10 +3684,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -3644,10 +3695,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -3658,10 +3709,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -3672,10 +3723,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
@@ -3686,10 +3737,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -3697,10 +3748,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
@@ -3708,10 +3759,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
@@ -3719,10 +3770,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
@@ -3730,10 +3781,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -3744,10 +3795,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
@@ -3758,10 +3809,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -3772,10 +3823,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -3783,10 +3834,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -3794,10 +3845,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -3805,10 +3856,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -3819,10 +3870,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -3833,10 +3884,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -3847,10 +3898,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -3861,10 +3912,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -3875,10 +3926,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -3886,10 +3937,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -3900,10 +3951,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3914,10 +3965,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3928,10 +3979,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3939,10 +3990,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3953,10 +4004,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -3967,10 +4018,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -3978,10 +4029,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
@@ -3989,10 +4040,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
@@ -4000,10 +4051,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
@@ -4014,10 +4065,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -4028,10 +4079,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -4042,10 +4093,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -4053,10 +4104,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -4067,10 +4118,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -4078,10 +4129,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
@@ -4089,10 +4140,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
@@ -4103,10 +4154,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
@@ -4114,10 +4165,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -4128,10 +4179,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
@@ -4142,10 +4193,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -4153,10 +4204,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -4167,10 +4218,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -4181,10 +4232,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -4192,10 +4243,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -4206,10 +4257,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -4217,10 +4268,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -4228,10 +4279,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -4239,10 +4290,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -4253,10 +4304,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -4267,10 +4318,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -4281,10 +4332,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -4292,10 +4343,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -4303,10 +4354,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -4317,10 +4368,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -4328,10 +4379,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -4342,10 +4393,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -4353,10 +4404,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
@@ -4364,10 +4415,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
@@ -4375,10 +4426,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
@@ -4386,10 +4437,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
@@ -4397,10 +4448,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
@@ -4408,10 +4459,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -4419,10 +4470,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -4430,10 +4481,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4441,10 +4492,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
@@ -4455,10 +4506,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
@@ -4469,10 +4520,10 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
@@ -4483,10 +4534,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
@@ -4497,10 +4548,10 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
@@ -4511,10 +4562,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
@@ -4525,10 +4576,10 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
@@ -4539,10 +4590,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
@@ -4550,10 +4601,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
@@ -4561,10 +4612,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -4572,10 +4623,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
@@ -4583,10 +4634,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
@@ -4594,10 +4645,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4608,10 +4659,10 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -4622,10 +4673,10 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -4636,10 +4687,10 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -4650,10 +4701,10 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
@@ -4664,10 +4715,10 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -4678,10 +4729,10 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -4692,10 +4743,10 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -4706,10 +4757,10 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
@@ -4720,10 +4771,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
@@ -4734,10 +4785,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
@@ -4748,10 +4799,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
@@ -4762,10 +4813,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
@@ -4776,10 +4827,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
@@ -4790,10 +4841,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
@@ -4804,10 +4855,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
@@ -4815,10 +4866,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
@@ -4826,10 +4877,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
@@ -4837,10 +4888,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
@@ -4848,10 +4899,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
@@ -4862,10 +4913,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
@@ -4876,10 +4927,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
@@ -4890,10 +4941,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
@@ -4904,10 +4955,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
@@ -4918,10 +4969,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
@@ -4932,10 +4983,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
@@ -4943,10 +4994,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
@@ -4957,10 +5008,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="2" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
@@ -4968,10 +5019,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
@@ -4979,10 +5030,10 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
@@ -4993,10 +5044,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
@@ -5004,10 +5055,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
@@ -5015,10 +5066,10 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
@@ -5029,10 +5080,10 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
@@ -5043,10 +5094,10 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
@@ -5057,10 +5108,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
@@ -5068,10 +5119,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
@@ -5079,10 +5130,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
@@ -5090,10 +5141,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
@@ -5101,10 +5152,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="2" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
@@ -5112,10 +5163,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="2" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
@@ -5123,10 +5174,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="2" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
@@ -5134,10 +5185,10 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
@@ -5148,10 +5199,10 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
@@ -5162,10 +5213,10 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
@@ -5176,10 +5227,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="2" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
@@ -5187,10 +5238,10 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
@@ -5201,10 +5252,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
@@ -5212,10 +5263,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
@@ -5223,10 +5274,10 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
@@ -5237,10 +5288,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="2" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
@@ -5248,10 +5299,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
@@ -5259,10 +5310,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="2" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
@@ -5270,10 +5321,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="2" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
@@ -5281,10 +5332,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="2" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
@@ -5292,10 +5343,10 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
@@ -5306,10 +5357,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
@@ -5317,10 +5368,10 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
@@ -5331,10 +5382,10 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
@@ -5345,10 +5396,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
@@ -5356,10 +5407,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>9</v>
@@ -5367,10 +5418,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="2" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>9</v>
@@ -5378,10 +5429,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>9</v>
@@ -5389,10 +5440,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="2" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
@@ -5400,10 +5451,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
@@ -5411,10 +5462,10 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
@@ -5425,10 +5476,10 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>9</v>
@@ -5439,10 +5490,10 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>9</v>
@@ -5453,10 +5504,10 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>9</v>
@@ -5467,10 +5518,10 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>9</v>
@@ -5481,10 +5532,10 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>9</v>
@@ -5495,10 +5546,10 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>9</v>
@@ -5509,10 +5560,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>9</v>
@@ -5520,10 +5571,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="2" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>9</v>
@@ -5531,10 +5582,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>9</v>
@@ -5542,10 +5593,10 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>9</v>
@@ -5553,10 +5604,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
@@ -5564,10 +5615,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="2" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>9</v>
@@ -5575,10 +5626,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="2" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>9</v>
@@ -5586,10 +5637,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>9</v>
@@ -5597,10 +5648,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="2" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>9</v>
@@ -5608,10 +5659,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="2" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>9</v>
@@ -5619,10 +5670,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="2" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>9</v>
@@ -5630,10 +5681,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="2" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>9</v>
@@ -5641,10 +5692,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>9</v>
@@ -5652,10 +5703,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>9</v>
@@ -5663,10 +5714,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="2" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>9</v>
@@ -5674,10 +5725,10 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="2" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>9</v>
@@ -5685,10 +5736,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="2" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>9</v>
@@ -5696,10 +5747,10 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="2" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>9</v>
@@ -5707,10 +5758,10 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="2" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>9</v>
@@ -5718,10 +5769,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>9</v>
@@ -5729,10 +5780,10 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="2" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>9</v>
@@ -5740,10 +5791,10 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="2" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>9</v>
@@ -5751,10 +5802,10 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>9</v>
@@ -5762,10 +5813,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="2" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>9</v>
@@ -5773,10 +5824,10 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="2" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>9</v>
@@ -5784,10 +5835,10 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>9</v>
@@ -5795,10 +5846,10 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="2" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>9</v>
@@ -5806,10 +5857,10 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="2" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>9</v>
@@ -5817,10 +5868,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="2" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>9</v>
@@ -5828,10 +5879,10 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>9</v>
@@ -5839,10 +5890,10 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="2" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>9</v>
@@ -5850,10 +5901,10 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="2" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>9</v>
@@ -5861,10 +5912,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="2" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>9</v>
@@ -5872,10 +5923,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="2" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>9</v>
@@ -5883,10 +5934,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="2" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>9</v>
@@ -5894,10 +5945,10 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="2" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>9</v>
@@ -5905,10 +5956,10 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="2" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>9</v>
@@ -5916,10 +5967,10 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="2" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>9</v>
@@ -5927,10 +5978,10 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="2" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>9</v>
@@ -5938,10 +5989,10 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="2" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>9</v>
@@ -5949,10 +6000,10 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="2" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>9</v>
@@ -5960,10 +6011,10 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="2" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>9</v>
@@ -5971,10 +6022,10 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="2" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>9</v>
@@ -5982,10 +6033,10 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="2" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>9</v>
@@ -5993,10 +6044,10 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="2" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>9</v>
@@ -6004,10 +6055,10 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="2" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>9</v>
@@ -6015,10 +6066,10 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="2" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>9</v>
@@ -6026,10 +6077,10 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="2" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>9</v>
@@ -6037,10 +6088,10 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="2" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>9</v>
@@ -6048,10 +6099,10 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="2" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>9</v>
@@ -6059,10 +6110,10 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="2" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>9</v>
@@ -6070,10 +6121,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="2" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>9</v>
@@ -6081,10 +6132,10 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="2" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>9</v>
@@ -6092,10 +6143,10 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>9</v>
@@ -6103,10 +6154,10 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="2" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>9</v>
@@ -6114,10 +6165,10 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="2" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>9</v>
@@ -6125,10 +6176,10 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>9</v>
@@ -6136,10 +6187,10 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="2" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>9</v>
@@ -6147,10 +6198,10 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="2" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>9</v>
@@ -6158,10 +6209,10 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="2" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>9</v>
@@ -6169,10 +6220,10 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="2" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>9</v>
@@ -6180,10 +6231,10 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="2" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>9</v>
@@ -6191,10 +6242,10 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="2" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>9</v>
@@ -6202,10 +6253,10 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="2" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>9</v>
@@ -6213,10 +6264,10 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="2" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>9</v>
@@ -6224,10 +6275,10 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="2" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>9</v>
@@ -6235,10 +6286,10 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="2" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>9</v>
@@ -6246,10 +6297,10 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="2" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>9</v>
@@ -6257,10 +6308,10 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="2" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>9</v>
@@ -6268,10 +6319,10 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="2" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>9</v>
@@ -6279,10 +6330,10 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="2" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>9</v>
@@ -6290,10 +6341,10 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="2" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>9</v>
@@ -6301,10 +6352,10 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="2" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>9</v>
@@ -6312,10 +6363,10 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="2" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>9</v>
@@ -6323,10 +6374,10 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="2" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>9</v>
@@ -6334,10 +6385,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="2" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>9</v>
@@ -6345,10 +6396,10 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="2" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>9</v>
@@ -6356,10 +6407,10 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="2" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>9</v>
@@ -6367,10 +6418,10 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>9</v>
@@ -6381,10 +6432,10 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>9</v>
@@ -6395,10 +6446,10 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="2" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>9</v>
@@ -6406,10 +6457,10 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="2" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>9</v>
@@ -6417,10 +6468,10 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="2" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>9</v>
@@ -6428,10 +6479,10 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="2" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>9</v>
@@ -6439,10 +6490,10 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>9</v>
@@ -6453,10 +6504,10 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="2" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>9</v>
@@ -6464,10 +6515,10 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="2" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>9</v>
@@ -6475,10 +6526,10 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="2" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>9</v>
@@ -6486,10 +6537,10 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="2" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>9</v>
@@ -6497,10 +6548,10 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="2" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>9</v>
@@ -6508,10 +6559,10 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="2" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>9</v>
@@ -6519,10 +6570,10 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="2" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>9</v>
@@ -6530,10 +6581,10 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="2" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>9</v>
@@ -6541,10 +6592,10 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="2" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>9</v>
@@ -6552,10 +6603,10 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="2" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>9</v>
@@ -6563,10 +6614,10 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="2" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>9</v>
@@ -6574,10 +6625,10 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>9</v>
@@ -6588,10 +6639,10 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="2" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>9</v>
@@ -6599,10 +6650,10 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="2" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>9</v>
@@ -6610,10 +6661,10 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="2" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>9</v>
@@ -6621,10 +6672,10 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="2" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>9</v>
@@ -6632,10 +6683,10 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="2" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>9</v>
@@ -6643,10 +6694,10 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="2" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>9</v>
@@ -6654,10 +6705,10 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="2" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>9</v>
@@ -6665,10 +6716,10 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="2" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>9</v>
@@ -6676,10 +6727,10 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>9</v>
@@ -6690,10 +6741,10 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="2" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>9</v>
@@ -6701,10 +6752,10 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="2" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>9</v>
@@ -6712,10 +6763,10 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="2" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>9</v>
@@ -6723,10 +6774,10 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="2" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>9</v>
@@ -6734,10 +6785,10 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>9</v>
@@ -6745,10 +6796,10 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="2" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>9</v>
@@ -6756,10 +6807,10 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="2" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>9</v>
@@ -6767,10 +6818,10 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="2" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>9</v>
@@ -6778,10 +6829,10 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="2" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>9</v>
@@ -6789,10 +6840,10 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="2" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>9</v>
@@ -6800,10 +6851,10 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="2" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>9</v>
@@ -6811,10 +6862,10 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>9</v>
@@ -6825,10 +6876,10 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="2" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>9</v>
@@ -6836,10 +6887,10 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="2" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>9</v>
@@ -6847,10 +6898,10 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="2" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>9</v>
@@ -6858,10 +6909,10 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>9</v>
@@ -6872,10 +6923,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="2" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>9</v>
@@ -6883,10 +6934,10 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>9</v>
@@ -6897,10 +6948,10 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>9</v>
@@ -6911,10 +6962,10 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="2" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>9</v>
@@ -6922,10 +6973,10 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="2" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>9</v>
@@ -6933,10 +6984,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="2" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>9</v>
@@ -6944,10 +6995,10 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="2" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>9</v>
@@ -6955,10 +7006,10 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="2" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>9</v>
@@ -6966,10 +7017,10 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="2" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>9</v>
@@ -6977,10 +7028,10 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="2" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>9</v>
@@ -6988,10 +7039,10 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="2" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>9</v>
@@ -6999,10 +7050,10 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="2" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>9</v>
@@ -7010,10 +7061,10 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="2" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>9</v>
@@ -7021,10 +7072,10 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="2" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>9</v>
@@ -7032,10 +7083,10 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="2" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>9</v>
@@ -7043,10 +7094,10 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="2" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>9</v>
@@ -7054,10 +7105,10 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="2" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>9</v>
@@ -7065,10 +7116,10 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="2" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>9</v>
@@ -7076,10 +7127,10 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="2" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>9</v>
@@ -7087,10 +7138,10 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="2" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>9</v>
@@ -7098,10 +7149,10 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="2" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>9</v>
@@ -7109,10 +7160,10 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="2" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>9</v>
@@ -7120,10 +7171,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="2" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>9</v>
@@ -7131,10 +7182,10 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="2" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>9</v>
@@ -7142,10 +7193,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="2" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>9</v>
@@ -7153,10 +7204,10 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="2" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>9</v>
@@ -7164,10 +7215,10 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="2" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>9</v>
@@ -7175,10 +7226,10 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="2" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>9</v>
@@ -7186,10 +7237,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="2" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>9</v>
@@ -7197,10 +7248,10 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="2" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>9</v>
@@ -7208,10 +7259,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="2" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>9</v>
@@ -7219,10 +7270,10 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="2" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>9</v>
@@ -7233,10 +7284,10 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="2" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>9</v>
@@ -7244,10 +7295,10 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="2" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>9</v>
@@ -7255,10 +7306,10 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="2" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>9</v>
@@ -7266,10 +7317,10 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="2" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>9</v>
@@ -7277,10 +7328,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="2" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>9</v>
@@ -7288,10 +7339,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="2" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>9</v>
@@ -7299,10 +7350,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="2" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>9</v>
@@ -7310,10 +7361,10 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="2" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>9</v>
@@ -7321,10 +7372,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="2" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>9</v>
@@ -7332,10 +7383,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="2" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>9</v>
@@ -7343,10 +7394,10 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="2" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>9</v>
@@ -7354,10 +7405,10 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="2" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>9</v>
@@ -7365,10 +7416,10 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="2" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>9</v>
@@ -7376,10 +7427,10 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="2" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>9</v>
@@ -7387,10 +7438,10 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="2" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>9</v>
@@ -7398,10 +7449,10 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="2" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>9</v>
@@ -7409,10 +7460,10 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="2" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>9</v>
@@ -7420,10 +7471,10 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="2" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>9</v>
@@ -7431,10 +7482,10 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="2" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>9</v>
@@ -7442,10 +7493,10 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="2" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>9</v>
@@ -7453,10 +7504,10 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="2" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>9</v>
@@ -7464,10 +7515,10 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="2" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>9</v>
@@ -7475,10 +7526,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="2" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>9</v>
@@ -7486,10 +7537,10 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="2" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>9</v>
@@ -7497,10 +7548,10 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="2" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>9</v>
@@ -7508,10 +7559,10 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="2" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>9</v>
@@ -7519,10 +7570,10 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="2" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>9</v>
@@ -7530,10 +7581,10 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="2" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>9</v>
@@ -7541,10 +7592,10 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="2" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>9</v>
@@ -7552,10 +7603,10 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="2" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>9</v>
@@ -7563,10 +7614,10 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="2" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>9</v>
@@ -7577,10 +7628,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="2" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>9</v>
@@ -7588,10 +7639,10 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="2" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>9</v>
@@ -7599,10 +7650,10 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="2" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>9</v>
@@ -7610,10 +7661,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="2" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>9</v>
@@ -7621,10 +7672,10 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="2" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>9</v>
@@ -7632,10 +7683,10 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="2" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>9</v>
@@ -7643,10 +7694,10 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="2" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>9</v>
@@ -7654,10 +7705,10 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="2" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>9</v>
@@ -7665,10 +7716,10 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="2" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>9</v>
@@ -7676,10 +7727,10 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="2" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>9</v>
@@ -7687,10 +7738,10 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="2" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>9</v>
@@ -7698,10 +7749,10 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="2" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>9</v>
@@ -7709,10 +7760,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="2" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>9</v>
@@ -7720,10 +7771,10 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="2" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>9</v>
@@ -7731,10 +7782,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="2" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>9</v>
@@ -7742,10 +7793,10 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="2" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>9</v>
@@ -7753,10 +7804,10 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="2" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>9</v>
@@ -7764,10 +7815,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="2" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>9</v>
@@ -7775,10 +7826,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="2" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>9</v>
@@ -7786,10 +7837,10 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="2" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>9</v>
@@ -7797,10 +7848,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="2" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>9</v>
@@ -7808,10 +7859,10 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="2" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>9</v>
@@ -7822,10 +7873,10 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="2" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>9</v>
@@ -7836,10 +7887,10 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="2" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>9</v>
@@ -7847,10 +7898,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="2" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>9</v>
@@ -7858,10 +7909,10 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="2" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>9</v>
@@ -7872,10 +7923,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="2" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>9</v>
@@ -7883,10 +7934,10 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="2" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>9</v>
@@ -7894,10 +7945,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="2" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>9</v>
@@ -7905,10 +7956,10 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="2" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>9</v>
@@ -7916,10 +7967,10 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="2" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>9</v>
@@ -7927,10 +7978,10 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="2" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>9</v>
@@ -7938,10 +7989,10 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="2" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>9</v>
@@ -7949,10 +8000,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="2" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>9</v>
@@ -7960,10 +8011,10 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="2" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>9</v>
@@ -7974,10 +8025,10 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="2" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>9</v>
@@ -7988,10 +8039,10 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="2" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>9</v>
@@ -8009,6 +8060,10 @@
     <hyperlink ref="H9" r:id="rId6" display="https://bbtnews.com.cn/" tooltip="https://bbtnews.com.cn/"/>
     <hyperlink ref="H18" r:id="rId7" display="http://www.thegreatwall.cn/" tooltip="http://www.thegreatwall.cn/"/>
     <hyperlink ref="H20" r:id="rId8" display="http://www.hbgrb.net/"/>
+    <hyperlink ref="H24" r:id="rId9" display="http://www.qhdnews.com/"/>
+    <hyperlink ref="H25" r:id="rId10" display="http://www.qhdcm.com/"/>
+    <hyperlink ref="H26" r:id="rId11" display="http://www.bohaitoday.cn/"/>
+    <hyperlink ref="H27" r:id="rId12" display="http://www.czgd.tv/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Doc/lin.xlsx
+++ b/Doc/lin.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="497">
   <si>
     <t>media_name</t>
   </si>
@@ -227,6 +227,12 @@
     <t>沧州新闻网</t>
   </si>
   <si>
+    <t>时政要闻 财经传真</t>
+  </si>
+  <si>
+    <t>https://www.cznews.gov.cn/</t>
+  </si>
+  <si>
     <t>邯郸新闻网</t>
   </si>
   <si>
@@ -236,7 +242,16 @@
     <t>环渤海新闻网</t>
   </si>
   <si>
+    <t>时政要闻</t>
+  </si>
+  <si>
+    <t>https://www.huanbohainews.com.cn/</t>
+  </si>
+  <si>
     <t>张家口新闻网</t>
+  </si>
+  <si>
+    <t>http://www.zjknews.com/</t>
   </si>
   <si>
     <t>唐尧网</t>
@@ -1539,7 +1554,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1562,6 +1577,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2011,10 +2032,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2023,16 +2044,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2047,10 +2068,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2062,98 +2080,101 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2165,6 +2186,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2515,13 +2539,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H454"/>
+  <dimension ref="A1:I454"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.875" customWidth="1"/>
     <col min="2" max="2" width="17.625" customWidth="1"/>
@@ -2982,7 +3006,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:9">
       <c r="A28" s="2" t="s">
         <v>57</v>
       </c>
@@ -2995,13 +3019,25 @@
       <c r="D28">
         <v>1</v>
       </c>
+      <c r="E28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
@@ -3009,21 +3045,21 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" ht="15.75" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
@@ -3031,27 +3067,39 @@
       <c r="D31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32">
         <v>1</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
@@ -3059,10 +3107,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -3070,10 +3118,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
@@ -3084,10 +3132,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
@@ -3095,10 +3143,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
@@ -3109,10 +3157,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -3123,10 +3171,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
@@ -3137,10 +3185,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
@@ -3148,10 +3196,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
@@ -3162,10 +3210,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
@@ -3176,10 +3224,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
@@ -3190,10 +3238,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
@@ -3201,10 +3249,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
@@ -3212,10 +3260,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -3223,10 +3271,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
@@ -3234,10 +3282,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -3245,10 +3293,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
@@ -3256,10 +3304,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
@@ -3267,10 +3315,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
@@ -3278,10 +3326,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
@@ -3289,10 +3337,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
@@ -3300,10 +3348,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
@@ -3314,10 +3362,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
@@ -3328,10 +3376,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
@@ -3342,10 +3390,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
@@ -3356,10 +3404,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
@@ -3370,10 +3418,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
@@ -3384,10 +3432,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
@@ -3398,10 +3446,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
@@ -3409,10 +3457,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
@@ -3423,10 +3471,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
@@ -3437,10 +3485,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
@@ -3451,10 +3499,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
@@ -3465,10 +3513,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
@@ -3479,10 +3527,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
@@ -3493,10 +3541,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
@@ -3504,10 +3552,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
@@ -3515,10 +3563,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
@@ -3526,10 +3574,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
@@ -3537,10 +3585,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
@@ -3548,10 +3596,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
@@ -3559,10 +3607,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -3570,10 +3618,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -3581,10 +3629,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -3592,10 +3640,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -3606,10 +3654,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -3620,10 +3668,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -3634,10 +3682,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -3645,10 +3693,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -3656,10 +3704,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -3670,10 +3718,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -3684,10 +3732,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -3695,10 +3743,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -3709,10 +3757,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -3723,10 +3771,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
@@ -3737,10 +3785,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -3748,10 +3796,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
@@ -3759,10 +3807,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
@@ -3770,10 +3818,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
@@ -3781,10 +3829,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -3795,10 +3843,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
@@ -3809,10 +3857,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -3823,10 +3871,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -3834,10 +3882,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -3845,10 +3893,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -3856,10 +3904,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -3870,10 +3918,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -3884,10 +3932,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -3898,10 +3946,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -3912,10 +3960,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -3926,10 +3974,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -3937,10 +3985,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -3951,10 +3999,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3965,10 +4013,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3979,10 +4027,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3990,10 +4038,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -4004,10 +4052,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -4018,10 +4066,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -4029,10 +4077,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
@@ -4040,10 +4088,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
@@ -4051,10 +4099,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
@@ -4065,10 +4113,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -4079,10 +4127,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -4093,10 +4141,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -4104,10 +4152,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -4118,10 +4166,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -4129,10 +4177,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
@@ -4140,10 +4188,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
@@ -4154,10 +4202,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
@@ -4165,10 +4213,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -4179,10 +4227,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
@@ -4193,10 +4241,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -4204,10 +4252,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -4218,10 +4266,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -4232,10 +4280,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -4243,10 +4291,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -4257,10 +4305,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -4268,10 +4316,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -4279,10 +4327,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -4290,10 +4338,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -4304,10 +4352,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -4318,10 +4366,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -4332,10 +4380,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -4343,10 +4391,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -4354,10 +4402,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -4368,10 +4416,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -4379,10 +4427,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -4393,10 +4441,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -4404,10 +4452,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
@@ -4415,10 +4463,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
@@ -4426,10 +4474,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
@@ -4437,10 +4485,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
@@ -4448,10 +4496,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
@@ -4459,10 +4507,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -4470,10 +4518,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -4481,10 +4529,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4492,10 +4540,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
@@ -4506,10 +4554,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
@@ -4520,10 +4568,10 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
@@ -4534,10 +4582,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
@@ -4548,10 +4596,10 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
@@ -4562,10 +4610,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
@@ -4576,10 +4624,10 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
@@ -4590,10 +4638,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
@@ -4601,10 +4649,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
@@ -4612,10 +4660,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -4623,10 +4671,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
@@ -4634,10 +4682,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
@@ -4645,10 +4693,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4659,10 +4707,10 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -4673,10 +4721,10 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -4687,10 +4735,10 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -4701,10 +4749,10 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
@@ -4715,10 +4763,10 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -4729,10 +4777,10 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -4743,10 +4791,10 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -4757,10 +4805,10 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
@@ -4771,10 +4819,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
@@ -4785,10 +4833,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
@@ -4799,10 +4847,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
@@ -4813,10 +4861,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
@@ -4827,10 +4875,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
@@ -4841,10 +4889,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
@@ -4855,10 +4903,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
@@ -4866,10 +4914,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
@@ -4877,10 +4925,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
@@ -4888,10 +4936,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
@@ -4899,10 +4947,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
@@ -4913,10 +4961,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
@@ -4927,10 +4975,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
@@ -4941,10 +4989,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
@@ -4955,10 +5003,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
@@ -4969,10 +5017,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
@@ -4983,10 +5031,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
@@ -4994,10 +5042,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
@@ -5008,10 +5056,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
@@ -5019,10 +5067,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
@@ -5030,10 +5078,10 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
@@ -5044,10 +5092,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
@@ -5055,10 +5103,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
@@ -5066,10 +5114,10 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
@@ -5080,10 +5128,10 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
@@ -5094,10 +5142,10 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
@@ -5108,10 +5156,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
@@ -5119,10 +5167,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
@@ -5130,10 +5178,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
@@ -5141,10 +5189,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
@@ -5152,10 +5200,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
@@ -5163,10 +5211,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
@@ -5174,10 +5222,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
@@ -5185,10 +5233,10 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
@@ -5199,10 +5247,10 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
@@ -5213,10 +5261,10 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
@@ -5227,10 +5275,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
@@ -5238,10 +5286,10 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
@@ -5252,10 +5300,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
@@ -5263,10 +5311,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
@@ -5274,10 +5322,10 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
@@ -5288,10 +5336,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
@@ -5299,10 +5347,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
@@ -5310,10 +5358,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
@@ -5321,10 +5369,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
@@ -5332,10 +5380,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
@@ -5343,10 +5391,10 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
@@ -5357,10 +5405,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
@@ -5368,10 +5416,10 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
@@ -5382,10 +5430,10 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
@@ -5396,10 +5444,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
@@ -5407,10 +5455,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>9</v>
@@ -5418,10 +5466,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>9</v>
@@ -5429,10 +5477,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>9</v>
@@ -5440,10 +5488,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
@@ -5451,10 +5499,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
@@ -5462,10 +5510,10 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
@@ -5476,10 +5524,10 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>9</v>
@@ -5490,10 +5538,10 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>9</v>
@@ -5504,10 +5552,10 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>9</v>
@@ -5518,10 +5566,10 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>9</v>
@@ -5532,10 +5580,10 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>9</v>
@@ -5546,10 +5594,10 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>9</v>
@@ -5560,10 +5608,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>9</v>
@@ -5571,10 +5619,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>9</v>
@@ -5582,10 +5630,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>9</v>
@@ -5593,10 +5641,10 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>9</v>
@@ -5604,10 +5652,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
@@ -5615,10 +5663,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>9</v>
@@ -5626,10 +5674,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>9</v>
@@ -5637,10 +5685,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>9</v>
@@ -5648,10 +5696,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>9</v>
@@ -5659,10 +5707,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>9</v>
@@ -5670,10 +5718,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>9</v>
@@ -5681,10 +5729,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>9</v>
@@ -5692,10 +5740,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="2" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>9</v>
@@ -5703,10 +5751,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="2" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>9</v>
@@ -5714,10 +5762,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="2" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>9</v>
@@ -5725,10 +5773,10 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="2" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>9</v>
@@ -5736,10 +5784,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="2" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>9</v>
@@ -5747,10 +5795,10 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="2" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>9</v>
@@ -5758,10 +5806,10 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="2" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>9</v>
@@ -5769,10 +5817,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="2" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>9</v>
@@ -5780,10 +5828,10 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="2" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>9</v>
@@ -5791,10 +5839,10 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="2" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>9</v>
@@ -5802,10 +5850,10 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>9</v>
@@ -5813,10 +5861,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>9</v>
@@ -5824,10 +5872,10 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>9</v>
@@ -5835,10 +5883,10 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="2" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>9</v>
@@ -5846,10 +5894,10 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="2" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>9</v>
@@ -5857,10 +5905,10 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>9</v>
@@ -5868,10 +5916,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>9</v>
@@ -5879,10 +5927,10 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>9</v>
@@ -5890,10 +5938,10 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="2" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>9</v>
@@ -5901,10 +5949,10 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>9</v>
@@ -5912,10 +5960,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>9</v>
@@ -5923,10 +5971,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>9</v>
@@ -5934,10 +5982,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="2" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>9</v>
@@ -5945,10 +5993,10 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>9</v>
@@ -5956,10 +6004,10 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="2" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>9</v>
@@ -5967,10 +6015,10 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="2" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>9</v>
@@ -5978,10 +6026,10 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="2" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>9</v>
@@ -5989,10 +6037,10 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="2" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>9</v>
@@ -6000,10 +6048,10 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="2" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>9</v>
@@ -6011,10 +6059,10 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>9</v>
@@ -6022,10 +6070,10 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="2" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>9</v>
@@ -6033,10 +6081,10 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="2" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>9</v>
@@ -6044,10 +6092,10 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="2" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>9</v>
@@ -6055,10 +6103,10 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="2" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>9</v>
@@ -6066,10 +6114,10 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="2" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>9</v>
@@ -6077,10 +6125,10 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="2" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>9</v>
@@ -6088,10 +6136,10 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="2" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>9</v>
@@ -6099,10 +6147,10 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="2" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>9</v>
@@ -6110,10 +6158,10 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="2" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>9</v>
@@ -6121,10 +6169,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="2" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>9</v>
@@ -6132,10 +6180,10 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="2" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>9</v>
@@ -6143,10 +6191,10 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="2" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>9</v>
@@ -6154,10 +6202,10 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="2" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>9</v>
@@ -6165,10 +6213,10 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="2" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>9</v>
@@ -6176,10 +6224,10 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>9</v>
@@ -6187,10 +6235,10 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="2" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>9</v>
@@ -6198,10 +6246,10 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>9</v>
@@ -6209,10 +6257,10 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="2" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>9</v>
@@ -6220,10 +6268,10 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="2" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>9</v>
@@ -6231,10 +6279,10 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="2" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>9</v>
@@ -6242,10 +6290,10 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="2" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>9</v>
@@ -6253,10 +6301,10 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="2" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>9</v>
@@ -6264,10 +6312,10 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="2" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>9</v>
@@ -6275,10 +6323,10 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="2" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>9</v>
@@ -6286,10 +6334,10 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="2" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>9</v>
@@ -6297,10 +6345,10 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>9</v>
@@ -6308,10 +6356,10 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="2" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>9</v>
@@ -6319,10 +6367,10 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="2" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>9</v>
@@ -6330,10 +6378,10 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="2" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>9</v>
@@ -6341,10 +6389,10 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="2" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>9</v>
@@ -6352,10 +6400,10 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="2" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>9</v>
@@ -6363,10 +6411,10 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>9</v>
@@ -6374,10 +6422,10 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="2" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>9</v>
@@ -6385,10 +6433,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="2" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>9</v>
@@ -6396,10 +6444,10 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="2" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>9</v>
@@ -6407,10 +6455,10 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="2" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>9</v>
@@ -6418,10 +6466,10 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>9</v>
@@ -6432,10 +6480,10 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>9</v>
@@ -6446,10 +6494,10 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="2" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>9</v>
@@ -6457,10 +6505,10 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="2" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>9</v>
@@ -6468,10 +6516,10 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="2" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>9</v>
@@ -6479,10 +6527,10 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="2" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>9</v>
@@ -6490,10 +6538,10 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>9</v>
@@ -6504,10 +6552,10 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="2" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>9</v>
@@ -6515,10 +6563,10 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="2" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>9</v>
@@ -6526,10 +6574,10 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="2" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>9</v>
@@ -6537,10 +6585,10 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="2" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>9</v>
@@ -6548,10 +6596,10 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="2" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>9</v>
@@ -6559,10 +6607,10 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="2" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>9</v>
@@ -6570,10 +6618,10 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="2" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>9</v>
@@ -6581,10 +6629,10 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="2" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>9</v>
@@ -6592,10 +6640,10 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="2" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>9</v>
@@ -6603,10 +6651,10 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="2" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>9</v>
@@ -6614,10 +6662,10 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="2" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>9</v>
@@ -6625,10 +6673,10 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>9</v>
@@ -6639,10 +6687,10 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="2" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>9</v>
@@ -6650,10 +6698,10 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="2" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>9</v>
@@ -6661,10 +6709,10 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="2" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>9</v>
@@ -6672,10 +6720,10 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="2" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>9</v>
@@ -6683,10 +6731,10 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="2" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>9</v>
@@ -6694,10 +6742,10 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="2" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>9</v>
@@ -6705,10 +6753,10 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="2" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>9</v>
@@ -6716,10 +6764,10 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="2" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>9</v>
@@ -6727,10 +6775,10 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>9</v>
@@ -6741,10 +6789,10 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="2" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>9</v>
@@ -6752,10 +6800,10 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="2" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>9</v>
@@ -6763,10 +6811,10 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="2" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>9</v>
@@ -6774,10 +6822,10 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="2" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>9</v>
@@ -6785,10 +6833,10 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="2" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>9</v>
@@ -6796,10 +6844,10 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="2" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>9</v>
@@ -6807,10 +6855,10 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="2" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>9</v>
@@ -6818,10 +6866,10 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="2" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>9</v>
@@ -6829,10 +6877,10 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="2" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>9</v>
@@ -6840,10 +6888,10 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="2" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>9</v>
@@ -6851,10 +6899,10 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="2" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>9</v>
@@ -6862,10 +6910,10 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>9</v>
@@ -6876,10 +6924,10 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="2" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>9</v>
@@ -6887,10 +6935,10 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="2" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>9</v>
@@ -6898,10 +6946,10 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="2" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>9</v>
@@ -6909,10 +6957,10 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>9</v>
@@ -6923,10 +6971,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="2" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>9</v>
@@ -6934,10 +6982,10 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>9</v>
@@ -6948,10 +6996,10 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>9</v>
@@ -6962,10 +7010,10 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="2" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>9</v>
@@ -6973,10 +7021,10 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="2" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>9</v>
@@ -6984,10 +7032,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="2" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>9</v>
@@ -6995,10 +7043,10 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="2" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>9</v>
@@ -7006,10 +7054,10 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="2" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>9</v>
@@ -7017,10 +7065,10 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="2" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>9</v>
@@ -7028,10 +7076,10 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="2" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>9</v>
@@ -7039,10 +7087,10 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="2" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>9</v>
@@ -7050,10 +7098,10 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="2" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>9</v>
@@ -7061,10 +7109,10 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="2" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>9</v>
@@ -7072,10 +7120,10 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="2" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>9</v>
@@ -7083,10 +7131,10 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="2" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>9</v>
@@ -7094,10 +7142,10 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="2" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>9</v>
@@ -7105,10 +7153,10 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="2" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>9</v>
@@ -7116,10 +7164,10 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="2" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>9</v>
@@ -7127,10 +7175,10 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="2" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>9</v>
@@ -7138,10 +7186,10 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="2" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>9</v>
@@ -7149,10 +7197,10 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="2" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>9</v>
@@ -7160,10 +7208,10 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="2" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>9</v>
@@ -7171,10 +7219,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="2" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>9</v>
@@ -7182,10 +7230,10 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="2" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>9</v>
@@ -7193,10 +7241,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="2" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>9</v>
@@ -7204,10 +7252,10 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="2" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>9</v>
@@ -7215,10 +7263,10 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="2" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>9</v>
@@ -7226,10 +7274,10 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="2" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>9</v>
@@ -7237,10 +7285,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="2" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>9</v>
@@ -7248,10 +7296,10 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="2" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>9</v>
@@ -7259,10 +7307,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="2" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>9</v>
@@ -7270,10 +7318,10 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="2" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>9</v>
@@ -7284,10 +7332,10 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="2" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>9</v>
@@ -7295,10 +7343,10 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="2" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>9</v>
@@ -7306,10 +7354,10 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="2" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>9</v>
@@ -7317,10 +7365,10 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="2" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>9</v>
@@ -7328,10 +7376,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="2" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>9</v>
@@ -7339,10 +7387,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="2" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>9</v>
@@ -7350,10 +7398,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="2" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>9</v>
@@ -7361,10 +7409,10 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="2" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>9</v>
@@ -7372,10 +7420,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="2" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>9</v>
@@ -7383,10 +7431,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="2" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>9</v>
@@ -7394,10 +7442,10 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="2" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>9</v>
@@ -7405,10 +7453,10 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="2" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>9</v>
@@ -7416,10 +7464,10 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="2" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>9</v>
@@ -7427,10 +7475,10 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="2" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>9</v>
@@ -7438,10 +7486,10 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="2" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>9</v>
@@ -7449,10 +7497,10 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="2" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>9</v>
@@ -7460,10 +7508,10 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="2" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>9</v>
@@ -7471,10 +7519,10 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="2" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>9</v>
@@ -7482,10 +7530,10 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="2" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>9</v>
@@ -7493,10 +7541,10 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="2" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>9</v>
@@ -7504,10 +7552,10 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="2" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>9</v>
@@ -7515,10 +7563,10 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="2" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>9</v>
@@ -7526,10 +7574,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="2" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>9</v>
@@ -7537,10 +7585,10 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="2" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>9</v>
@@ -7548,10 +7596,10 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="2" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>9</v>
@@ -7559,10 +7607,10 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="2" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>9</v>
@@ -7570,10 +7618,10 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="2" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>9</v>
@@ -7581,10 +7629,10 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="2" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>9</v>
@@ -7592,10 +7640,10 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="2" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>9</v>
@@ -7603,10 +7651,10 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="2" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>9</v>
@@ -7614,10 +7662,10 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="2" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>9</v>
@@ -7628,10 +7676,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="2" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>9</v>
@@ -7639,10 +7687,10 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="2" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>9</v>
@@ -7650,10 +7698,10 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="2" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>9</v>
@@ -7661,10 +7709,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="2" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>9</v>
@@ -7672,10 +7720,10 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="2" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>9</v>
@@ -7683,10 +7731,10 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="2" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>9</v>
@@ -7694,10 +7742,10 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="2" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>9</v>
@@ -7705,10 +7753,10 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="2" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>9</v>
@@ -7716,10 +7764,10 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="2" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>9</v>
@@ -7727,10 +7775,10 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="2" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>9</v>
@@ -7738,10 +7786,10 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="2" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>9</v>
@@ -7749,10 +7797,10 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="2" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>9</v>
@@ -7760,10 +7808,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="2" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>9</v>
@@ -7771,10 +7819,10 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="2" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>9</v>
@@ -7782,10 +7830,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="2" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>9</v>
@@ -7793,10 +7841,10 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="2" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>9</v>
@@ -7804,10 +7852,10 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="2" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>9</v>
@@ -7815,10 +7863,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="2" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>9</v>
@@ -7826,10 +7874,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="2" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>9</v>
@@ -7837,10 +7885,10 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>9</v>
@@ -7848,10 +7896,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>9</v>
@@ -7859,10 +7907,10 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="2" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>9</v>
@@ -7873,10 +7921,10 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="2" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>9</v>
@@ -7887,10 +7935,10 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="2" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>9</v>
@@ -7898,10 +7946,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="2" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>9</v>
@@ -7909,10 +7957,10 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="2" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>9</v>
@@ -7923,10 +7971,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="2" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>9</v>
@@ -7934,10 +7982,10 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="2" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>9</v>
@@ -7945,10 +7993,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="2" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>9</v>
@@ -7956,10 +8004,10 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="2" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>9</v>
@@ -7967,10 +8015,10 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="2" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>9</v>
@@ -7978,10 +8026,10 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="2" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>9</v>
@@ -7989,10 +8037,10 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="2" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>9</v>
@@ -8000,10 +8048,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="2" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>9</v>
@@ -8011,10 +8059,10 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>9</v>
@@ -8025,10 +8073,10 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="2" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>9</v>
@@ -8039,10 +8087,10 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="2" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>9</v>
@@ -8064,6 +8112,9 @@
     <hyperlink ref="H25" r:id="rId10" display="http://www.qhdcm.com/"/>
     <hyperlink ref="H26" r:id="rId11" display="http://www.bohaitoday.cn/"/>
     <hyperlink ref="H27" r:id="rId12" display="http://www.czgd.tv/"/>
+    <hyperlink ref="H28" r:id="rId13" display="https://www.cznews.gov.cn/" tooltip="https://www.cznews.gov.cn/"/>
+    <hyperlink ref="H31" r:id="rId14" display="https://www.huanbohainews.com.cn/" tooltip="https://www.huanbohainews.com.cn/"/>
+    <hyperlink ref="H32" r:id="rId15" display="http://www.zjknews.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Doc/lin.xlsx
+++ b/Doc/lin.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="498">
   <si>
     <t>media_name</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>张家口新闻网</t>
+  </si>
+  <si>
+    <t>时政 新闻中心</t>
   </si>
   <si>
     <t>http://www.zjknews.com/</t>
@@ -2542,7 +2545,7 @@
   <dimension ref="A1:I454"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3077,7 +3080,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" ht="15.75" spans="1:8">
       <c r="A32" s="2" t="s">
         <v>65</v>
       </c>
@@ -3090,16 +3093,22 @@
       <c r="D32">
         <v>1</v>
       </c>
+      <c r="E32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
       <c r="H32" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
@@ -3107,10 +3116,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -3118,10 +3127,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
@@ -3132,10 +3141,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
@@ -3143,10 +3152,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
@@ -3157,10 +3166,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -3171,10 +3180,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
@@ -3185,10 +3194,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
@@ -3196,10 +3205,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
@@ -3210,10 +3219,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
@@ -3224,10 +3233,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
@@ -3238,10 +3247,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
@@ -3249,10 +3258,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
@@ -3260,10 +3269,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -3271,10 +3280,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
@@ -3282,10 +3291,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -3293,10 +3302,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
@@ -3304,10 +3313,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
@@ -3315,10 +3324,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
@@ -3326,10 +3335,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
@@ -3337,10 +3346,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
@@ -3348,10 +3357,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
@@ -3362,10 +3371,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
@@ -3376,10 +3385,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
@@ -3390,10 +3399,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
@@ -3404,10 +3413,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
@@ -3418,10 +3427,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
@@ -3432,10 +3441,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
@@ -3446,10 +3455,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
@@ -3457,10 +3466,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
@@ -3471,10 +3480,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
@@ -3485,10 +3494,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
@@ -3499,10 +3508,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
@@ -3513,10 +3522,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
@@ -3527,10 +3536,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
@@ -3541,10 +3550,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
@@ -3552,10 +3561,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
@@ -3563,10 +3572,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
@@ -3574,10 +3583,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
@@ -3585,10 +3594,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
@@ -3596,10 +3605,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
@@ -3607,10 +3616,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -3618,10 +3627,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -3629,10 +3638,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -3640,10 +3649,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -3654,10 +3663,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -3668,10 +3677,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -3682,10 +3691,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -3693,10 +3702,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -3704,10 +3713,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -3718,10 +3727,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -3732,10 +3741,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -3743,10 +3752,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -3757,10 +3766,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -3771,10 +3780,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
@@ -3785,10 +3794,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -3796,10 +3805,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
@@ -3807,10 +3816,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
@@ -3818,10 +3827,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
@@ -3829,10 +3838,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -3843,10 +3852,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
@@ -3857,10 +3866,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -3871,10 +3880,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -3882,10 +3891,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -3893,10 +3902,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -3904,10 +3913,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -3918,10 +3927,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -3932,10 +3941,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -3946,10 +3955,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -3960,10 +3969,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -3974,10 +3983,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -3985,10 +3994,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -3999,10 +4008,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -4013,10 +4022,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -4027,10 +4036,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -4038,10 +4047,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -4052,10 +4061,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -4066,10 +4075,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -4077,10 +4086,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
@@ -4088,10 +4097,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
@@ -4099,10 +4108,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
@@ -4113,10 +4122,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -4127,10 +4136,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -4141,10 +4150,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -4152,10 +4161,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -4166,10 +4175,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -4177,10 +4186,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
@@ -4188,10 +4197,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
@@ -4202,10 +4211,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
@@ -4213,10 +4222,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -4227,10 +4236,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
@@ -4241,10 +4250,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -4252,10 +4261,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -4266,10 +4275,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -4280,10 +4289,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -4291,10 +4300,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -4305,10 +4314,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -4316,10 +4325,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -4327,10 +4336,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -4338,10 +4347,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -4352,10 +4361,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -4366,10 +4375,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -4380,10 +4389,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -4391,10 +4400,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -4402,10 +4411,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -4416,10 +4425,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -4427,10 +4436,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -4441,10 +4450,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -4452,10 +4461,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
@@ -4463,10 +4472,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
@@ -4474,10 +4483,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
@@ -4485,10 +4494,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
@@ -4496,10 +4505,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
@@ -4507,10 +4516,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -4518,10 +4527,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -4529,10 +4538,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4540,10 +4549,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
@@ -4554,10 +4563,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
@@ -4568,10 +4577,10 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
@@ -4582,10 +4591,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
@@ -4596,10 +4605,10 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
@@ -4610,10 +4619,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
@@ -4624,10 +4633,10 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
@@ -4638,10 +4647,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
@@ -4649,10 +4658,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
@@ -4660,10 +4669,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -4671,10 +4680,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
@@ -4682,10 +4691,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
@@ -4693,10 +4702,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4707,10 +4716,10 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -4721,10 +4730,10 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -4735,10 +4744,10 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -4749,10 +4758,10 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
@@ -4763,10 +4772,10 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -4777,10 +4786,10 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -4791,10 +4800,10 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -4805,10 +4814,10 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
@@ -4819,10 +4828,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
@@ -4833,10 +4842,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
@@ -4847,10 +4856,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
@@ -4861,10 +4870,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
@@ -4875,10 +4884,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
@@ -4889,10 +4898,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
@@ -4903,10 +4912,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
@@ -4914,10 +4923,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
@@ -4925,10 +4934,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
@@ -4936,10 +4945,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
@@ -4947,10 +4956,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
@@ -4961,10 +4970,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
@@ -4975,10 +4984,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
@@ -4989,10 +4998,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
@@ -5003,10 +5012,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
@@ -5017,10 +5026,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
@@ -5031,10 +5040,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
@@ -5042,10 +5051,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
@@ -5056,10 +5065,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
@@ -5067,10 +5076,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
@@ -5078,10 +5087,10 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
@@ -5092,10 +5101,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
@@ -5103,10 +5112,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
@@ -5114,10 +5123,10 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
@@ -5128,10 +5137,10 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
@@ -5142,10 +5151,10 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
@@ -5156,10 +5165,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
@@ -5167,10 +5176,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
@@ -5178,10 +5187,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
@@ -5189,10 +5198,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
@@ -5200,10 +5209,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
@@ -5211,10 +5220,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
@@ -5222,10 +5231,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
@@ -5233,10 +5242,10 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
@@ -5247,10 +5256,10 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
@@ -5261,10 +5270,10 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
@@ -5275,10 +5284,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
@@ -5286,10 +5295,10 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
@@ -5300,10 +5309,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
@@ -5311,10 +5320,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
@@ -5322,10 +5331,10 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
@@ -5336,10 +5345,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
@@ -5347,10 +5356,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
@@ -5358,10 +5367,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
@@ -5369,10 +5378,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
@@ -5380,10 +5389,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
@@ -5391,10 +5400,10 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
@@ -5405,10 +5414,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
@@ -5416,10 +5425,10 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
@@ -5430,10 +5439,10 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
@@ -5444,10 +5453,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
@@ -5455,10 +5464,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>9</v>
@@ -5466,10 +5475,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>9</v>
@@ -5477,10 +5486,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>9</v>
@@ -5488,10 +5497,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
@@ -5499,10 +5508,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
@@ -5510,10 +5519,10 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
@@ -5524,10 +5533,10 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>9</v>
@@ -5538,10 +5547,10 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>9</v>
@@ -5552,10 +5561,10 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>9</v>
@@ -5566,10 +5575,10 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>9</v>
@@ -5580,10 +5589,10 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>9</v>
@@ -5594,10 +5603,10 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>9</v>
@@ -5608,10 +5617,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>9</v>
@@ -5619,10 +5628,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>9</v>
@@ -5630,10 +5639,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>9</v>
@@ -5641,10 +5650,10 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>9</v>
@@ -5652,10 +5661,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
@@ -5663,10 +5672,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>9</v>
@@ -5674,10 +5683,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>9</v>
@@ -5685,10 +5694,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>9</v>
@@ -5696,10 +5705,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>9</v>
@@ -5707,10 +5716,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>9</v>
@@ -5718,10 +5727,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>9</v>
@@ -5729,10 +5738,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>9</v>
@@ -5740,10 +5749,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>9</v>
@@ -5751,10 +5760,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>9</v>
@@ -5762,10 +5771,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>9</v>
@@ -5773,10 +5782,10 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>9</v>
@@ -5784,10 +5793,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>9</v>
@@ -5795,10 +5804,10 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>9</v>
@@ -5806,10 +5815,10 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>9</v>
@@ -5817,10 +5826,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>9</v>
@@ -5828,10 +5837,10 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>9</v>
@@ -5839,10 +5848,10 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>9</v>
@@ -5850,10 +5859,10 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>9</v>
@@ -5861,10 +5870,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>9</v>
@@ -5872,10 +5881,10 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>9</v>
@@ -5883,10 +5892,10 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>9</v>
@@ -5894,10 +5903,10 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>9</v>
@@ -5905,10 +5914,10 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>9</v>
@@ -5916,10 +5925,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>9</v>
@@ -5927,10 +5936,10 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>9</v>
@@ -5938,10 +5947,10 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>9</v>
@@ -5949,10 +5958,10 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>9</v>
@@ -5960,10 +5969,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>9</v>
@@ -5971,10 +5980,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>9</v>
@@ -5982,10 +5991,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>9</v>
@@ -5993,10 +6002,10 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>9</v>
@@ -6004,10 +6013,10 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>9</v>
@@ -6015,10 +6024,10 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>9</v>
@@ -6026,10 +6035,10 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>9</v>
@@ -6037,10 +6046,10 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>9</v>
@@ -6048,10 +6057,10 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>9</v>
@@ -6059,10 +6068,10 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>9</v>
@@ -6070,10 +6079,10 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>9</v>
@@ -6081,10 +6090,10 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>9</v>
@@ -6092,10 +6101,10 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>9</v>
@@ -6103,10 +6112,10 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>9</v>
@@ -6114,10 +6123,10 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>9</v>
@@ -6125,10 +6134,10 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>9</v>
@@ -6136,10 +6145,10 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>9</v>
@@ -6147,10 +6156,10 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>9</v>
@@ -6158,10 +6167,10 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>9</v>
@@ -6169,10 +6178,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>9</v>
@@ -6180,10 +6189,10 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>9</v>
@@ -6191,10 +6200,10 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>9</v>
@@ -6202,10 +6211,10 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>9</v>
@@ -6213,10 +6222,10 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>9</v>
@@ -6224,10 +6233,10 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>9</v>
@@ -6235,10 +6244,10 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>9</v>
@@ -6246,10 +6255,10 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>9</v>
@@ -6257,10 +6266,10 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>9</v>
@@ -6268,10 +6277,10 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>9</v>
@@ -6279,10 +6288,10 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>9</v>
@@ -6290,10 +6299,10 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>9</v>
@@ -6301,10 +6310,10 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>9</v>
@@ -6312,10 +6321,10 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>9</v>
@@ -6323,10 +6332,10 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>9</v>
@@ -6334,10 +6343,10 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>9</v>
@@ -6345,10 +6354,10 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>9</v>
@@ -6356,10 +6365,10 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>9</v>
@@ -6367,10 +6376,10 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>9</v>
@@ -6378,10 +6387,10 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>9</v>
@@ -6389,10 +6398,10 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>9</v>
@@ -6400,10 +6409,10 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>9</v>
@@ -6411,10 +6420,10 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>9</v>
@@ -6422,10 +6431,10 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>9</v>
@@ -6433,10 +6442,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>9</v>
@@ -6444,10 +6453,10 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>9</v>
@@ -6455,10 +6464,10 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>9</v>
@@ -6466,10 +6475,10 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>9</v>
@@ -6480,10 +6489,10 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>9</v>
@@ -6494,10 +6503,10 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>9</v>
@@ -6505,10 +6514,10 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>9</v>
@@ -6516,10 +6525,10 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>9</v>
@@ -6527,10 +6536,10 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>9</v>
@@ -6538,10 +6547,10 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>9</v>
@@ -6552,10 +6561,10 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>9</v>
@@ -6563,10 +6572,10 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>9</v>
@@ -6574,10 +6583,10 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>9</v>
@@ -6585,10 +6594,10 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>9</v>
@@ -6596,10 +6605,10 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>9</v>
@@ -6607,10 +6616,10 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>9</v>
@@ -6618,10 +6627,10 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>9</v>
@@ -6629,10 +6638,10 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>9</v>
@@ -6640,10 +6649,10 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>9</v>
@@ -6651,10 +6660,10 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>9</v>
@@ -6662,10 +6671,10 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>9</v>
@@ -6673,10 +6682,10 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>9</v>
@@ -6687,10 +6696,10 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>9</v>
@@ -6698,10 +6707,10 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>9</v>
@@ -6709,10 +6718,10 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>9</v>
@@ -6720,10 +6729,10 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>9</v>
@@ -6731,10 +6740,10 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>9</v>
@@ -6742,10 +6751,10 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>9</v>
@@ -6753,10 +6762,10 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>9</v>
@@ -6764,10 +6773,10 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>9</v>
@@ -6775,10 +6784,10 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>9</v>
@@ -6789,10 +6798,10 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>9</v>
@@ -6800,10 +6809,10 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>9</v>
@@ -6811,10 +6820,10 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>9</v>
@@ -6822,10 +6831,10 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>9</v>
@@ -6833,10 +6842,10 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>9</v>
@@ -6844,10 +6853,10 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>9</v>
@@ -6855,10 +6864,10 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>9</v>
@@ -6866,10 +6875,10 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>9</v>
@@ -6877,10 +6886,10 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>9</v>
@@ -6888,10 +6897,10 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>9</v>
@@ -6899,10 +6908,10 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>9</v>
@@ -6910,10 +6919,10 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>9</v>
@@ -6924,10 +6933,10 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>9</v>
@@ -6935,10 +6944,10 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>9</v>
@@ -6946,10 +6955,10 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>9</v>
@@ -6957,10 +6966,10 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>9</v>
@@ -6971,10 +6980,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>9</v>
@@ -6982,10 +6991,10 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>9</v>
@@ -6996,10 +7005,10 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>9</v>
@@ -7010,10 +7019,10 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>9</v>
@@ -7021,10 +7030,10 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>9</v>
@@ -7032,10 +7041,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>9</v>
@@ -7043,10 +7052,10 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>9</v>
@@ -7054,10 +7063,10 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>9</v>
@@ -7065,10 +7074,10 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>9</v>
@@ -7076,10 +7085,10 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>9</v>
@@ -7087,10 +7096,10 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>9</v>
@@ -7098,10 +7107,10 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>9</v>
@@ -7109,10 +7118,10 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>9</v>
@@ -7120,10 +7129,10 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>9</v>
@@ -7131,10 +7140,10 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>9</v>
@@ -7142,10 +7151,10 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>9</v>
@@ -7153,10 +7162,10 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>9</v>
@@ -7164,10 +7173,10 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>9</v>
@@ -7175,10 +7184,10 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>9</v>
@@ -7186,10 +7195,10 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>9</v>
@@ -7197,10 +7206,10 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>9</v>
@@ -7208,10 +7217,10 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>9</v>
@@ -7219,10 +7228,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>9</v>
@@ -7230,10 +7239,10 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>9</v>
@@ -7241,10 +7250,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>9</v>
@@ -7252,10 +7261,10 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>9</v>
@@ -7263,10 +7272,10 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>9</v>
@@ -7274,10 +7283,10 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>9</v>
@@ -7285,10 +7294,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>9</v>
@@ -7296,10 +7305,10 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>9</v>
@@ -7307,10 +7316,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>9</v>
@@ -7318,10 +7327,10 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>9</v>
@@ -7332,10 +7341,10 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>9</v>
@@ -7343,10 +7352,10 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>9</v>
@@ -7354,10 +7363,10 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>9</v>
@@ -7365,10 +7374,10 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>9</v>
@@ -7376,10 +7385,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>9</v>
@@ -7387,10 +7396,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>9</v>
@@ -7398,10 +7407,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>9</v>
@@ -7409,10 +7418,10 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>9</v>
@@ -7420,10 +7429,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>9</v>
@@ -7431,10 +7440,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>9</v>
@@ -7442,10 +7451,10 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>9</v>
@@ -7453,10 +7462,10 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>9</v>
@@ -7464,10 +7473,10 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>9</v>
@@ -7475,10 +7484,10 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>9</v>
@@ -7486,10 +7495,10 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>9</v>
@@ -7497,10 +7506,10 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>9</v>
@@ -7508,10 +7517,10 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>9</v>
@@ -7519,10 +7528,10 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>9</v>
@@ -7530,10 +7539,10 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>9</v>
@@ -7541,10 +7550,10 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>9</v>
@@ -7552,10 +7561,10 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>9</v>
@@ -7563,10 +7572,10 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>9</v>
@@ -7574,10 +7583,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>9</v>
@@ -7585,10 +7594,10 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>9</v>
@@ -7596,10 +7605,10 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>9</v>
@@ -7607,10 +7616,10 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>9</v>
@@ -7618,10 +7627,10 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>9</v>
@@ -7629,10 +7638,10 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>9</v>
@@ -7640,10 +7649,10 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>9</v>
@@ -7651,10 +7660,10 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>9</v>
@@ -7662,10 +7671,10 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>9</v>
@@ -7676,10 +7685,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>9</v>
@@ -7687,10 +7696,10 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>9</v>
@@ -7698,10 +7707,10 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>9</v>
@@ -7709,10 +7718,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>9</v>
@@ -7720,10 +7729,10 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>9</v>
@@ -7731,10 +7740,10 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>9</v>
@@ -7742,10 +7751,10 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>9</v>
@@ -7753,10 +7762,10 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>9</v>
@@ -7764,10 +7773,10 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>9</v>
@@ -7775,10 +7784,10 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>9</v>
@@ -7786,10 +7795,10 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>9</v>
@@ -7797,10 +7806,10 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>9</v>
@@ -7808,10 +7817,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>9</v>
@@ -7819,10 +7828,10 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>9</v>
@@ -7830,10 +7839,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>9</v>
@@ -7841,10 +7850,10 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>9</v>
@@ -7852,10 +7861,10 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>9</v>
@@ -7863,10 +7872,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>9</v>
@@ -7874,10 +7883,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>9</v>
@@ -7885,10 +7894,10 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>9</v>
@@ -7896,10 +7905,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>9</v>
@@ -7907,10 +7916,10 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>9</v>
@@ -7921,10 +7930,10 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>9</v>
@@ -7935,10 +7944,10 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>9</v>
@@ -7946,10 +7955,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>9</v>
@@ -7957,10 +7966,10 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>9</v>
@@ -7971,10 +7980,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>9</v>
@@ -7982,10 +7991,10 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>9</v>
@@ -7993,10 +8002,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>9</v>
@@ -8004,10 +8013,10 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>9</v>
@@ -8015,10 +8024,10 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>9</v>
@@ -8026,10 +8035,10 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>9</v>
@@ -8037,10 +8046,10 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>9</v>
@@ -8048,10 +8057,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>9</v>
@@ -8059,10 +8068,10 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>9</v>
@@ -8073,10 +8082,10 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>9</v>
@@ -8087,10 +8096,10 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>9</v>

--- a/Doc/lin.xlsx
+++ b/Doc/lin.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="514">
   <si>
     <t>media_name</t>
   </si>
@@ -191,6 +191,9 @@
     <t>http://sjzdaily.com.cn/</t>
   </si>
   <si>
+    <t>每个栏目要配一套</t>
+  </si>
+  <si>
     <t>秦皇岛新闻网</t>
   </si>
   <si>
@@ -200,6 +203,9 @@
     <t>http://www.qhdnews.com/</t>
   </si>
   <si>
+    <t>没有栏目</t>
+  </si>
+  <si>
     <t>秦皇岛传媒网</t>
   </si>
   <si>
@@ -215,6 +221,9 @@
     <t>http://www.bohaitoday.cn/</t>
   </si>
   <si>
+    <t>url中有#号</t>
+  </si>
+  <si>
     <t>沧州广电网</t>
   </si>
   <si>
@@ -266,6 +275,12 @@
     <t>承德新闻网</t>
   </si>
   <si>
+    <t>https://www.chengdechina.com/</t>
+  </si>
+  <si>
+    <t>需要调用接口</t>
+  </si>
+  <si>
     <t>和合承德网</t>
   </si>
   <si>
@@ -275,19 +290,52 @@
     <t>廊坊传媒网</t>
   </si>
   <si>
+    <t>时政新闻</t>
+  </si>
+  <si>
+    <t>http://www.lfcmw.com/</t>
+  </si>
+  <si>
     <t>环京津新闻网</t>
   </si>
   <si>
+    <t>https://www.010lf.com/</t>
+  </si>
+  <si>
+    <t>网站打开很慢</t>
+  </si>
+  <si>
     <t>定州网</t>
   </si>
   <si>
     <t>太行新闻网</t>
   </si>
   <si>
+    <t>省内新闻 国内新闻 国际新闻</t>
+  </si>
+  <si>
+    <t>http://www.thxww.gov.cn/</t>
+  </si>
+  <si>
     <t>河北日报</t>
   </si>
   <si>
+    <t>时政 经济</t>
+  </si>
+  <si>
+    <t>https://hbxw.hebnews.cn/</t>
+  </si>
+  <si>
+    <t>没爬取到数据</t>
+  </si>
+  <si>
     <t>河北青年报</t>
+  </si>
+  <si>
+    <t>河北新闻 财经</t>
+  </si>
+  <si>
+    <t>https://www.hbynet.net/html/heqing/index.html</t>
   </si>
   <si>
     <t>河北法制报</t>
@@ -2544,8 +2592,8 @@
   <sheetPr/>
   <dimension ref="A1:I454"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2554,6 +2602,7 @@
     <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="5" max="5" width="23.625" customWidth="1"/>
     <col min="8" max="8" width="38.25" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2903,7 +2952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -2925,13 +2974,16 @@
       <c r="H23" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
@@ -2940,21 +2992,24 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G24">
         <v>2</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="I24" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
@@ -2966,15 +3021,15 @@
         <v>2</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
@@ -2983,38 +3038,41 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="I26" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -3023,24 +3081,21 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
@@ -3048,10 +3103,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
@@ -3059,10 +3114,10 @@
     </row>
     <row r="31" ht="15.75" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
@@ -3071,21 +3126,21 @@
         <v>1</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" ht="15.75" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
@@ -3094,21 +3149,21 @@
         <v>1</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
@@ -3116,35 +3171,44 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:9">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35">
         <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I35" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
@@ -3152,10 +3216,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
@@ -3164,12 +3228,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -3177,38 +3241,56 @@
       <c r="D38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39">
         <v>1</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I39" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
@@ -3216,13 +3298,22 @@
       <c r="D41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
@@ -3230,27 +3321,48 @@
       <c r="D42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="s">
+        <v>89</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" spans="1:8">
       <c r="A43" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43">
         <v>1</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
@@ -3258,10 +3370,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
@@ -3269,10 +3381,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -3280,10 +3392,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
@@ -3291,10 +3403,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -3302,10 +3414,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
@@ -3313,10 +3425,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
@@ -3324,10 +3436,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
@@ -3335,10 +3447,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
@@ -3346,10 +3458,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
@@ -3357,10 +3469,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
@@ -3371,10 +3483,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
@@ -3385,10 +3497,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
@@ -3399,10 +3511,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
@@ -3413,10 +3525,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
@@ -3427,10 +3539,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
@@ -3441,10 +3553,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
@@ -3455,10 +3567,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
@@ -3466,10 +3578,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
@@ -3480,10 +3592,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
@@ -3494,10 +3606,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
@@ -3508,10 +3620,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
@@ -3522,10 +3634,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
@@ -3536,10 +3648,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
@@ -3550,10 +3662,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
@@ -3561,10 +3673,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
@@ -3572,10 +3684,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
@@ -3583,10 +3695,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
@@ -3594,10 +3706,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
@@ -3605,10 +3717,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
@@ -3616,10 +3728,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -3627,10 +3739,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -3638,10 +3750,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -3649,10 +3761,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -3663,10 +3775,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -3677,10 +3789,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -3691,10 +3803,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -3702,10 +3814,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -3713,10 +3825,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -3727,10 +3839,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -3741,10 +3853,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -3752,10 +3864,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -3766,10 +3878,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -3780,10 +3892,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
@@ -3794,10 +3906,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -3805,10 +3917,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
@@ -3816,10 +3928,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
@@ -3827,10 +3939,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
@@ -3838,10 +3950,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -3852,10 +3964,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
@@ -3866,10 +3978,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -3880,10 +3992,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -3891,10 +4003,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -3902,10 +4014,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -3913,10 +4025,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -3927,10 +4039,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -3941,10 +4053,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -3955,10 +4067,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -3969,10 +4081,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -3983,10 +4095,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -3994,10 +4106,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -4008,10 +4120,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -4022,10 +4134,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -4036,10 +4148,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -4047,10 +4159,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -4061,10 +4173,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -4075,10 +4187,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -4086,10 +4198,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
@@ -4097,10 +4209,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
@@ -4108,10 +4220,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
@@ -4122,10 +4234,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -4136,10 +4248,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -4150,10 +4262,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -4161,10 +4273,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -4175,10 +4287,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -4186,10 +4298,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
@@ -4197,10 +4309,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
@@ -4211,10 +4323,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
@@ -4222,10 +4334,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -4236,10 +4348,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
@@ -4250,10 +4362,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -4261,10 +4373,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -4275,10 +4387,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -4289,10 +4401,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -4300,10 +4412,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -4314,10 +4426,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -4325,10 +4437,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -4336,10 +4448,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -4347,10 +4459,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -4361,10 +4473,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -4375,10 +4487,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -4389,10 +4501,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -4400,10 +4512,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -4411,10 +4523,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -4425,10 +4537,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -4436,10 +4548,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -4450,10 +4562,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -4461,10 +4573,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
@@ -4472,10 +4584,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
@@ -4483,10 +4595,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
@@ -4494,10 +4606,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
@@ -4505,10 +4617,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
@@ -4516,10 +4628,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -4527,10 +4639,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -4538,10 +4650,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4549,10 +4661,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
@@ -4563,10 +4675,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
@@ -4577,10 +4689,10 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
@@ -4591,10 +4703,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
@@ -4605,10 +4717,10 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
@@ -4619,10 +4731,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
@@ -4633,10 +4745,10 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
@@ -4647,10 +4759,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
@@ -4658,10 +4770,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
@@ -4669,10 +4781,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -4680,10 +4792,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
@@ -4691,10 +4803,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
@@ -4702,10 +4814,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4716,10 +4828,10 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -4730,10 +4842,10 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -4744,10 +4856,10 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -4758,10 +4870,10 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
@@ -4772,10 +4884,10 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -4786,10 +4898,10 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -4800,10 +4912,10 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -4814,10 +4926,10 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
@@ -4828,10 +4940,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
@@ -4842,10 +4954,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
@@ -4856,10 +4968,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
@@ -4870,10 +4982,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
@@ -4884,10 +4996,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
@@ -4898,10 +5010,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
@@ -4912,10 +5024,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="2" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
@@ -4923,10 +5035,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="2" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
@@ -4934,10 +5046,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="2" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
@@ -4945,10 +5057,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
@@ -4956,10 +5068,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
@@ -4970,10 +5082,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
@@ -4984,10 +5096,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
@@ -4998,10 +5110,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
@@ -5012,10 +5124,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
@@ -5026,10 +5138,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
@@ -5040,10 +5152,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
@@ -5051,10 +5163,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
@@ -5065,10 +5177,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="2" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
@@ -5076,10 +5188,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
@@ -5087,10 +5199,10 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
@@ -5101,10 +5213,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
@@ -5112,10 +5224,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
@@ -5123,10 +5235,10 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
@@ -5137,10 +5249,10 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
@@ -5151,10 +5263,10 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
@@ -5165,10 +5277,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="2" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
@@ -5176,10 +5288,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="2" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
@@ -5187,10 +5299,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
@@ -5198,10 +5310,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="2" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
@@ -5209,10 +5321,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="2" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
@@ -5220,10 +5332,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="2" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
@@ -5231,10 +5343,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="2" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
@@ -5242,10 +5354,10 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
@@ -5256,10 +5368,10 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
@@ -5270,10 +5382,10 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
@@ -5284,10 +5396,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="2" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
@@ -5295,10 +5407,10 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
@@ -5309,10 +5421,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="2" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
@@ -5320,10 +5432,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="2" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
@@ -5331,10 +5443,10 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
@@ -5345,10 +5457,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="2" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
@@ -5356,10 +5468,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="2" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
@@ -5367,10 +5479,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="2" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
@@ -5378,10 +5490,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="2" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
@@ -5389,10 +5501,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="2" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
@@ -5400,10 +5512,10 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
@@ -5414,10 +5526,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="2" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
@@ -5425,10 +5537,10 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
@@ -5439,10 +5551,10 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
@@ -5453,10 +5565,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="2" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
@@ -5464,10 +5576,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="2" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>9</v>
@@ -5475,10 +5587,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="2" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>9</v>
@@ -5486,10 +5598,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="2" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>9</v>
@@ -5497,10 +5609,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="2" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
@@ -5508,10 +5620,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
@@ -5519,10 +5631,10 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
@@ -5533,10 +5645,10 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>9</v>
@@ -5547,10 +5659,10 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>9</v>
@@ -5561,10 +5673,10 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>9</v>
@@ -5575,10 +5687,10 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>9</v>
@@ -5589,10 +5701,10 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>9</v>
@@ -5603,10 +5715,10 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>9</v>
@@ -5617,10 +5729,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>9</v>
@@ -5628,10 +5740,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="2" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>9</v>
@@ -5639,10 +5751,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>9</v>
@@ -5650,10 +5762,10 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>9</v>
@@ -5661,10 +5773,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
@@ -5672,10 +5784,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="2" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>9</v>
@@ -5683,10 +5795,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="2" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>9</v>
@@ -5694,10 +5806,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>9</v>
@@ -5705,10 +5817,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="2" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>9</v>
@@ -5716,10 +5828,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="2" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>9</v>
@@ -5727,10 +5839,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="2" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>9</v>
@@ -5738,10 +5850,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="2" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>9</v>
@@ -5749,10 +5861,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="2" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>9</v>
@@ -5760,10 +5872,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="2" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>9</v>
@@ -5771,10 +5883,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="2" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>9</v>
@@ -5782,10 +5894,10 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="2" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>9</v>
@@ -5793,10 +5905,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="2" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>9</v>
@@ -5804,10 +5916,10 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="2" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>9</v>
@@ -5815,10 +5927,10 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="2" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>9</v>
@@ -5826,10 +5938,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="2" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>9</v>
@@ -5837,10 +5949,10 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="2" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>9</v>
@@ -5848,10 +5960,10 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="2" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>9</v>
@@ -5859,10 +5971,10 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="2" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>9</v>
@@ -5870,10 +5982,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="2" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>9</v>
@@ -5881,10 +5993,10 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="2" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>9</v>
@@ -5892,10 +6004,10 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="2" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>9</v>
@@ -5903,10 +6015,10 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="2" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>9</v>
@@ -5914,10 +6026,10 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="2" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>9</v>
@@ -5925,10 +6037,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="2" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>9</v>
@@ -5936,10 +6048,10 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="2" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>9</v>
@@ -5947,10 +6059,10 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="2" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>9</v>
@@ -5958,10 +6070,10 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="2" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>9</v>
@@ -5969,10 +6081,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="2" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>9</v>
@@ -5980,10 +6092,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="2" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>9</v>
@@ -5991,10 +6103,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="2" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>9</v>
@@ -6002,10 +6114,10 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="2" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>9</v>
@@ -6013,10 +6125,10 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="2" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>9</v>
@@ -6024,10 +6136,10 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="2" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>9</v>
@@ -6035,10 +6147,10 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="2" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>9</v>
@@ -6046,10 +6158,10 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="2" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>9</v>
@@ -6057,10 +6169,10 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="2" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>9</v>
@@ -6068,10 +6180,10 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="2" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>9</v>
@@ -6079,10 +6191,10 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="2" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>9</v>
@@ -6090,10 +6202,10 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="2" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>9</v>
@@ -6101,10 +6213,10 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="2" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>9</v>
@@ -6112,10 +6224,10 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="2" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>9</v>
@@ -6123,10 +6235,10 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="2" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>9</v>
@@ -6134,10 +6246,10 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="2" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>9</v>
@@ -6145,10 +6257,10 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="2" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>9</v>
@@ -6156,10 +6268,10 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="2" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>9</v>
@@ -6167,10 +6279,10 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="2" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>9</v>
@@ -6178,10 +6290,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="2" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>9</v>
@@ -6189,10 +6301,10 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="2" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>9</v>
@@ -6200,10 +6312,10 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="2" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>9</v>
@@ -6211,10 +6323,10 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="2" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>9</v>
@@ -6222,10 +6334,10 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="2" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>9</v>
@@ -6233,10 +6345,10 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="2" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>9</v>
@@ -6244,10 +6356,10 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="2" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>9</v>
@@ -6255,10 +6367,10 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="2" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>9</v>
@@ -6266,10 +6378,10 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="2" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>9</v>
@@ -6277,10 +6389,10 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="2" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>9</v>
@@ -6288,10 +6400,10 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="2" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>9</v>
@@ -6299,10 +6411,10 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="2" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>9</v>
@@ -6310,10 +6422,10 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="2" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>9</v>
@@ -6321,10 +6433,10 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="2" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>9</v>
@@ -6332,10 +6444,10 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="2" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>9</v>
@@ -6343,10 +6455,10 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="2" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>9</v>
@@ -6354,10 +6466,10 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="2" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>9</v>
@@ -6365,10 +6477,10 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="2" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>9</v>
@@ -6376,10 +6488,10 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="2" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>9</v>
@@ -6387,10 +6499,10 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="2" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>9</v>
@@ -6398,10 +6510,10 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="2" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>9</v>
@@ -6409,10 +6521,10 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="2" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>9</v>
@@ -6420,10 +6532,10 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="2" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>9</v>
@@ -6431,10 +6543,10 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="2" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>9</v>
@@ -6442,10 +6554,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="2" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>9</v>
@@ -6453,10 +6565,10 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="2" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>9</v>
@@ -6464,10 +6576,10 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="2" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>9</v>
@@ -6475,10 +6587,10 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>9</v>
@@ -6489,10 +6601,10 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>9</v>
@@ -6503,10 +6615,10 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="2" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>9</v>
@@ -6514,10 +6626,10 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="2" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>9</v>
@@ -6525,10 +6637,10 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="2" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>9</v>
@@ -6536,10 +6648,10 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="2" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>9</v>
@@ -6547,10 +6659,10 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>9</v>
@@ -6561,10 +6673,10 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="2" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>9</v>
@@ -6572,10 +6684,10 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="2" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>9</v>
@@ -6583,10 +6695,10 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="2" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>9</v>
@@ -6594,10 +6706,10 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="2" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>9</v>
@@ -6605,10 +6717,10 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="2" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>9</v>
@@ -6616,10 +6728,10 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="2" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>9</v>
@@ -6627,10 +6739,10 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="2" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>9</v>
@@ -6638,10 +6750,10 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="2" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>9</v>
@@ -6649,10 +6761,10 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="2" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>9</v>
@@ -6660,10 +6772,10 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="2" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>9</v>
@@ -6671,10 +6783,10 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="2" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>9</v>
@@ -6682,10 +6794,10 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>9</v>
@@ -6696,10 +6808,10 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="2" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>9</v>
@@ -6707,10 +6819,10 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="2" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>9</v>
@@ -6718,10 +6830,10 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="2" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>9</v>
@@ -6729,10 +6841,10 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="2" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>9</v>
@@ -6740,10 +6852,10 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="2" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>9</v>
@@ -6751,10 +6863,10 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="2" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>9</v>
@@ -6762,10 +6874,10 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="2" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>9</v>
@@ -6773,10 +6885,10 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="2" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>9</v>
@@ -6784,10 +6896,10 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>9</v>
@@ -6798,10 +6910,10 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="2" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>9</v>
@@ -6809,10 +6921,10 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="2" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>9</v>
@@ -6820,10 +6932,10 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="2" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>9</v>
@@ -6831,10 +6943,10 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="2" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>9</v>
@@ -6842,10 +6954,10 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="2" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>9</v>
@@ -6853,10 +6965,10 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="2" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>9</v>
@@ -6864,10 +6976,10 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="2" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>9</v>
@@ -6875,10 +6987,10 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="2" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>9</v>
@@ -6886,10 +6998,10 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="2" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>9</v>
@@ -6897,10 +7009,10 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="2" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>9</v>
@@ -6908,10 +7020,10 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="2" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>9</v>
@@ -6919,10 +7031,10 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>9</v>
@@ -6933,10 +7045,10 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="2" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>9</v>
@@ -6944,10 +7056,10 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="2" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>9</v>
@@ -6955,10 +7067,10 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="2" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>9</v>
@@ -6966,10 +7078,10 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>9</v>
@@ -6980,10 +7092,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="2" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>9</v>
@@ -6991,10 +7103,10 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>9</v>
@@ -7005,10 +7117,10 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>9</v>
@@ -7019,10 +7131,10 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="2" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>9</v>
@@ -7030,10 +7142,10 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="2" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>9</v>
@@ -7041,10 +7153,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="2" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>9</v>
@@ -7052,10 +7164,10 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="2" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>9</v>
@@ -7063,10 +7175,10 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="2" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>9</v>
@@ -7074,10 +7186,10 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="2" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>9</v>
@@ -7085,10 +7197,10 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="2" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>9</v>
@@ -7096,10 +7208,10 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="2" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>9</v>
@@ -7107,10 +7219,10 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="2" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>9</v>
@@ -7118,10 +7230,10 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="2" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>9</v>
@@ -7129,10 +7241,10 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="2" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>9</v>
@@ -7140,10 +7252,10 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="2" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>9</v>
@@ -7151,10 +7263,10 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="2" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>9</v>
@@ -7162,10 +7274,10 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="2" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>9</v>
@@ -7173,10 +7285,10 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="2" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>9</v>
@@ -7184,10 +7296,10 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="2" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>9</v>
@@ -7195,10 +7307,10 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="2" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>9</v>
@@ -7206,10 +7318,10 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="2" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>9</v>
@@ -7217,10 +7329,10 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="2" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>9</v>
@@ -7228,10 +7340,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="2" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>9</v>
@@ -7239,10 +7351,10 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="2" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>9</v>
@@ -7250,10 +7362,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="2" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>9</v>
@@ -7261,10 +7373,10 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="2" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>9</v>
@@ -7272,10 +7384,10 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="2" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>9</v>
@@ -7283,10 +7395,10 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="2" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>9</v>
@@ -7294,10 +7406,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="2" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>9</v>
@@ -7305,10 +7417,10 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="2" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>9</v>
@@ -7316,10 +7428,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="2" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>9</v>
@@ -7327,10 +7439,10 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="2" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>9</v>
@@ -7341,10 +7453,10 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="2" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>9</v>
@@ -7352,10 +7464,10 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="2" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>9</v>
@@ -7363,10 +7475,10 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="2" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>9</v>
@@ -7374,10 +7486,10 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="2" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>9</v>
@@ -7385,10 +7497,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="2" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>9</v>
@@ -7396,10 +7508,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="2" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>9</v>
@@ -7407,10 +7519,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="2" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>9</v>
@@ -7418,10 +7530,10 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="2" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>9</v>
@@ -7429,10 +7541,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="2" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>9</v>
@@ -7440,10 +7552,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="2" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>9</v>
@@ -7451,10 +7563,10 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="2" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>9</v>
@@ -7462,10 +7574,10 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="2" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>9</v>
@@ -7473,10 +7585,10 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="2" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>9</v>
@@ -7484,10 +7596,10 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="2" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>9</v>
@@ -7495,10 +7607,10 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="2" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>9</v>
@@ -7506,10 +7618,10 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="2" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>9</v>
@@ -7517,10 +7629,10 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="2" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>9</v>
@@ -7528,10 +7640,10 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="2" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>9</v>
@@ -7539,10 +7651,10 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="2" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>9</v>
@@ -7550,10 +7662,10 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="2" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>9</v>
@@ -7561,10 +7673,10 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="2" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>9</v>
@@ -7572,10 +7684,10 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="2" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>9</v>
@@ -7583,10 +7695,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="2" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>9</v>
@@ -7594,10 +7706,10 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="2" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>9</v>
@@ -7605,10 +7717,10 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="2" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>9</v>
@@ -7616,10 +7728,10 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="2" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>9</v>
@@ -7627,10 +7739,10 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="2" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>9</v>
@@ -7638,10 +7750,10 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="2" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>9</v>
@@ -7649,10 +7761,10 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="2" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>9</v>
@@ -7660,10 +7772,10 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="2" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>9</v>
@@ -7671,10 +7783,10 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="2" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>9</v>
@@ -7685,10 +7797,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="2" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>9</v>
@@ -7696,10 +7808,10 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="2" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>9</v>
@@ -7707,10 +7819,10 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="2" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>9</v>
@@ -7718,10 +7830,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="2" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>9</v>
@@ -7729,10 +7841,10 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="2" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>9</v>
@@ -7740,10 +7852,10 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="2" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>9</v>
@@ -7751,10 +7863,10 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="2" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>9</v>
@@ -7762,10 +7874,10 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="2" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>9</v>
@@ -7773,10 +7885,10 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="2" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>9</v>
@@ -7784,10 +7896,10 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="2" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>9</v>
@@ -7795,10 +7907,10 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="2" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>9</v>
@@ -7806,10 +7918,10 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="2" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>9</v>
@@ -7817,10 +7929,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="2" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>9</v>
@@ -7828,10 +7940,10 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="2" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>9</v>
@@ -7839,10 +7951,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="2" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>9</v>
@@ -7850,10 +7962,10 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="2" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>9</v>
@@ -7861,10 +7973,10 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="2" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>9</v>
@@ -7872,10 +7984,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="2" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>9</v>
@@ -7883,10 +7995,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="2" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>9</v>
@@ -7894,10 +8006,10 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="2" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>9</v>
@@ -7905,10 +8017,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="2" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>9</v>
@@ -7916,10 +8028,10 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="2" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>9</v>
@@ -7930,10 +8042,10 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="2" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>9</v>
@@ -7944,10 +8056,10 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="2" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>9</v>
@@ -7955,10 +8067,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="2" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>9</v>
@@ -7966,10 +8078,10 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="2" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>9</v>
@@ -7980,10 +8092,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="2" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>9</v>
@@ -7991,10 +8103,10 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="2" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>9</v>
@@ -8002,10 +8114,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="2" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>9</v>
@@ -8013,10 +8125,10 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="2" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>9</v>
@@ -8024,10 +8136,10 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="2" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>9</v>
@@ -8035,10 +8147,10 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="2" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>9</v>
@@ -8046,10 +8158,10 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="2" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>9</v>
@@ -8057,10 +8169,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="2" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>9</v>
@@ -8068,10 +8180,10 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="2" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>9</v>
@@ -8082,10 +8194,10 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="2" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>9</v>
@@ -8096,10 +8208,10 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="2" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>9</v>
@@ -8124,6 +8236,12 @@
     <hyperlink ref="H28" r:id="rId13" display="https://www.cznews.gov.cn/" tooltip="https://www.cznews.gov.cn/"/>
     <hyperlink ref="H31" r:id="rId14" display="https://www.huanbohainews.com.cn/" tooltip="https://www.huanbohainews.com.cn/"/>
     <hyperlink ref="H32" r:id="rId15" display="http://www.zjknews.com/"/>
+    <hyperlink ref="H35" r:id="rId16" display="https://www.chengdechina.com/"/>
+    <hyperlink ref="H38" r:id="rId17" display="http://www.lfcmw.com/" tooltip="http://www.lfcmw.com/"/>
+    <hyperlink ref="H39" r:id="rId18" display="https://www.010lf.com/"/>
+    <hyperlink ref="H41" r:id="rId19" display="http://www.thxww.gov.cn/"/>
+    <hyperlink ref="H42" r:id="rId20" display="https://hbxw.hebnews.cn/"/>
+    <hyperlink ref="H43" r:id="rId21" display="https://www.hbynet.net/html/heqing/index.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Doc/lin.xlsx
+++ b/Doc/lin.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="517">
   <si>
     <t>media_name</t>
   </si>
@@ -371,7 +371,17 @@
     <t>黄河新闻网</t>
   </si>
   <si>
+    <t>http://www.sxgov.cn/index.htm</t>
+  </si>
+  <si>
     <t>山西新闻网</t>
+  </si>
+  <si>
+    <t>山西新闻 太原新闻 国内新闻 
+国际新闻 社会新闻</t>
+  </si>
+  <si>
+    <t>http://www.sxrb.com/</t>
   </si>
   <si>
     <t>山西日报</t>
@@ -2225,7 +2235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2241,6 +2251,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2592,8 +2605,8 @@
   <sheetPr/>
   <dimension ref="A1:I454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3467,7 +3480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
         <v>105</v>
       </c>
@@ -3480,27 +3493,42 @@
       <c r="D54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" ht="40.5" spans="1:8">
       <c r="A55" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55">
         <v>1</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
@@ -3511,10 +3539,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
@@ -3525,10 +3553,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
@@ -3539,10 +3567,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
@@ -3553,10 +3581,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
@@ -3567,10 +3595,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
@@ -3578,10 +3606,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
@@ -3592,10 +3620,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
@@ -3606,10 +3634,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
@@ -3620,10 +3648,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
@@ -3634,10 +3662,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
@@ -3648,10 +3676,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
@@ -3662,10 +3690,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
@@ -3673,10 +3701,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
@@ -3684,10 +3712,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
@@ -3695,10 +3723,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
@@ -3706,10 +3734,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
@@ -3717,10 +3745,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
@@ -3728,10 +3756,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -3739,10 +3767,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -3750,10 +3778,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -3761,10 +3789,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -3775,10 +3803,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -3789,10 +3817,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -3803,10 +3831,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -3814,10 +3842,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -3825,10 +3853,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -3839,10 +3867,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -3853,10 +3881,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -3864,10 +3892,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -3878,10 +3906,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -3892,10 +3920,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
@@ -3906,10 +3934,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -3917,10 +3945,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
@@ -3928,10 +3956,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
@@ -3939,10 +3967,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
@@ -3950,10 +3978,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -3964,10 +3992,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
@@ -3978,10 +4006,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -3992,10 +4020,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -4003,10 +4031,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -4014,10 +4042,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -4025,10 +4053,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -4039,10 +4067,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -4053,10 +4081,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -4067,10 +4095,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -4081,10 +4109,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -4095,10 +4123,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -4106,10 +4134,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -4120,10 +4148,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -4134,10 +4162,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -4148,10 +4176,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -4159,10 +4187,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -4173,10 +4201,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -4187,10 +4215,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -4198,10 +4226,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
@@ -4209,10 +4237,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
@@ -4220,10 +4248,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
@@ -4234,10 +4262,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -4248,10 +4276,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -4262,10 +4290,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -4273,10 +4301,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -4287,10 +4315,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -4298,10 +4326,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
@@ -4309,10 +4337,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
@@ -4323,10 +4351,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
@@ -4334,10 +4362,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -4348,10 +4376,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
@@ -4362,10 +4390,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -4373,10 +4401,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -4387,10 +4415,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -4401,10 +4429,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -4412,10 +4440,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -4426,10 +4454,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -4437,10 +4465,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -4448,10 +4476,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -4459,10 +4487,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -4473,10 +4501,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -4487,10 +4515,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -4501,10 +4529,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -4512,10 +4540,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -4523,10 +4551,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -4537,10 +4565,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -4548,10 +4576,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -4562,10 +4590,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -4573,10 +4601,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
@@ -4584,10 +4612,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
@@ -4595,10 +4623,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
@@ -4606,10 +4634,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
@@ -4617,10 +4645,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
@@ -4628,10 +4656,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -4639,10 +4667,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -4650,10 +4678,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4661,10 +4689,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
@@ -4675,10 +4703,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
@@ -4689,10 +4717,10 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
@@ -4703,10 +4731,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
@@ -4717,10 +4745,10 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
@@ -4731,10 +4759,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
@@ -4745,10 +4773,10 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
@@ -4759,10 +4787,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
@@ -4770,10 +4798,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
@@ -4781,10 +4809,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -4792,10 +4820,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
@@ -4803,10 +4831,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
@@ -4814,10 +4842,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4828,10 +4856,10 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -4842,10 +4870,10 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -4856,10 +4884,10 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -4870,10 +4898,10 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
@@ -4884,10 +4912,10 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -4898,10 +4926,10 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -4912,10 +4940,10 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -4926,10 +4954,10 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
@@ -4940,10 +4968,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
@@ -4954,10 +4982,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
@@ -4968,10 +4996,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
@@ -4982,10 +5010,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
@@ -4996,10 +5024,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
@@ -5010,10 +5038,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
@@ -5024,10 +5052,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
@@ -5035,10 +5063,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
@@ -5046,10 +5074,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
@@ -5057,10 +5085,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
@@ -5068,10 +5096,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
@@ -5082,10 +5110,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
@@ -5096,10 +5124,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
@@ -5110,10 +5138,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
@@ -5124,10 +5152,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
@@ -5138,10 +5166,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
@@ -5152,10 +5180,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
@@ -5163,10 +5191,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
@@ -5177,10 +5205,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
@@ -5188,10 +5216,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
@@ -5199,10 +5227,10 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
@@ -5213,10 +5241,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
@@ -5224,10 +5252,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
@@ -5235,10 +5263,10 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
@@ -5249,10 +5277,10 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
@@ -5263,10 +5291,10 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
@@ -5277,10 +5305,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
@@ -5288,10 +5316,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
@@ -5299,10 +5327,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
@@ -5310,10 +5338,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
@@ -5321,10 +5349,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
@@ -5332,10 +5360,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
@@ -5343,10 +5371,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
@@ -5354,10 +5382,10 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
@@ -5368,10 +5396,10 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
@@ -5382,10 +5410,10 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
@@ -5396,10 +5424,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
@@ -5407,10 +5435,10 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
@@ -5421,10 +5449,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
@@ -5432,10 +5460,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
@@ -5443,10 +5471,10 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
@@ -5457,10 +5485,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
@@ -5468,10 +5496,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
@@ -5479,10 +5507,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
@@ -5490,10 +5518,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
@@ -5501,10 +5529,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
@@ -5512,10 +5540,10 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
@@ -5526,10 +5554,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
@@ -5537,10 +5565,10 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
@@ -5551,10 +5579,10 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
@@ -5565,10 +5593,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
@@ -5576,10 +5604,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>9</v>
@@ -5587,10 +5615,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>9</v>
@@ -5598,10 +5626,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>9</v>
@@ -5609,10 +5637,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
@@ -5620,10 +5648,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
@@ -5631,10 +5659,10 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
@@ -5645,10 +5673,10 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>9</v>
@@ -5659,10 +5687,10 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>9</v>
@@ -5673,10 +5701,10 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>9</v>
@@ -5687,10 +5715,10 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>9</v>
@@ -5701,10 +5729,10 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>9</v>
@@ -5715,10 +5743,10 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>9</v>
@@ -5729,10 +5757,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>9</v>
@@ -5740,10 +5768,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>9</v>
@@ -5751,10 +5779,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>9</v>
@@ -5762,10 +5790,10 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>9</v>
@@ -5773,10 +5801,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
@@ -5784,10 +5812,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>9</v>
@@ -5795,10 +5823,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>9</v>
@@ -5806,10 +5834,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>9</v>
@@ -5817,10 +5845,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>9</v>
@@ -5828,10 +5856,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>9</v>
@@ -5839,10 +5867,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>9</v>
@@ -5850,10 +5878,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>9</v>
@@ -5861,10 +5889,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>9</v>
@@ -5872,10 +5900,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>9</v>
@@ -5883,10 +5911,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>9</v>
@@ -5894,10 +5922,10 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>9</v>
@@ -5905,10 +5933,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>9</v>
@@ -5916,10 +5944,10 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>9</v>
@@ -5927,10 +5955,10 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>9</v>
@@ -5938,10 +5966,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>9</v>
@@ -5949,10 +5977,10 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>9</v>
@@ -5960,10 +5988,10 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>9</v>
@@ -5971,10 +5999,10 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>9</v>
@@ -5982,10 +6010,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>9</v>
@@ -5993,10 +6021,10 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>9</v>
@@ -6004,10 +6032,10 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>9</v>
@@ -6015,10 +6043,10 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>9</v>
@@ -6026,10 +6054,10 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>9</v>
@@ -6037,10 +6065,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>9</v>
@@ -6048,10 +6076,10 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>9</v>
@@ -6059,10 +6087,10 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>9</v>
@@ -6070,10 +6098,10 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>9</v>
@@ -6081,10 +6109,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>9</v>
@@ -6092,10 +6120,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>9</v>
@@ -6103,10 +6131,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>9</v>
@@ -6114,10 +6142,10 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>9</v>
@@ -6125,10 +6153,10 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>9</v>
@@ -6136,10 +6164,10 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>9</v>
@@ -6147,10 +6175,10 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>9</v>
@@ -6158,10 +6186,10 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>9</v>
@@ -6169,10 +6197,10 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>9</v>
@@ -6180,10 +6208,10 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>9</v>
@@ -6191,10 +6219,10 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>9</v>
@@ -6202,10 +6230,10 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>9</v>
@@ -6213,10 +6241,10 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>9</v>
@@ -6224,10 +6252,10 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>9</v>
@@ -6235,10 +6263,10 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>9</v>
@@ -6246,10 +6274,10 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>9</v>
@@ -6257,10 +6285,10 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>9</v>
@@ -6268,10 +6296,10 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>9</v>
@@ -6279,10 +6307,10 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>9</v>
@@ -6290,10 +6318,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>9</v>
@@ -6301,10 +6329,10 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>9</v>
@@ -6312,10 +6340,10 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>9</v>
@@ -6323,10 +6351,10 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>9</v>
@@ -6334,10 +6362,10 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="2" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>9</v>
@@ -6345,10 +6373,10 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>9</v>
@@ -6356,10 +6384,10 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>9</v>
@@ -6367,10 +6395,10 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>9</v>
@@ -6378,10 +6406,10 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>9</v>
@@ -6389,10 +6417,10 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>9</v>
@@ -6400,10 +6428,10 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>9</v>
@@ -6411,10 +6439,10 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>9</v>
@@ -6422,10 +6450,10 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>9</v>
@@ -6433,10 +6461,10 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="2" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>9</v>
@@ -6444,10 +6472,10 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="2" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>9</v>
@@ -6455,10 +6483,10 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>9</v>
@@ -6466,10 +6494,10 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>9</v>
@@ -6477,10 +6505,10 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>9</v>
@@ -6488,10 +6516,10 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>9</v>
@@ -6499,10 +6527,10 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>9</v>
@@ -6510,10 +6538,10 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>9</v>
@@ -6521,10 +6549,10 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="2" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>9</v>
@@ -6532,10 +6560,10 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="2" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>9</v>
@@ -6543,10 +6571,10 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>9</v>
@@ -6554,10 +6582,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>9</v>
@@ -6565,10 +6593,10 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="2" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>9</v>
@@ -6576,10 +6604,10 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>9</v>
@@ -6587,10 +6615,10 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>9</v>
@@ -6601,10 +6629,10 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>9</v>
@@ -6615,10 +6643,10 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>9</v>
@@ -6626,10 +6654,10 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>9</v>
@@ -6637,10 +6665,10 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="2" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>9</v>
@@ -6648,10 +6676,10 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="2" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>9</v>
@@ -6659,10 +6687,10 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>9</v>
@@ -6673,10 +6701,10 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>9</v>
@@ -6684,10 +6712,10 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>9</v>
@@ -6695,10 +6723,10 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>9</v>
@@ -6706,10 +6734,10 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>9</v>
@@ -6717,10 +6745,10 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="2" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>9</v>
@@ -6728,10 +6756,10 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>9</v>
@@ -6739,10 +6767,10 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="2" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>9</v>
@@ -6750,10 +6778,10 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>9</v>
@@ -6761,10 +6789,10 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>9</v>
@@ -6772,10 +6800,10 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>9</v>
@@ -6783,10 +6811,10 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>9</v>
@@ -6794,10 +6822,10 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>9</v>
@@ -6808,10 +6836,10 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>9</v>
@@ -6819,10 +6847,10 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>9</v>
@@ -6830,10 +6858,10 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="2" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>9</v>
@@ -6841,10 +6869,10 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="2" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>9</v>
@@ -6852,10 +6880,10 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>9</v>
@@ -6863,10 +6891,10 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="2" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>9</v>
@@ -6874,10 +6902,10 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="2" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>9</v>
@@ -6885,10 +6913,10 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>9</v>
@@ -6896,10 +6924,10 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>9</v>
@@ -6910,10 +6938,10 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>9</v>
@@ -6921,10 +6949,10 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="2" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>9</v>
@@ -6932,10 +6960,10 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="2" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>9</v>
@@ -6943,10 +6971,10 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="2" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>9</v>
@@ -6954,10 +6982,10 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="2" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>9</v>
@@ -6965,10 +6993,10 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>9</v>
@@ -6976,10 +7004,10 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>9</v>
@@ -6987,10 +7015,10 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>9</v>
@@ -6998,10 +7026,10 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="2" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>9</v>
@@ -7009,10 +7037,10 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="2" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>9</v>
@@ -7020,10 +7048,10 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>9</v>
@@ -7031,10 +7059,10 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>9</v>
@@ -7045,10 +7073,10 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>9</v>
@@ -7056,10 +7084,10 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>9</v>
@@ -7067,10 +7095,10 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>9</v>
@@ -7078,10 +7106,10 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>9</v>
@@ -7092,10 +7120,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>9</v>
@@ -7103,10 +7131,10 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>9</v>
@@ -7117,10 +7145,10 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>9</v>
@@ -7131,10 +7159,10 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>9</v>
@@ -7142,10 +7170,10 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>9</v>
@@ -7153,10 +7181,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>9</v>
@@ -7164,10 +7192,10 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="2" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>9</v>
@@ -7175,10 +7203,10 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="2" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>9</v>
@@ -7186,10 +7214,10 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="2" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>9</v>
@@ -7197,10 +7225,10 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>9</v>
@@ -7208,10 +7236,10 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="2" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>9</v>
@@ -7219,10 +7247,10 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>9</v>
@@ -7230,10 +7258,10 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>9</v>
@@ -7241,10 +7269,10 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>9</v>
@@ -7252,10 +7280,10 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>9</v>
@@ -7263,10 +7291,10 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="2" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>9</v>
@@ -7274,10 +7302,10 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="2" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>9</v>
@@ -7285,10 +7313,10 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="2" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>9</v>
@@ -7296,10 +7324,10 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="2" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>9</v>
@@ -7307,10 +7335,10 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>9</v>
@@ -7318,10 +7346,10 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="2" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>9</v>
@@ -7329,10 +7357,10 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="2" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>9</v>
@@ -7340,10 +7368,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="2" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>9</v>
@@ -7351,10 +7379,10 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>9</v>
@@ -7362,10 +7390,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>9</v>
@@ -7373,10 +7401,10 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>9</v>
@@ -7384,10 +7412,10 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>9</v>
@@ -7395,10 +7423,10 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="2" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>9</v>
@@ -7406,10 +7434,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="2" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>9</v>
@@ -7417,10 +7445,10 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="2" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>9</v>
@@ -7428,10 +7456,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>9</v>
@@ -7439,10 +7467,10 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="2" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>9</v>
@@ -7453,10 +7481,10 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>9</v>
@@ -7464,10 +7492,10 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>9</v>
@@ -7475,10 +7503,10 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="2" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>9</v>
@@ -7486,10 +7514,10 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="2" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>9</v>
@@ -7497,10 +7525,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="2" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>9</v>
@@ -7508,10 +7536,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>9</v>
@@ -7519,10 +7547,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="2" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>9</v>
@@ -7530,10 +7558,10 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="2" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>9</v>
@@ -7541,10 +7569,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>9</v>
@@ -7552,10 +7580,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="2" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>9</v>
@@ -7563,10 +7591,10 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>9</v>
@@ -7574,10 +7602,10 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>9</v>
@@ -7585,10 +7613,10 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="2" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>9</v>
@@ -7596,10 +7624,10 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>9</v>
@@ -7607,10 +7635,10 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="2" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>9</v>
@@ -7618,10 +7646,10 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>9</v>
@@ -7629,10 +7657,10 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="2" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>9</v>
@@ -7640,10 +7668,10 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>9</v>
@@ -7651,10 +7679,10 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>9</v>
@@ -7662,10 +7690,10 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>9</v>
@@ -7673,10 +7701,10 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>9</v>
@@ -7684,10 +7712,10 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>9</v>
@@ -7695,10 +7723,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>9</v>
@@ -7706,10 +7734,10 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="2" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>9</v>
@@ -7717,10 +7745,10 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>9</v>
@@ -7728,10 +7756,10 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="2" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>9</v>
@@ -7739,10 +7767,10 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="2" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>9</v>
@@ -7750,10 +7778,10 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="2" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>9</v>
@@ -7761,10 +7789,10 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="2" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>9</v>
@@ -7772,10 +7800,10 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="2" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>9</v>
@@ -7783,10 +7811,10 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="2" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>9</v>
@@ -7797,10 +7825,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>9</v>
@@ -7808,10 +7836,10 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="2" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>9</v>
@@ -7819,10 +7847,10 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="2" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>9</v>
@@ -7830,10 +7858,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="2" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>9</v>
@@ -7841,10 +7869,10 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="2" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>9</v>
@@ -7852,10 +7880,10 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="2" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>9</v>
@@ -7863,10 +7891,10 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="2" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>9</v>
@@ -7874,10 +7902,10 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="2" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>9</v>
@@ -7885,10 +7913,10 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="2" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>9</v>
@@ -7896,10 +7924,10 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="2" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>9</v>
@@ -7907,10 +7935,10 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="2" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>9</v>
@@ -7918,10 +7946,10 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="2" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>9</v>
@@ -7929,10 +7957,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="2" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>9</v>
@@ -7940,10 +7968,10 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="2" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>9</v>
@@ -7951,10 +7979,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="2" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>9</v>
@@ -7962,10 +7990,10 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="2" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>9</v>
@@ -7973,10 +8001,10 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>9</v>
@@ -7984,10 +8012,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="2" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>9</v>
@@ -7995,10 +8023,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>9</v>
@@ -8006,10 +8034,10 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="2" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>9</v>
@@ -8017,10 +8045,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="2" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>9</v>
@@ -8028,10 +8056,10 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>9</v>
@@ -8042,10 +8070,10 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>9</v>
@@ -8056,10 +8084,10 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="2" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>9</v>
@@ -8067,10 +8095,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>9</v>
@@ -8078,10 +8106,10 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>9</v>
@@ -8092,10 +8120,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="2" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>9</v>
@@ -8103,10 +8131,10 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="2" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>9</v>
@@ -8114,10 +8142,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>9</v>
@@ -8125,10 +8153,10 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="2" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>9</v>
@@ -8136,10 +8164,10 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="2" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>9</v>
@@ -8147,10 +8175,10 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="2" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>9</v>
@@ -8158,10 +8186,10 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>9</v>
@@ -8169,10 +8197,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>9</v>
@@ -8180,10 +8208,10 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="2" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>9</v>
@@ -8194,10 +8222,10 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="2" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>9</v>
@@ -8208,10 +8236,10 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="2" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>9</v>
@@ -8242,6 +8270,8 @@
     <hyperlink ref="H41" r:id="rId19" display="http://www.thxww.gov.cn/"/>
     <hyperlink ref="H42" r:id="rId20" display="https://hbxw.hebnews.cn/"/>
     <hyperlink ref="H43" r:id="rId21" display="https://www.hbynet.net/html/heqing/index.html"/>
+    <hyperlink ref="H54" r:id="rId22" display="http://www.sxgov.cn/index.htm"/>
+    <hyperlink ref="H55" r:id="rId23" display="http://www.sxrb.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Doc/lin.xlsx
+++ b/Doc/lin.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="531">
   <si>
     <t>media_name</t>
   </si>
@@ -390,21 +390,54 @@
     <t>山西日报网</t>
   </si>
   <si>
+    <t>http://epaper.sxrb.com/index.shtml</t>
+  </si>
+  <si>
+    <t>数字报</t>
+  </si>
+  <si>
     <t>山西晚报</t>
   </si>
   <si>
     <t>山西晚报网</t>
   </si>
   <si>
+    <t>https://www.sxwbs.com/</t>
+  </si>
+  <si>
+    <t>没有栏目 url中有#</t>
+  </si>
+  <si>
     <t>太原新闻网</t>
   </si>
   <si>
+    <t>经济新闻 今日聚焦 山西新闻 太原新闻</t>
+  </si>
+  <si>
+    <t>http://www.tynews.com.cn/</t>
+  </si>
+  <si>
     <t>大同新闻网</t>
   </si>
   <si>
+    <t>今日头条 理财</t>
+  </si>
+  <si>
+    <t>http://www.dtnews.cn/</t>
+  </si>
+  <si>
+    <t>没有发布日期</t>
+  </si>
+  <si>
     <t>长治新闻网</t>
   </si>
   <si>
+    <t>长治要闻</t>
+  </si>
+  <si>
+    <t>http://www.changzhinews.com/</t>
+  </si>
+  <si>
     <t>阳泉日报</t>
   </si>
   <si>
@@ -414,7 +447,16 @@
     <t>晋城新闻网</t>
   </si>
   <si>
+    <t>财经 山西新闻  社会新闻 晋城新闻 国内新闻</t>
+  </si>
+  <si>
+    <t>http://www.jcnews.com.cn/</t>
+  </si>
+  <si>
     <t>运城新闻网</t>
+  </si>
+  <si>
+    <t>http://www.sxycrb.com/</t>
   </si>
   <si>
     <t>临汾新闻网</t>
@@ -1615,7 +1657,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1643,6 +1685,11 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1774,12 +1821,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2093,10 +2140,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2105,16 +2152,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2129,10 +2176,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2144,98 +2188,101 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2254,6 +2301,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2605,13 +2655,13 @@
   <sheetPr/>
   <dimension ref="A1:I454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="5" max="5" width="23.625" customWidth="1"/>
     <col min="8" max="8" width="38.25" customWidth="1"/>
@@ -3523,7 +3573,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:9">
       <c r="A56" s="2" t="s">
         <v>110</v>
       </c>
@@ -3536,13 +3586,22 @@
       <c r="D56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56" t="s">
+        <v>112</v>
+      </c>
+      <c r="I56" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
@@ -3550,13 +3609,22 @@
       <c r="D57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
@@ -3564,13 +3632,22 @@
       <c r="D58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" t="s">
+        <v>119</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
@@ -3578,38 +3655,59 @@
       <c r="D59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" t="s">
+        <v>122</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I59" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" ht="17.25" spans="1:8">
       <c r="A60" s="2" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60">
         <v>1</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
@@ -3617,27 +3715,39 @@
       <c r="D62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" t="s">
+        <v>131</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63">
         <v>1</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
@@ -3648,10 +3758,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
@@ -3662,10 +3772,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
@@ -3676,10 +3786,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
@@ -3690,10 +3800,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
@@ -3701,10 +3811,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
@@ -3712,10 +3822,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
@@ -3723,10 +3833,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
@@ -3734,10 +3844,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
@@ -3745,10 +3855,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
@@ -3756,10 +3866,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -3767,10 +3877,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -3778,10 +3888,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -3789,10 +3899,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -3803,10 +3913,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -3817,10 +3927,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -3831,10 +3941,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -3842,10 +3952,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -3853,10 +3963,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -3867,10 +3977,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -3881,10 +3991,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -3892,10 +4002,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -3906,10 +4016,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -3920,10 +4030,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
@@ -3934,10 +4044,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -3945,10 +4055,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
@@ -3956,10 +4066,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
@@ -3967,10 +4077,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
@@ -3978,10 +4088,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -3992,10 +4102,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
@@ -4006,10 +4116,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -4020,10 +4130,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -4031,10 +4141,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -4042,10 +4152,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -4053,10 +4163,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -4067,10 +4177,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -4081,10 +4191,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -4095,10 +4205,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -4109,10 +4219,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -4123,10 +4233,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -4134,10 +4244,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -4148,10 +4258,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -4162,10 +4272,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -4176,10 +4286,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -4187,10 +4297,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -4201,10 +4311,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -4215,10 +4325,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -4226,10 +4336,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
@@ -4237,10 +4347,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
@@ -4248,10 +4358,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
@@ -4262,10 +4372,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -4276,10 +4386,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -4290,10 +4400,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -4301,10 +4411,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -4315,10 +4425,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -4326,10 +4436,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
@@ -4337,10 +4447,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
@@ -4351,10 +4461,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
@@ -4362,10 +4472,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -4376,10 +4486,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
@@ -4390,10 +4500,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -4401,10 +4511,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -4415,10 +4525,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -4429,10 +4539,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -4440,10 +4550,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -4454,10 +4564,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -4465,10 +4575,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -4476,10 +4586,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -4487,10 +4597,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -4501,10 +4611,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -4515,10 +4625,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -4529,10 +4639,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -4540,10 +4650,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -4551,10 +4661,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -4565,10 +4675,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -4576,10 +4686,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -4590,10 +4700,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -4601,10 +4711,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
@@ -4612,10 +4722,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
@@ -4623,10 +4733,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
@@ -4634,10 +4744,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
@@ -4645,10 +4755,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
@@ -4656,10 +4766,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -4667,10 +4777,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -4678,10 +4788,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4689,10 +4799,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
@@ -4703,10 +4813,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
@@ -4717,10 +4827,10 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
@@ -4731,10 +4841,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
@@ -4745,10 +4855,10 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
@@ -4759,10 +4869,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
@@ -4773,10 +4883,10 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
@@ -4787,10 +4897,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
@@ -4798,10 +4908,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
@@ -4809,10 +4919,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -4820,10 +4930,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
@@ -4831,10 +4941,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
@@ -4842,10 +4952,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4856,10 +4966,10 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -4870,10 +4980,10 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -4884,10 +4994,10 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -4898,10 +5008,10 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
@@ -4912,10 +5022,10 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -4926,10 +5036,10 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -4940,10 +5050,10 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -4954,10 +5064,10 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
@@ -4968,10 +5078,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
@@ -4982,10 +5092,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
@@ -4996,10 +5106,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
@@ -5010,10 +5120,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
@@ -5024,10 +5134,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
@@ -5038,10 +5148,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
@@ -5052,10 +5162,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="2" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
@@ -5063,10 +5173,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="2" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
@@ -5074,10 +5184,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="2" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
@@ -5085,10 +5195,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
@@ -5096,10 +5206,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
@@ -5110,10 +5220,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
@@ -5124,10 +5234,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
@@ -5138,10 +5248,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
@@ -5152,10 +5262,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
@@ -5166,10 +5276,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
@@ -5180,10 +5290,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
@@ -5191,10 +5301,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
@@ -5205,10 +5315,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="2" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
@@ -5216,10 +5326,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
@@ -5227,10 +5337,10 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
@@ -5241,10 +5351,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
@@ -5252,10 +5362,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
@@ -5263,10 +5373,10 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
@@ -5277,10 +5387,10 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
@@ -5291,10 +5401,10 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
@@ -5305,10 +5415,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="2" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
@@ -5316,10 +5426,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="2" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
@@ -5327,10 +5437,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
@@ -5338,10 +5448,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="2" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
@@ -5349,10 +5459,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="2" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
@@ -5360,10 +5470,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="2" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
@@ -5371,10 +5481,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="2" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
@@ -5382,10 +5492,10 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
@@ -5396,10 +5506,10 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
@@ -5410,10 +5520,10 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
@@ -5424,10 +5534,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="2" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
@@ -5435,10 +5545,10 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
@@ -5449,10 +5559,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="2" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
@@ -5460,10 +5570,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="2" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
@@ -5471,10 +5581,10 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
@@ -5485,10 +5595,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="2" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
@@ -5496,10 +5606,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="2" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
@@ -5507,10 +5617,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="2" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
@@ -5518,10 +5628,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="2" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
@@ -5529,10 +5639,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="2" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
@@ -5540,10 +5650,10 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
@@ -5554,10 +5664,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="2" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
@@ -5565,10 +5675,10 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
@@ -5579,10 +5689,10 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
@@ -5593,10 +5703,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="2" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
@@ -5604,10 +5714,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="2" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>9</v>
@@ -5615,10 +5725,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="2" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>9</v>
@@ -5626,10 +5736,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="2" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>9</v>
@@ -5637,10 +5747,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="2" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
@@ -5648,10 +5758,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
@@ -5659,10 +5769,10 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
@@ -5673,10 +5783,10 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>9</v>
@@ -5687,10 +5797,10 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>9</v>
@@ -5701,10 +5811,10 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>9</v>
@@ -5715,10 +5825,10 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>9</v>
@@ -5729,10 +5839,10 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>9</v>
@@ -5743,10 +5853,10 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>9</v>
@@ -5757,10 +5867,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>9</v>
@@ -5768,10 +5878,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="2" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>9</v>
@@ -5779,10 +5889,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>9</v>
@@ -5790,10 +5900,10 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>9</v>
@@ -5801,10 +5911,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
@@ -5812,10 +5922,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="2" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>9</v>
@@ -5823,10 +5933,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="2" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>9</v>
@@ -5834,10 +5944,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>9</v>
@@ -5845,10 +5955,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="2" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>9</v>
@@ -5856,10 +5966,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="2" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>9</v>
@@ -5867,10 +5977,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="2" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>9</v>
@@ -5878,10 +5988,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="2" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>9</v>
@@ -5889,10 +5999,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="2" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>9</v>
@@ -5900,10 +6010,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="2" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>9</v>
@@ -5911,10 +6021,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="2" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>9</v>
@@ -5922,10 +6032,10 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="2" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>9</v>
@@ -5933,10 +6043,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="2" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>9</v>
@@ -5944,10 +6054,10 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="2" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>9</v>
@@ -5955,10 +6065,10 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="2" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>9</v>
@@ -5966,10 +6076,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="2" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>9</v>
@@ -5977,10 +6087,10 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="2" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>9</v>
@@ -5988,10 +6098,10 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="2" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>9</v>
@@ -5999,10 +6109,10 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="2" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>9</v>
@@ -6010,10 +6120,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="2" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>9</v>
@@ -6021,10 +6131,10 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="2" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>9</v>
@@ -6032,10 +6142,10 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="2" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>9</v>
@@ -6043,10 +6153,10 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="2" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>9</v>
@@ -6054,10 +6164,10 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="2" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>9</v>
@@ -6065,10 +6175,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="2" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>9</v>
@@ -6076,10 +6186,10 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="2" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>9</v>
@@ -6087,10 +6197,10 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="2" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>9</v>
@@ -6098,10 +6208,10 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="2" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>9</v>
@@ -6109,10 +6219,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="2" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>9</v>
@@ -6120,10 +6230,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="2" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>9</v>
@@ -6131,10 +6241,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="2" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>9</v>
@@ -6142,10 +6252,10 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="2" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>9</v>
@@ -6153,10 +6263,10 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="2" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>9</v>
@@ -6164,10 +6274,10 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="2" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>9</v>
@@ -6175,10 +6285,10 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="2" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>9</v>
@@ -6186,10 +6296,10 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="2" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>9</v>
@@ -6197,10 +6307,10 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="2" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>9</v>
@@ -6208,10 +6318,10 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="2" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>9</v>
@@ -6219,10 +6329,10 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="2" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>9</v>
@@ -6230,10 +6340,10 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="2" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>9</v>
@@ -6241,10 +6351,10 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="2" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>9</v>
@@ -6252,10 +6362,10 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="2" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>9</v>
@@ -6263,10 +6373,10 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="2" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>9</v>
@@ -6274,10 +6384,10 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="2" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>9</v>
@@ -6285,10 +6395,10 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="2" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>9</v>
@@ -6296,10 +6406,10 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="2" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>9</v>
@@ -6307,10 +6417,10 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="2" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>9</v>
@@ -6318,10 +6428,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="2" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>9</v>
@@ -6329,10 +6439,10 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="2" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>9</v>
@@ -6340,10 +6450,10 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="2" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>9</v>
@@ -6351,10 +6461,10 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="2" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>9</v>
@@ -6362,10 +6472,10 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="2" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>9</v>
@@ -6373,10 +6483,10 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="2" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>9</v>
@@ -6384,10 +6494,10 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="2" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>9</v>
@@ -6395,10 +6505,10 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="2" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>9</v>
@@ -6406,10 +6516,10 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="2" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>9</v>
@@ -6417,10 +6527,10 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="2" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>9</v>
@@ -6428,10 +6538,10 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="2" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>9</v>
@@ -6439,10 +6549,10 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="2" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>9</v>
@@ -6450,10 +6560,10 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="2" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>9</v>
@@ -6461,10 +6571,10 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="2" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>9</v>
@@ -6472,10 +6582,10 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="2" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>9</v>
@@ -6483,10 +6593,10 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="2" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>9</v>
@@ -6494,10 +6604,10 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="2" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>9</v>
@@ -6505,10 +6615,10 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="2" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>9</v>
@@ -6516,10 +6626,10 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="2" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>9</v>
@@ -6527,10 +6637,10 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="2" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>9</v>
@@ -6538,10 +6648,10 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="2" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>9</v>
@@ -6549,10 +6659,10 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="2" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>9</v>
@@ -6560,10 +6670,10 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="2" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>9</v>
@@ -6571,10 +6681,10 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="2" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>9</v>
@@ -6582,10 +6692,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="2" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>9</v>
@@ -6593,10 +6703,10 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="2" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>9</v>
@@ -6604,10 +6714,10 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="2" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>9</v>
@@ -6615,10 +6725,10 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>9</v>
@@ -6629,10 +6739,10 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>9</v>
@@ -6643,10 +6753,10 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="2" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>9</v>
@@ -6654,10 +6764,10 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="2" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>9</v>
@@ -6665,10 +6775,10 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="2" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>9</v>
@@ -6676,10 +6786,10 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="2" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>9</v>
@@ -6687,10 +6797,10 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>9</v>
@@ -6701,10 +6811,10 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="2" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>9</v>
@@ -6712,10 +6822,10 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="2" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>9</v>
@@ -6723,10 +6833,10 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="2" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>9</v>
@@ -6734,10 +6844,10 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="2" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>9</v>
@@ -6745,10 +6855,10 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="2" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>9</v>
@@ -6756,10 +6866,10 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="2" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>9</v>
@@ -6767,10 +6877,10 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="2" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>9</v>
@@ -6778,10 +6888,10 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="2" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>9</v>
@@ -6789,10 +6899,10 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="2" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>9</v>
@@ -6800,10 +6910,10 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="2" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>9</v>
@@ -6811,10 +6921,10 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="2" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>9</v>
@@ -6822,10 +6932,10 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>9</v>
@@ -6836,10 +6946,10 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="2" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>9</v>
@@ -6847,10 +6957,10 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="2" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>9</v>
@@ -6858,10 +6968,10 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="2" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>9</v>
@@ -6869,10 +6979,10 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="2" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>9</v>
@@ -6880,10 +6990,10 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="2" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>9</v>
@@ -6891,10 +7001,10 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="2" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>9</v>
@@ -6902,10 +7012,10 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="2" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>9</v>
@@ -6913,10 +7023,10 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="2" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>9</v>
@@ -6924,10 +7034,10 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>9</v>
@@ -6938,10 +7048,10 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="2" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>9</v>
@@ -6949,10 +7059,10 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="2" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>9</v>
@@ -6960,10 +7070,10 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="2" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>9</v>
@@ -6971,10 +7081,10 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="2" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>9</v>
@@ -6982,10 +7092,10 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="2" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>9</v>
@@ -6993,10 +7103,10 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="2" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>9</v>
@@ -7004,10 +7114,10 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="2" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>9</v>
@@ -7015,10 +7125,10 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="2" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>9</v>
@@ -7026,10 +7136,10 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="2" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>9</v>
@@ -7037,10 +7147,10 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="2" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>9</v>
@@ -7048,10 +7158,10 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="2" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>9</v>
@@ -7059,10 +7169,10 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>9</v>
@@ -7073,10 +7183,10 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="2" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>9</v>
@@ -7084,10 +7194,10 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="2" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>9</v>
@@ -7095,10 +7205,10 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="2" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>9</v>
@@ -7106,10 +7216,10 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>9</v>
@@ -7120,10 +7230,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="2" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>9</v>
@@ -7131,10 +7241,10 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>9</v>
@@ -7145,10 +7255,10 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>9</v>
@@ -7159,10 +7269,10 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="2" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>9</v>
@@ -7170,10 +7280,10 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="2" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>9</v>
@@ -7181,10 +7291,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="2" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>9</v>
@@ -7192,10 +7302,10 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="2" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>9</v>
@@ -7203,10 +7313,10 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="2" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>9</v>
@@ -7214,10 +7324,10 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="2" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>9</v>
@@ -7225,10 +7335,10 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="2" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>9</v>
@@ -7236,10 +7346,10 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="2" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>9</v>
@@ -7247,10 +7357,10 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="2" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>9</v>
@@ -7258,10 +7368,10 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="2" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>9</v>
@@ -7269,10 +7379,10 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="2" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>9</v>
@@ -7280,10 +7390,10 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="2" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>9</v>
@@ -7291,10 +7401,10 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="2" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>9</v>
@@ -7302,10 +7412,10 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="2" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>9</v>
@@ -7313,10 +7423,10 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="2" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>9</v>
@@ -7324,10 +7434,10 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="2" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>9</v>
@@ -7335,10 +7445,10 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="2" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>9</v>
@@ -7346,10 +7456,10 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="2" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>9</v>
@@ -7357,10 +7467,10 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="2" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>9</v>
@@ -7368,10 +7478,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="2" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>9</v>
@@ -7379,10 +7489,10 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="2" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>9</v>
@@ -7390,10 +7500,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="2" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>9</v>
@@ -7401,10 +7511,10 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="2" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>9</v>
@@ -7412,10 +7522,10 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="2" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>9</v>
@@ -7423,10 +7533,10 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="2" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>9</v>
@@ -7434,10 +7544,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="2" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>9</v>
@@ -7445,10 +7555,10 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="2" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>9</v>
@@ -7456,10 +7566,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="2" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>9</v>
@@ -7467,10 +7577,10 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="2" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>9</v>
@@ -7481,10 +7591,10 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="2" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>9</v>
@@ -7492,10 +7602,10 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="2" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>9</v>
@@ -7503,10 +7613,10 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="2" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>9</v>
@@ -7514,10 +7624,10 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="2" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>9</v>
@@ -7525,10 +7635,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="2" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>9</v>
@@ -7536,10 +7646,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="2" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>9</v>
@@ -7547,10 +7657,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="2" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>9</v>
@@ -7558,10 +7668,10 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="2" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>9</v>
@@ -7569,10 +7679,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="2" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>9</v>
@@ -7580,10 +7690,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="2" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>9</v>
@@ -7591,10 +7701,10 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="2" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>9</v>
@@ -7602,10 +7712,10 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="2" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>9</v>
@@ -7613,10 +7723,10 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="2" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>9</v>
@@ -7624,10 +7734,10 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="2" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>9</v>
@@ -7635,10 +7745,10 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="2" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>9</v>
@@ -7646,10 +7756,10 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="2" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>9</v>
@@ -7657,10 +7767,10 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="2" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>9</v>
@@ -7668,10 +7778,10 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="2" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>9</v>
@@ -7679,10 +7789,10 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="2" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>9</v>
@@ -7690,10 +7800,10 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="2" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>9</v>
@@ -7701,10 +7811,10 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="2" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>9</v>
@@ -7712,10 +7822,10 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="2" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>9</v>
@@ -7723,10 +7833,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="2" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>9</v>
@@ -7734,10 +7844,10 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="2" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>9</v>
@@ -7745,10 +7855,10 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="2" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>9</v>
@@ -7756,10 +7866,10 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="2" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>9</v>
@@ -7767,10 +7877,10 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="2" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>9</v>
@@ -7778,10 +7888,10 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="2" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>9</v>
@@ -7789,10 +7899,10 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="2" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>9</v>
@@ -7800,10 +7910,10 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="2" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>9</v>
@@ -7811,10 +7921,10 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="2" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>9</v>
@@ -7825,10 +7935,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="2" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>9</v>
@@ -7836,10 +7946,10 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="2" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>9</v>
@@ -7847,10 +7957,10 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="2" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>9</v>
@@ -7858,10 +7968,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="2" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>9</v>
@@ -7869,10 +7979,10 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="2" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>9</v>
@@ -7880,10 +7990,10 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="2" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>9</v>
@@ -7891,10 +8001,10 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="2" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>9</v>
@@ -7902,10 +8012,10 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="2" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>9</v>
@@ -7913,10 +8023,10 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="2" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>9</v>
@@ -7924,10 +8034,10 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="2" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>9</v>
@@ -7935,10 +8045,10 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="2" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>9</v>
@@ -7946,10 +8056,10 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="2" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>9</v>
@@ -7957,10 +8067,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="2" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>9</v>
@@ -7968,10 +8078,10 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="2" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>9</v>
@@ -7979,10 +8089,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="2" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>9</v>
@@ -7990,10 +8100,10 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="2" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>9</v>
@@ -8001,10 +8111,10 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="2" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>9</v>
@@ -8012,10 +8122,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="2" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>9</v>
@@ -8023,10 +8133,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="2" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>9</v>
@@ -8034,10 +8144,10 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="2" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>9</v>
@@ -8045,10 +8155,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="2" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>9</v>
@@ -8056,10 +8166,10 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="2" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>9</v>
@@ -8070,10 +8180,10 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="2" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>9</v>
@@ -8084,10 +8194,10 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="2" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>9</v>
@@ -8095,10 +8205,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="2" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>9</v>
@@ -8106,10 +8216,10 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="2" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>9</v>
@@ -8120,10 +8230,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="2" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>9</v>
@@ -8131,10 +8241,10 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="2" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>9</v>
@@ -8142,10 +8252,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="2" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>9</v>
@@ -8153,10 +8263,10 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="2" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>9</v>
@@ -8164,10 +8274,10 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="2" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>9</v>
@@ -8175,10 +8285,10 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="2" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>9</v>
@@ -8186,10 +8296,10 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="2" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>9</v>
@@ -8197,10 +8307,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="2" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>9</v>
@@ -8208,10 +8318,10 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="2" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>9</v>
@@ -8222,10 +8332,10 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="2" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>9</v>
@@ -8236,10 +8346,10 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="2" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>9</v>
@@ -8272,6 +8382,14 @@
     <hyperlink ref="H43" r:id="rId21" display="https://www.hbynet.net/html/heqing/index.html"/>
     <hyperlink ref="H54" r:id="rId22" display="http://www.sxgov.cn/index.htm"/>
     <hyperlink ref="H55" r:id="rId23" display="http://www.sxrb.com/"/>
+    <hyperlink ref="H56" r:id="rId24" display="http://epaper.sxrb.com/index.shtml" tooltip="http://epaper.sxrb.com/index.shtml"/>
+    <hyperlink ref="H57" r:id="rId25" display="https://www.sxwbs.com/"/>
+    <hyperlink ref="H58" r:id="rId26" display="http://www.tynews.com.cn/"/>
+    <hyperlink ref="H59" r:id="rId27" display="http://www.dtnews.cn/"/>
+    <hyperlink ref="H60" r:id="rId28" display="http://www.changzhinews.com/" tooltip="http://www.changzhinews.com/"/>
+    <hyperlink ref="E60" r:id="rId29" display="长治要闻" tooltip="http://www.changzhinews.com/changzhi/jinritoutiao/"/>
+    <hyperlink ref="H62" r:id="rId30" display="http://www.jcnews.com.cn/"/>
+    <hyperlink ref="H63" r:id="rId31" display="http://www.sxycrb.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Doc/lin.xlsx
+++ b/Doc/lin.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="533">
   <si>
     <t>media_name</t>
   </si>
@@ -456,10 +456,16 @@
     <t>运城新闻网</t>
   </si>
   <si>
+    <t>焦点新闻 要闻 经济 国内  国际</t>
+  </si>
+  <si>
     <t>http://www.sxycrb.com/</t>
   </si>
   <si>
     <t>临汾新闻网</t>
+  </si>
+  <si>
+    <t>http://www.lfxww.com/</t>
   </si>
   <si>
     <t>朔州新闻网</t>
@@ -2656,7 +2662,7 @@
   <dimension ref="A1:I454"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3738,30 +3744,39 @@
       <c r="D63">
         <v>1</v>
       </c>
+      <c r="E63" t="s">
+        <v>134</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
       <c r="H63" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64">
         <v>1</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
@@ -3772,10 +3787,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
@@ -3786,10 +3801,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
@@ -3800,10 +3815,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
@@ -3811,10 +3826,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
@@ -3822,10 +3837,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
@@ -3833,10 +3848,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
@@ -3844,10 +3859,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
@@ -3855,10 +3870,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
@@ -3866,10 +3881,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -3877,10 +3892,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -3888,10 +3903,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -3899,10 +3914,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -3913,10 +3928,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -3927,10 +3942,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -3941,10 +3956,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -3952,10 +3967,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -3963,10 +3978,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -3977,10 +3992,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -3991,10 +4006,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -4002,10 +4017,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -4016,10 +4031,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -4030,10 +4045,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
@@ -4044,10 +4059,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -4055,10 +4070,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
@@ -4066,10 +4081,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
@@ -4077,10 +4092,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
@@ -4088,10 +4103,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -4102,10 +4117,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
@@ -4116,10 +4131,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -4130,10 +4145,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -4141,10 +4156,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -4152,10 +4167,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -4163,10 +4178,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -4177,10 +4192,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -4191,10 +4206,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -4205,10 +4220,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -4219,10 +4234,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -4233,10 +4248,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -4244,10 +4259,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -4258,10 +4273,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -4272,10 +4287,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -4286,10 +4301,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -4297,10 +4312,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -4311,10 +4326,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -4325,10 +4340,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -4336,10 +4351,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
@@ -4347,10 +4362,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
@@ -4358,10 +4373,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
@@ -4372,10 +4387,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -4386,10 +4401,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -4400,10 +4415,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -4411,10 +4426,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -4425,10 +4440,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -4436,10 +4451,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
@@ -4447,10 +4462,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
@@ -4461,10 +4476,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
@@ -4472,10 +4487,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -4486,10 +4501,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
@@ -4500,10 +4515,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -4511,10 +4526,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -4525,10 +4540,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -4539,10 +4554,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -4550,10 +4565,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -4564,10 +4579,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -4575,10 +4590,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -4586,10 +4601,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -4597,10 +4612,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -4611,10 +4626,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -4625,10 +4640,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -4639,10 +4654,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -4650,10 +4665,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -4661,10 +4676,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -4675,10 +4690,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -4686,10 +4701,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -4700,10 +4715,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -4711,10 +4726,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
@@ -4722,10 +4737,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
@@ -4733,10 +4748,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
@@ -4744,10 +4759,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
@@ -4755,10 +4770,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
@@ -4766,10 +4781,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -4777,10 +4792,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -4788,10 +4803,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4799,10 +4814,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
@@ -4813,10 +4828,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
@@ -4827,10 +4842,10 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
@@ -4841,10 +4856,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
@@ -4855,10 +4870,10 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
@@ -4869,10 +4884,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
@@ -4883,10 +4898,10 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
@@ -4897,10 +4912,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
@@ -4908,10 +4923,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
@@ -4919,10 +4934,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -4930,10 +4945,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
@@ -4941,10 +4956,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
@@ -4952,10 +4967,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4966,10 +4981,10 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -4980,10 +4995,10 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -4994,10 +5009,10 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -5008,10 +5023,10 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
@@ -5022,10 +5037,10 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -5036,10 +5051,10 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -5050,10 +5065,10 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -5064,10 +5079,10 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
@@ -5078,10 +5093,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
@@ -5092,10 +5107,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
@@ -5106,10 +5121,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
@@ -5120,10 +5135,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
@@ -5134,10 +5149,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
@@ -5148,10 +5163,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
@@ -5162,10 +5177,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
@@ -5173,10 +5188,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
@@ -5184,10 +5199,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
@@ -5195,10 +5210,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
@@ -5206,10 +5221,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
@@ -5220,10 +5235,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
@@ -5234,10 +5249,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
@@ -5248,10 +5263,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
@@ -5262,10 +5277,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
@@ -5276,10 +5291,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
@@ -5290,10 +5305,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
@@ -5301,10 +5316,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
@@ -5315,10 +5330,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
@@ -5326,10 +5341,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
@@ -5337,10 +5352,10 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
@@ -5351,10 +5366,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
@@ -5362,10 +5377,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
@@ -5373,10 +5388,10 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
@@ -5387,10 +5402,10 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
@@ -5401,10 +5416,10 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
@@ -5415,10 +5430,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
@@ -5426,10 +5441,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
@@ -5437,10 +5452,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
@@ -5448,10 +5463,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
@@ -5459,10 +5474,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
@@ -5470,10 +5485,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
@@ -5481,10 +5496,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
@@ -5492,10 +5507,10 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
@@ -5506,10 +5521,10 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
@@ -5520,10 +5535,10 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
@@ -5534,10 +5549,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
@@ -5545,10 +5560,10 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
@@ -5559,10 +5574,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
@@ -5570,10 +5585,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
@@ -5581,10 +5596,10 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
@@ -5595,10 +5610,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
@@ -5606,10 +5621,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
@@ -5617,10 +5632,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
@@ -5628,10 +5643,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
@@ -5639,10 +5654,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
@@ -5650,10 +5665,10 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
@@ -5664,10 +5679,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
@@ -5675,10 +5690,10 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
@@ -5689,10 +5704,10 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
@@ -5703,10 +5718,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
@@ -5714,10 +5729,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>9</v>
@@ -5725,10 +5740,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>9</v>
@@ -5736,10 +5751,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>9</v>
@@ -5747,10 +5762,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
@@ -5758,10 +5773,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
@@ -5769,10 +5784,10 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
@@ -5783,10 +5798,10 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>9</v>
@@ -5797,10 +5812,10 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>9</v>
@@ -5811,10 +5826,10 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>9</v>
@@ -5825,10 +5840,10 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>9</v>
@@ -5839,10 +5854,10 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>9</v>
@@ -5853,10 +5868,10 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>9</v>
@@ -5867,10 +5882,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>9</v>
@@ -5878,10 +5893,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>9</v>
@@ -5889,10 +5904,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>9</v>
@@ -5900,10 +5915,10 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>9</v>
@@ -5911,10 +5926,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
@@ -5922,10 +5937,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>9</v>
@@ -5933,10 +5948,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>9</v>
@@ -5944,10 +5959,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>9</v>
@@ -5955,10 +5970,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>9</v>
@@ -5966,10 +5981,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>9</v>
@@ -5977,10 +5992,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>9</v>
@@ -5988,10 +6003,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>9</v>
@@ -5999,10 +6014,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>9</v>
@@ -6010,10 +6025,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>9</v>
@@ -6021,10 +6036,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>9</v>
@@ -6032,10 +6047,10 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>9</v>
@@ -6043,10 +6058,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>9</v>
@@ -6054,10 +6069,10 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>9</v>
@@ -6065,10 +6080,10 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>9</v>
@@ -6076,10 +6091,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>9</v>
@@ -6087,10 +6102,10 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>9</v>
@@ -6098,10 +6113,10 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>9</v>
@@ -6109,10 +6124,10 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>9</v>
@@ -6120,10 +6135,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>9</v>
@@ -6131,10 +6146,10 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>9</v>
@@ -6142,10 +6157,10 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>9</v>
@@ -6153,10 +6168,10 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>9</v>
@@ -6164,10 +6179,10 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>9</v>
@@ -6175,10 +6190,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>9</v>
@@ -6186,10 +6201,10 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>9</v>
@@ -6197,10 +6212,10 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>9</v>
@@ -6208,10 +6223,10 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>9</v>
@@ -6219,10 +6234,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>9</v>
@@ -6230,10 +6245,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>9</v>
@@ -6241,10 +6256,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>9</v>
@@ -6252,10 +6267,10 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>9</v>
@@ -6263,10 +6278,10 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>9</v>
@@ -6274,10 +6289,10 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>9</v>
@@ -6285,10 +6300,10 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>9</v>
@@ -6296,10 +6311,10 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>9</v>
@@ -6307,10 +6322,10 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>9</v>
@@ -6318,10 +6333,10 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>9</v>
@@ -6329,10 +6344,10 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>9</v>
@@ -6340,10 +6355,10 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>9</v>
@@ -6351,10 +6366,10 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>9</v>
@@ -6362,10 +6377,10 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>9</v>
@@ -6373,10 +6388,10 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>9</v>
@@ -6384,10 +6399,10 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>9</v>
@@ -6395,10 +6410,10 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>9</v>
@@ -6406,10 +6421,10 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>9</v>
@@ -6417,10 +6432,10 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>9</v>
@@ -6428,10 +6443,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>9</v>
@@ -6439,10 +6454,10 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>9</v>
@@ -6450,10 +6465,10 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>9</v>
@@ -6461,10 +6476,10 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>9</v>
@@ -6472,10 +6487,10 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>9</v>
@@ -6483,10 +6498,10 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>9</v>
@@ -6494,10 +6509,10 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>9</v>
@@ -6505,10 +6520,10 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>9</v>
@@ -6516,10 +6531,10 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>9</v>
@@ -6527,10 +6542,10 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>9</v>
@@ -6538,10 +6553,10 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>9</v>
@@ -6549,10 +6564,10 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>9</v>
@@ -6560,10 +6575,10 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>9</v>
@@ -6571,10 +6586,10 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>9</v>
@@ -6582,10 +6597,10 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>9</v>
@@ -6593,10 +6608,10 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>9</v>
@@ -6604,10 +6619,10 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>9</v>
@@ -6615,10 +6630,10 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>9</v>
@@ -6626,10 +6641,10 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>9</v>
@@ -6637,10 +6652,10 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>9</v>
@@ -6648,10 +6663,10 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>9</v>
@@ -6659,10 +6674,10 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>9</v>
@@ -6670,10 +6685,10 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>9</v>
@@ -6681,10 +6696,10 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>9</v>
@@ -6692,10 +6707,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>9</v>
@@ -6703,10 +6718,10 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>9</v>
@@ -6714,10 +6729,10 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>9</v>
@@ -6725,10 +6740,10 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>9</v>
@@ -6739,10 +6754,10 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>9</v>
@@ -6753,10 +6768,10 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>9</v>
@@ -6764,10 +6779,10 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>9</v>
@@ -6775,10 +6790,10 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>9</v>
@@ -6786,10 +6801,10 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>9</v>
@@ -6797,10 +6812,10 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>9</v>
@@ -6811,10 +6826,10 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>9</v>
@@ -6822,10 +6837,10 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>9</v>
@@ -6833,10 +6848,10 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>9</v>
@@ -6844,10 +6859,10 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>9</v>
@@ -6855,10 +6870,10 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>9</v>
@@ -6866,10 +6881,10 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>9</v>
@@ -6877,10 +6892,10 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>9</v>
@@ -6888,10 +6903,10 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>9</v>
@@ -6899,10 +6914,10 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>9</v>
@@ -6910,10 +6925,10 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>9</v>
@@ -6921,10 +6936,10 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>9</v>
@@ -6932,10 +6947,10 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>9</v>
@@ -6946,10 +6961,10 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>9</v>
@@ -6957,10 +6972,10 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>9</v>
@@ -6968,10 +6983,10 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>9</v>
@@ -6979,10 +6994,10 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>9</v>
@@ -6990,10 +7005,10 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>9</v>
@@ -7001,10 +7016,10 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>9</v>
@@ -7012,10 +7027,10 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>9</v>
@@ -7023,10 +7038,10 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>9</v>
@@ -7034,10 +7049,10 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>9</v>
@@ -7048,10 +7063,10 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>9</v>
@@ -7059,10 +7074,10 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>9</v>
@@ -7070,10 +7085,10 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>9</v>
@@ -7081,10 +7096,10 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>9</v>
@@ -7092,10 +7107,10 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>9</v>
@@ -7103,10 +7118,10 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>9</v>
@@ -7114,10 +7129,10 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>9</v>
@@ -7125,10 +7140,10 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>9</v>
@@ -7136,10 +7151,10 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>9</v>
@@ -7147,10 +7162,10 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>9</v>
@@ -7158,10 +7173,10 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>9</v>
@@ -7169,10 +7184,10 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>9</v>
@@ -7183,10 +7198,10 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>9</v>
@@ -7194,10 +7209,10 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>9</v>
@@ -7205,10 +7220,10 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>9</v>
@@ -7216,10 +7231,10 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>9</v>
@@ -7230,10 +7245,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>9</v>
@@ -7241,10 +7256,10 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>9</v>
@@ -7255,10 +7270,10 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>9</v>
@@ -7269,10 +7284,10 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>9</v>
@@ -7280,10 +7295,10 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>9</v>
@@ -7291,10 +7306,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>9</v>
@@ -7302,10 +7317,10 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>9</v>
@@ -7313,10 +7328,10 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>9</v>
@@ -7324,10 +7339,10 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>9</v>
@@ -7335,10 +7350,10 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>9</v>
@@ -7346,10 +7361,10 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>9</v>
@@ -7357,10 +7372,10 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>9</v>
@@ -7368,10 +7383,10 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>9</v>
@@ -7379,10 +7394,10 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>9</v>
@@ -7390,10 +7405,10 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>9</v>
@@ -7401,10 +7416,10 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>9</v>
@@ -7412,10 +7427,10 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>9</v>
@@ -7423,10 +7438,10 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>9</v>
@@ -7434,10 +7449,10 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>9</v>
@@ -7445,10 +7460,10 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>9</v>
@@ -7456,10 +7471,10 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>9</v>
@@ -7467,10 +7482,10 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>9</v>
@@ -7478,10 +7493,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>9</v>
@@ -7489,10 +7504,10 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>9</v>
@@ -7500,10 +7515,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>9</v>
@@ -7511,10 +7526,10 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>9</v>
@@ -7522,10 +7537,10 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>9</v>
@@ -7533,10 +7548,10 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>9</v>
@@ -7544,10 +7559,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>9</v>
@@ -7555,10 +7570,10 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>9</v>
@@ -7566,10 +7581,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>9</v>
@@ -7577,10 +7592,10 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>9</v>
@@ -7591,10 +7606,10 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>9</v>
@@ -7602,10 +7617,10 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>9</v>
@@ -7613,10 +7628,10 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>9</v>
@@ -7624,10 +7639,10 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>9</v>
@@ -7635,10 +7650,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>9</v>
@@ -7646,10 +7661,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>9</v>
@@ -7657,10 +7672,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>9</v>
@@ -7668,10 +7683,10 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>9</v>
@@ -7679,10 +7694,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>9</v>
@@ -7690,10 +7705,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>9</v>
@@ -7701,10 +7716,10 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>9</v>
@@ -7712,10 +7727,10 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>9</v>
@@ -7723,10 +7738,10 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>9</v>
@@ -7734,10 +7749,10 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>9</v>
@@ -7745,10 +7760,10 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>9</v>
@@ -7756,10 +7771,10 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>9</v>
@@ -7767,10 +7782,10 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>9</v>
@@ -7778,10 +7793,10 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>9</v>
@@ -7789,10 +7804,10 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>9</v>
@@ -7800,10 +7815,10 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>9</v>
@@ -7811,10 +7826,10 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>9</v>
@@ -7822,10 +7837,10 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>9</v>
@@ -7833,10 +7848,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>9</v>
@@ -7844,10 +7859,10 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>9</v>
@@ -7855,10 +7870,10 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>9</v>
@@ -7866,10 +7881,10 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>9</v>
@@ -7877,10 +7892,10 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>9</v>
@@ -7888,10 +7903,10 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>9</v>
@@ -7899,10 +7914,10 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>9</v>
@@ -7910,10 +7925,10 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>9</v>
@@ -7921,10 +7936,10 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>9</v>
@@ -7935,10 +7950,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>9</v>
@@ -7946,10 +7961,10 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>9</v>
@@ -7957,10 +7972,10 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>9</v>
@@ -7968,10 +7983,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>9</v>
@@ -7979,10 +7994,10 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>9</v>
@@ -7990,10 +8005,10 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>9</v>
@@ -8001,10 +8016,10 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>9</v>
@@ -8012,10 +8027,10 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>9</v>
@@ -8023,10 +8038,10 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>9</v>
@@ -8034,10 +8049,10 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>9</v>
@@ -8045,10 +8060,10 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>9</v>
@@ -8056,10 +8071,10 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>9</v>
@@ -8067,10 +8082,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>9</v>
@@ -8078,10 +8093,10 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>9</v>
@@ -8089,10 +8104,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>9</v>
@@ -8100,10 +8115,10 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>9</v>
@@ -8111,10 +8126,10 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>9</v>
@@ -8122,10 +8137,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>9</v>
@@ -8133,10 +8148,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>9</v>
@@ -8144,10 +8159,10 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>9</v>
@@ -8155,10 +8170,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>9</v>
@@ -8166,10 +8181,10 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>9</v>
@@ -8180,10 +8195,10 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>9</v>
@@ -8194,10 +8209,10 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>9</v>
@@ -8205,10 +8220,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>9</v>
@@ -8216,10 +8231,10 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>9</v>
@@ -8230,10 +8245,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>9</v>
@@ -8241,10 +8256,10 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>9</v>
@@ -8252,10 +8267,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>9</v>
@@ -8263,10 +8278,10 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>9</v>
@@ -8274,10 +8289,10 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>9</v>
@@ -8285,10 +8300,10 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>9</v>
@@ -8296,10 +8311,10 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>9</v>
@@ -8307,10 +8322,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>9</v>
@@ -8318,10 +8333,10 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>9</v>
@@ -8332,10 +8347,10 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>9</v>
@@ -8346,10 +8361,10 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>9</v>
@@ -8390,6 +8405,7 @@
     <hyperlink ref="E60" r:id="rId29" display="长治要闻" tooltip="http://www.changzhinews.com/changzhi/jinritoutiao/"/>
     <hyperlink ref="H62" r:id="rId30" display="http://www.jcnews.com.cn/"/>
     <hyperlink ref="H63" r:id="rId31" display="http://www.sxycrb.com/"/>
+    <hyperlink ref="H64" r:id="rId32" display="http://www.lfxww.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Doc/lin.xlsx
+++ b/Doc/lin.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="533">
   <si>
     <t>media_name</t>
   </si>
@@ -1827,12 +1827,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2288,7 +2288,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2309,6 +2309,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2662,7 +2665,7 @@
   <dimension ref="A1:I454"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3754,7 +3757,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" ht="15.75" spans="1:8">
       <c r="A64" s="2" t="s">
         <v>136</v>
       </c>
@@ -3765,6 +3768,12 @@
         <v>9</v>
       </c>
       <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G64">
         <v>1</v>
       </c>
       <c r="H64" s="4" t="s">

--- a/Doc/lin.xlsx
+++ b/Doc/lin.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="537">
   <si>
     <t>media_name</t>
   </si>
@@ -471,7 +471,19 @@
     <t>朔州新闻网</t>
   </si>
   <si>
+    <t>要闻 财经 时政</t>
+  </si>
+  <si>
+    <t>http://www.shuozhounews.cn/</t>
+  </si>
+  <si>
     <t>忻州网</t>
+  </si>
+  <si>
+    <t>省政府要闻 忻州要闻</t>
+  </si>
+  <si>
+    <t>https://www.sxxz.gov.cn/</t>
   </si>
   <si>
     <t>吕梁新闻网</t>
@@ -2665,7 +2677,7 @@
   <dimension ref="A1:I454"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3780,7 +3792,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" ht="15.75" spans="1:8">
       <c r="A65" s="2" t="s">
         <v>138</v>
       </c>
@@ -3793,27 +3805,42 @@
       <c r="D65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66">
         <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>142</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
@@ -3824,10 +3851,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
@@ -3835,10 +3862,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
@@ -3846,10 +3873,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
@@ -3857,10 +3884,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
@@ -3868,10 +3895,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
@@ -3879,10 +3906,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
@@ -3890,10 +3917,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -3901,10 +3928,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -3912,10 +3939,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -3923,10 +3950,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -3937,10 +3964,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -3951,10 +3978,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -3965,10 +3992,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -3976,10 +4003,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -3987,10 +4014,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -4001,10 +4028,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -4015,10 +4042,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -4026,10 +4053,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -4040,10 +4067,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -4054,10 +4081,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
@@ -4068,10 +4095,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -4079,10 +4106,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
@@ -4090,10 +4117,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
@@ -4101,10 +4128,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
@@ -4112,10 +4139,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -4126,10 +4153,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
@@ -4140,10 +4167,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -4154,10 +4181,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -4165,10 +4192,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -4176,10 +4203,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -4187,10 +4214,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -4201,10 +4228,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -4215,10 +4242,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -4229,10 +4256,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -4243,10 +4270,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -4257,10 +4284,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -4268,10 +4295,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -4282,10 +4309,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -4296,10 +4323,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -4310,10 +4337,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -4321,10 +4348,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -4335,10 +4362,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -4349,10 +4376,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -4360,10 +4387,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
@@ -4371,10 +4398,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
@@ -4382,10 +4409,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
@@ -4396,10 +4423,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -4410,10 +4437,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -4424,10 +4451,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -4435,10 +4462,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -4449,10 +4476,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -4460,10 +4487,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
@@ -4471,10 +4498,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
@@ -4485,10 +4512,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
@@ -4496,10 +4523,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -4510,10 +4537,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
@@ -4524,10 +4551,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -4535,10 +4562,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -4549,10 +4576,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -4563,10 +4590,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -4574,10 +4601,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -4588,10 +4615,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -4599,10 +4626,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -4610,10 +4637,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -4621,10 +4648,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -4635,10 +4662,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -4649,10 +4676,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -4663,10 +4690,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -4674,10 +4701,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -4685,10 +4712,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -4699,10 +4726,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -4710,10 +4737,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -4724,10 +4751,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -4735,10 +4762,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
@@ -4746,10 +4773,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
@@ -4757,10 +4784,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
@@ -4768,10 +4795,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
@@ -4779,10 +4806,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
@@ -4790,10 +4817,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -4801,10 +4828,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -4812,10 +4839,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4823,10 +4850,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
@@ -4837,10 +4864,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
@@ -4851,10 +4878,10 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
@@ -4865,10 +4892,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
@@ -4879,10 +4906,10 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
@@ -4893,10 +4920,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
@@ -4907,10 +4934,10 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
@@ -4921,10 +4948,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
@@ -4932,10 +4959,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
@@ -4943,10 +4970,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -4954,10 +4981,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
@@ -4965,10 +4992,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
@@ -4976,10 +5003,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4990,10 +5017,10 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -5004,10 +5031,10 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -5018,10 +5045,10 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -5032,10 +5059,10 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
@@ -5046,10 +5073,10 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -5060,10 +5087,10 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -5074,10 +5101,10 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -5088,10 +5115,10 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
@@ -5102,10 +5129,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
@@ -5116,10 +5143,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
@@ -5130,10 +5157,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
@@ -5144,10 +5171,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
@@ -5158,10 +5185,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
@@ -5172,10 +5199,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
@@ -5186,10 +5213,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
@@ -5197,10 +5224,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
@@ -5208,10 +5235,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
@@ -5219,10 +5246,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
@@ -5230,10 +5257,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
@@ -5244,10 +5271,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
@@ -5258,10 +5285,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
@@ -5272,10 +5299,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
@@ -5286,10 +5313,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
@@ -5300,10 +5327,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
@@ -5314,10 +5341,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
@@ -5325,10 +5352,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
@@ -5339,10 +5366,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
@@ -5350,10 +5377,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
@@ -5361,10 +5388,10 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
@@ -5375,10 +5402,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
@@ -5386,10 +5413,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
@@ -5397,10 +5424,10 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
@@ -5411,10 +5438,10 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
@@ -5425,10 +5452,10 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
@@ -5439,10 +5466,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
@@ -5450,10 +5477,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
@@ -5461,10 +5488,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
@@ -5472,10 +5499,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
@@ -5483,10 +5510,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
@@ -5494,10 +5521,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
@@ -5505,10 +5532,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
@@ -5516,10 +5543,10 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
@@ -5530,10 +5557,10 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
@@ -5544,10 +5571,10 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
@@ -5558,10 +5585,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
@@ -5569,10 +5596,10 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
@@ -5583,10 +5610,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
@@ -5594,10 +5621,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
@@ -5605,10 +5632,10 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
@@ -5619,10 +5646,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
@@ -5630,10 +5657,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
@@ -5641,10 +5668,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
@@ -5652,10 +5679,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
@@ -5663,10 +5690,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
@@ -5674,10 +5701,10 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
@@ -5688,10 +5715,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
@@ -5699,10 +5726,10 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
@@ -5713,10 +5740,10 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
@@ -5727,10 +5754,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
@@ -5738,10 +5765,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>9</v>
@@ -5749,10 +5776,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>9</v>
@@ -5760,10 +5787,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>9</v>
@@ -5771,10 +5798,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
@@ -5782,10 +5809,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
@@ -5793,10 +5820,10 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
@@ -5807,10 +5834,10 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>9</v>
@@ -5821,10 +5848,10 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>9</v>
@@ -5835,10 +5862,10 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>9</v>
@@ -5849,10 +5876,10 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>9</v>
@@ -5863,10 +5890,10 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>9</v>
@@ -5877,10 +5904,10 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>9</v>
@@ -5891,10 +5918,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>9</v>
@@ -5902,10 +5929,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>9</v>
@@ -5913,10 +5940,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>9</v>
@@ -5924,10 +5951,10 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>9</v>
@@ -5935,10 +5962,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
@@ -5946,10 +5973,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>9</v>
@@ -5957,10 +5984,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>9</v>
@@ -5968,10 +5995,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>9</v>
@@ -5979,10 +6006,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>9</v>
@@ -5990,10 +6017,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>9</v>
@@ -6001,10 +6028,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>9</v>
@@ -6012,10 +6039,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>9</v>
@@ -6023,10 +6050,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>9</v>
@@ -6034,10 +6061,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>9</v>
@@ -6045,10 +6072,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>9</v>
@@ -6056,10 +6083,10 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="2" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>9</v>
@@ -6067,10 +6094,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>9</v>
@@ -6078,10 +6105,10 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="2" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>9</v>
@@ -6089,10 +6116,10 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>9</v>
@@ -6100,10 +6127,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>9</v>
@@ -6111,10 +6138,10 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>9</v>
@@ -6122,10 +6149,10 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>9</v>
@@ -6133,10 +6160,10 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>9</v>
@@ -6144,10 +6171,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>9</v>
@@ -6155,10 +6182,10 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>9</v>
@@ -6166,10 +6193,10 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>9</v>
@@ -6177,10 +6204,10 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>9</v>
@@ -6188,10 +6215,10 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>9</v>
@@ -6199,10 +6226,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>9</v>
@@ -6210,10 +6237,10 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>9</v>
@@ -6221,10 +6248,10 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>9</v>
@@ -6232,10 +6259,10 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>9</v>
@@ -6243,10 +6270,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>9</v>
@@ -6254,10 +6281,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>9</v>
@@ -6265,10 +6292,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>9</v>
@@ -6276,10 +6303,10 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>9</v>
@@ -6287,10 +6314,10 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>9</v>
@@ -6298,10 +6325,10 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="2" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>9</v>
@@ -6309,10 +6336,10 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="2" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>9</v>
@@ -6320,10 +6347,10 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="2" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>9</v>
@@ -6331,10 +6358,10 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>9</v>
@@ -6342,10 +6369,10 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>9</v>
@@ -6353,10 +6380,10 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="2" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>9</v>
@@ -6364,10 +6391,10 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>9</v>
@@ -6375,10 +6402,10 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>9</v>
@@ -6386,10 +6413,10 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>9</v>
@@ -6397,10 +6424,10 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>9</v>
@@ -6408,10 +6435,10 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="2" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>9</v>
@@ -6419,10 +6446,10 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="2" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>9</v>
@@ -6430,10 +6457,10 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>9</v>
@@ -6441,10 +6468,10 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="2" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>9</v>
@@ -6452,10 +6479,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="2" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>9</v>
@@ -6463,10 +6490,10 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>9</v>
@@ -6474,10 +6501,10 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>9</v>
@@ -6485,10 +6512,10 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>9</v>
@@ -6496,10 +6523,10 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>9</v>
@@ -6507,10 +6534,10 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>9</v>
@@ -6518,10 +6545,10 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="2" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>9</v>
@@ -6529,10 +6556,10 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>9</v>
@@ -6540,10 +6567,10 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>9</v>
@@ -6551,10 +6578,10 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>9</v>
@@ -6562,10 +6589,10 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="2" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>9</v>
@@ -6573,10 +6600,10 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="2" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>9</v>
@@ -6584,10 +6611,10 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>9</v>
@@ -6595,10 +6622,10 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="2" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>9</v>
@@ -6606,10 +6633,10 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="2" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>9</v>
@@ -6617,10 +6644,10 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>9</v>
@@ -6628,10 +6655,10 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="2" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>9</v>
@@ -6639,10 +6666,10 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>9</v>
@@ -6650,10 +6677,10 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="2" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>9</v>
@@ -6661,10 +6688,10 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="2" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>9</v>
@@ -6672,10 +6699,10 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>9</v>
@@ -6683,10 +6710,10 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="2" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>9</v>
@@ -6694,10 +6721,10 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>9</v>
@@ -6705,10 +6732,10 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="2" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>9</v>
@@ -6716,10 +6743,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="2" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>9</v>
@@ -6727,10 +6754,10 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="2" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>9</v>
@@ -6738,10 +6765,10 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="2" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>9</v>
@@ -6749,10 +6776,10 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>9</v>
@@ -6763,10 +6790,10 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>9</v>
@@ -6777,10 +6804,10 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>9</v>
@@ -6788,10 +6815,10 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>9</v>
@@ -6799,10 +6826,10 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>9</v>
@@ -6810,10 +6837,10 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>9</v>
@@ -6821,10 +6848,10 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>9</v>
@@ -6835,10 +6862,10 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="2" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>9</v>
@@ -6846,10 +6873,10 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>9</v>
@@ -6857,10 +6884,10 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="2" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>9</v>
@@ -6868,10 +6895,10 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>9</v>
@@ -6879,10 +6906,10 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>9</v>
@@ -6890,10 +6917,10 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="2" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>9</v>
@@ -6901,10 +6928,10 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="2" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>9</v>
@@ -6912,10 +6939,10 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="2" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>9</v>
@@ -6923,10 +6950,10 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="2" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>9</v>
@@ -6934,10 +6961,10 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="2" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>9</v>
@@ -6945,10 +6972,10 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="2" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>9</v>
@@ -6956,10 +6983,10 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>9</v>
@@ -6970,10 +6997,10 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="2" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>9</v>
@@ -6981,10 +7008,10 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="2" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>9</v>
@@ -6992,10 +7019,10 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>9</v>
@@ -7003,10 +7030,10 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>9</v>
@@ -7014,10 +7041,10 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="2" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>9</v>
@@ -7025,10 +7052,10 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="2" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>9</v>
@@ -7036,10 +7063,10 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="2" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>9</v>
@@ -7047,10 +7074,10 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="2" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>9</v>
@@ -7058,10 +7085,10 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>9</v>
@@ -7072,10 +7099,10 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="2" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>9</v>
@@ -7083,10 +7110,10 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="2" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>9</v>
@@ -7094,10 +7121,10 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="2" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>9</v>
@@ -7105,10 +7132,10 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>9</v>
@@ -7116,10 +7143,10 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="2" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>9</v>
@@ -7127,10 +7154,10 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>9</v>
@@ -7138,10 +7165,10 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="2" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>9</v>
@@ -7149,10 +7176,10 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="2" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>9</v>
@@ -7160,10 +7187,10 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="2" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>9</v>
@@ -7171,10 +7198,10 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="2" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>9</v>
@@ -7182,10 +7209,10 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="2" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>9</v>
@@ -7193,10 +7220,10 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>9</v>
@@ -7207,10 +7234,10 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>9</v>
@@ -7218,10 +7245,10 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="2" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>9</v>
@@ -7229,10 +7256,10 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>9</v>
@@ -7240,10 +7267,10 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>9</v>
@@ -7254,10 +7281,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>9</v>
@@ -7265,10 +7292,10 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>9</v>
@@ -7279,10 +7306,10 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>9</v>
@@ -7293,10 +7320,10 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="2" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>9</v>
@@ -7304,10 +7331,10 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="2" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>9</v>
@@ -7315,10 +7342,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="2" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>9</v>
@@ -7326,10 +7353,10 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="2" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>9</v>
@@ -7337,10 +7364,10 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="2" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>9</v>
@@ -7348,10 +7375,10 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="2" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>9</v>
@@ -7359,10 +7386,10 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="2" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>9</v>
@@ -7370,10 +7397,10 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>9</v>
@@ -7381,10 +7408,10 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>9</v>
@@ -7392,10 +7419,10 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="2" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>9</v>
@@ -7403,10 +7430,10 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>9</v>
@@ -7414,10 +7441,10 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="2" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>9</v>
@@ -7425,10 +7452,10 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="2" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>9</v>
@@ -7436,10 +7463,10 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="2" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>9</v>
@@ -7447,10 +7474,10 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="2" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>9</v>
@@ -7458,10 +7485,10 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>9</v>
@@ -7469,10 +7496,10 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="2" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>9</v>
@@ -7480,10 +7507,10 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="2" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>9</v>
@@ -7491,10 +7518,10 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="2" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>9</v>
@@ -7502,10 +7529,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="2" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>9</v>
@@ -7513,10 +7540,10 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="2" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>9</v>
@@ -7524,10 +7551,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="2" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>9</v>
@@ -7535,10 +7562,10 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="2" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>9</v>
@@ -7546,10 +7573,10 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>9</v>
@@ -7557,10 +7584,10 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="2" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>9</v>
@@ -7568,10 +7595,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="2" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>9</v>
@@ -7579,10 +7606,10 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="2" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>9</v>
@@ -7590,10 +7617,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="2" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>9</v>
@@ -7601,10 +7628,10 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="2" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>9</v>
@@ -7615,10 +7642,10 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="2" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>9</v>
@@ -7626,10 +7653,10 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="2" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>9</v>
@@ -7637,10 +7664,10 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="2" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>9</v>
@@ -7648,10 +7675,10 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="2" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>9</v>
@@ -7659,10 +7686,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="2" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>9</v>
@@ -7670,10 +7697,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="2" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>9</v>
@@ -7681,10 +7708,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="2" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>9</v>
@@ -7692,10 +7719,10 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="2" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>9</v>
@@ -7703,10 +7730,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="2" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>9</v>
@@ -7714,10 +7741,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>9</v>
@@ -7725,10 +7752,10 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="2" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>9</v>
@@ -7736,10 +7763,10 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="2" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>9</v>
@@ -7747,10 +7774,10 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="2" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>9</v>
@@ -7758,10 +7785,10 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="2" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>9</v>
@@ -7769,10 +7796,10 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="2" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>9</v>
@@ -7780,10 +7807,10 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="2" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>9</v>
@@ -7791,10 +7818,10 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="2" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>9</v>
@@ -7802,10 +7829,10 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="2" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>9</v>
@@ -7813,10 +7840,10 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="2" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>9</v>
@@ -7824,10 +7851,10 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="2" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>9</v>
@@ -7835,10 +7862,10 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>9</v>
@@ -7846,10 +7873,10 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="2" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>9</v>
@@ -7857,10 +7884,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="2" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>9</v>
@@ -7868,10 +7895,10 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="2" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>9</v>
@@ -7879,10 +7906,10 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="2" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>9</v>
@@ -7890,10 +7917,10 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="2" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>9</v>
@@ -7901,10 +7928,10 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="2" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>9</v>
@@ -7912,10 +7939,10 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>9</v>
@@ -7923,10 +7950,10 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>9</v>
@@ -7934,10 +7961,10 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="2" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>9</v>
@@ -7945,10 +7972,10 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="2" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>9</v>
@@ -7959,10 +7986,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="2" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>9</v>
@@ -7970,10 +7997,10 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="2" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>9</v>
@@ -7981,10 +8008,10 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="2" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>9</v>
@@ -7992,10 +8019,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="2" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>9</v>
@@ -8003,10 +8030,10 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="2" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>9</v>
@@ -8014,10 +8041,10 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="2" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>9</v>
@@ -8025,10 +8052,10 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="2" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>9</v>
@@ -8036,10 +8063,10 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="2" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>9</v>
@@ -8047,10 +8074,10 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="2" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>9</v>
@@ -8058,10 +8085,10 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="2" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>9</v>
@@ -8069,10 +8096,10 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="2" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>9</v>
@@ -8080,10 +8107,10 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="2" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>9</v>
@@ -8091,10 +8118,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="2" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>9</v>
@@ -8102,10 +8129,10 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="2" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>9</v>
@@ -8113,10 +8140,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="2" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>9</v>
@@ -8124,10 +8151,10 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="2" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>9</v>
@@ -8135,10 +8162,10 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="2" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>9</v>
@@ -8146,10 +8173,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="2" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>9</v>
@@ -8157,10 +8184,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="2" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>9</v>
@@ -8168,10 +8195,10 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="2" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>9</v>
@@ -8179,10 +8206,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="2" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>9</v>
@@ -8190,10 +8217,10 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="2" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>9</v>
@@ -8204,10 +8231,10 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="2" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>9</v>
@@ -8218,10 +8245,10 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="2" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>9</v>
@@ -8229,10 +8256,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="2" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>9</v>
@@ -8240,10 +8267,10 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="2" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>9</v>
@@ -8254,10 +8281,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="2" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>9</v>
@@ -8265,10 +8292,10 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="2" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>9</v>
@@ -8276,10 +8303,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="2" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>9</v>
@@ -8287,10 +8314,10 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="2" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>9</v>
@@ -8298,10 +8325,10 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="2" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>9</v>
@@ -8309,10 +8336,10 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="2" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>9</v>
@@ -8320,10 +8347,10 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="2" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>9</v>
@@ -8331,10 +8358,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="2" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>9</v>
@@ -8342,10 +8369,10 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="2" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>9</v>
@@ -8356,10 +8383,10 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="2" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>9</v>
@@ -8370,10 +8397,10 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="2" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>9</v>
@@ -8415,6 +8442,8 @@
     <hyperlink ref="H62" r:id="rId30" display="http://www.jcnews.com.cn/"/>
     <hyperlink ref="H63" r:id="rId31" display="http://www.sxycrb.com/"/>
     <hyperlink ref="H64" r:id="rId32" display="http://www.lfxww.com/"/>
+    <hyperlink ref="H65" r:id="rId33" display="http://www.shuozhounews.cn/"/>
+    <hyperlink ref="H66" r:id="rId34" display="https://www.sxxz.gov.cn/" tooltip="https://www.sxxz.gov.cn/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Doc/lin.xlsx
+++ b/Doc/lin.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="543">
   <si>
     <t>media_name</t>
   </si>
@@ -489,6 +489,12 @@
     <t>吕梁新闻网</t>
   </si>
   <si>
+    <t>时事资讯  要闻 吕梁新闻</t>
+  </si>
+  <si>
+    <t>http://www.sxllnews.cn/</t>
+  </si>
+  <si>
     <t>太原日报</t>
   </si>
   <si>
@@ -519,7 +525,19 @@
     <t>内蒙古新闻网</t>
   </si>
   <si>
+    <t>时政新闻 综合新闻 经济新闻</t>
+  </si>
+  <si>
+    <t>http://www.nmgnews.com.cn/</t>
+  </si>
+  <si>
+    <t>当时测试没有数据</t>
+  </si>
+  <si>
     <t>正北方网</t>
+  </si>
+  <si>
+    <t>http://www.northnews.cn/news/msnews/capitalnews/index.html</t>
   </si>
   <si>
     <t>内蒙古晨网</t>
@@ -2300,7 +2318,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2324,6 +2342,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2676,8 +2697,8 @@
   <sheetPr/>
   <dimension ref="A1:I454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3831,11 +3852,14 @@
       <c r="E66" t="s">
         <v>142</v>
       </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
       <c r="H66" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:8">
       <c r="A67" s="2" t="s">
         <v>144</v>
       </c>
@@ -3848,13 +3872,22 @@
       <c r="D67">
         <v>1</v>
       </c>
+      <c r="E67" t="s">
+        <v>145</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
@@ -3862,10 +3895,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
@@ -3873,10 +3906,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
@@ -3884,10 +3917,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
@@ -3895,10 +3928,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
@@ -3906,10 +3939,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
@@ -3917,10 +3950,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -3928,10 +3961,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -3939,21 +3972,21 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:9">
       <c r="A77" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -3961,27 +3994,42 @@
       <c r="D77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77" t="s">
+        <v>157</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78">
         <v>1</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -3992,10 +4040,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -4003,10 +4051,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -4014,10 +4062,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -4028,10 +4076,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -4042,10 +4090,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -4053,10 +4101,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -4067,10 +4115,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -4081,10 +4129,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
@@ -4095,10 +4143,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -4106,10 +4154,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
@@ -4117,10 +4165,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
@@ -4128,10 +4176,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
@@ -4139,10 +4187,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -4153,10 +4201,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
@@ -4167,10 +4215,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -4181,10 +4229,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -4192,10 +4240,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -4203,10 +4251,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -4214,10 +4262,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -4228,10 +4276,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -4242,10 +4290,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -4256,10 +4304,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -4270,10 +4318,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -4284,10 +4332,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -4295,10 +4343,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -4309,10 +4357,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -4323,10 +4371,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -4337,10 +4385,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -4348,10 +4396,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -4362,10 +4410,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -4376,10 +4424,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -4387,10 +4435,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
@@ -4398,10 +4446,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
@@ -4409,10 +4457,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
@@ -4423,10 +4471,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -4437,10 +4485,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -4451,10 +4499,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -4462,10 +4510,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -4476,10 +4524,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -4487,10 +4535,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
@@ -4498,10 +4546,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
@@ -4512,10 +4560,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
@@ -4523,10 +4571,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -4537,10 +4585,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
@@ -4551,10 +4599,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -4562,10 +4610,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -4576,10 +4624,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -4590,10 +4638,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -4601,10 +4649,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -4615,10 +4663,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -4626,10 +4674,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -4637,10 +4685,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -4648,10 +4696,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -4662,10 +4710,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -4676,10 +4724,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -4690,10 +4738,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -4701,10 +4749,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -4712,10 +4760,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -4726,10 +4774,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -4737,10 +4785,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -4751,10 +4799,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -4762,10 +4810,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
@@ -4773,10 +4821,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
@@ -4784,10 +4832,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
@@ -4795,10 +4843,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
@@ -4806,10 +4854,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
@@ -4817,10 +4865,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -4828,10 +4876,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -4839,10 +4887,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4850,10 +4898,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
@@ -4864,10 +4912,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
@@ -4878,10 +4926,10 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
@@ -4892,10 +4940,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
@@ -4906,10 +4954,10 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
@@ -4920,10 +4968,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
@@ -4934,10 +4982,10 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
@@ -4948,10 +4996,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
@@ -4959,10 +5007,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
@@ -4970,10 +5018,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -4981,10 +5029,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
@@ -4992,10 +5040,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
@@ -5003,10 +5051,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -5017,10 +5065,10 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -5031,10 +5079,10 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -5045,10 +5093,10 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -5059,10 +5107,10 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
@@ -5073,10 +5121,10 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -5087,10 +5135,10 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -5101,10 +5149,10 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -5115,10 +5163,10 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
@@ -5129,10 +5177,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
@@ -5143,10 +5191,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
@@ -5157,10 +5205,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
@@ -5171,10 +5219,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
@@ -5185,10 +5233,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
@@ -5199,10 +5247,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
@@ -5213,10 +5261,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
@@ -5224,10 +5272,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="2" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
@@ -5235,10 +5283,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="2" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
@@ -5246,10 +5294,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
@@ -5257,10 +5305,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
@@ -5271,10 +5319,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
@@ -5285,10 +5333,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
@@ -5299,10 +5347,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
@@ -5313,10 +5361,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
@@ -5327,10 +5375,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
@@ -5341,10 +5389,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
@@ -5352,10 +5400,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
@@ -5366,10 +5414,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="2" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
@@ -5377,10 +5425,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
@@ -5388,10 +5436,10 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
@@ -5402,10 +5450,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
@@ -5413,10 +5461,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
@@ -5424,10 +5472,10 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
@@ -5438,10 +5486,10 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
@@ -5452,10 +5500,10 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
@@ -5466,10 +5514,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
@@ -5477,10 +5525,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
@@ -5488,10 +5536,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
@@ -5499,10 +5547,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="2" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
@@ -5510,10 +5558,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
@@ -5521,10 +5569,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
@@ -5532,10 +5580,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="2" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
@@ -5543,10 +5591,10 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
@@ -5557,10 +5605,10 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
@@ -5571,10 +5619,10 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
@@ -5585,10 +5633,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="2" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
@@ -5596,10 +5644,10 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
@@ -5610,10 +5658,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="2" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
@@ -5621,10 +5669,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="2" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
@@ -5632,10 +5680,10 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
@@ -5646,10 +5694,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="2" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
@@ -5657,10 +5705,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="2" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
@@ -5668,10 +5716,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="2" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
@@ -5679,10 +5727,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="2" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
@@ -5690,10 +5738,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="2" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
@@ -5701,10 +5749,10 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
@@ -5715,10 +5763,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
@@ -5726,10 +5774,10 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
@@ -5740,10 +5788,10 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
@@ -5754,10 +5802,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="2" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
@@ -5765,10 +5813,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>9</v>
@@ -5776,10 +5824,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="2" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>9</v>
@@ -5787,10 +5835,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="2" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>9</v>
@@ -5798,10 +5846,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="2" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
@@ -5809,10 +5857,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
@@ -5820,10 +5868,10 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
@@ -5834,10 +5882,10 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>9</v>
@@ -5848,10 +5896,10 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>9</v>
@@ -5862,10 +5910,10 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>9</v>
@@ -5876,10 +5924,10 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>9</v>
@@ -5890,10 +5938,10 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>9</v>
@@ -5904,10 +5952,10 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>9</v>
@@ -5918,10 +5966,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>9</v>
@@ -5929,10 +5977,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="2" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>9</v>
@@ -5940,10 +5988,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>9</v>
@@ -5951,10 +5999,10 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>9</v>
@@ -5962,10 +6010,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
@@ -5973,10 +6021,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="2" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>9</v>
@@ -5984,10 +6032,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="2" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>9</v>
@@ -5995,10 +6043,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>9</v>
@@ -6006,10 +6054,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>9</v>
@@ -6017,10 +6065,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="2" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>9</v>
@@ -6028,10 +6076,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="2" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>9</v>
@@ -6039,10 +6087,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="2" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>9</v>
@@ -6050,10 +6098,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="2" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>9</v>
@@ -6061,10 +6109,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="2" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>9</v>
@@ -6072,10 +6120,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="2" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>9</v>
@@ -6083,10 +6131,10 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="2" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>9</v>
@@ -6094,10 +6142,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="2" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>9</v>
@@ -6105,10 +6153,10 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="2" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>9</v>
@@ -6116,10 +6164,10 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="2" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>9</v>
@@ -6127,10 +6175,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="2" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>9</v>
@@ -6138,10 +6186,10 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="2" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>9</v>
@@ -6149,10 +6197,10 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="2" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>9</v>
@@ -6160,10 +6208,10 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="2" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>9</v>
@@ -6171,10 +6219,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="2" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>9</v>
@@ -6182,10 +6230,10 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="2" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>9</v>
@@ -6193,10 +6241,10 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="2" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>9</v>
@@ -6204,10 +6252,10 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="2" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>9</v>
@@ -6215,10 +6263,10 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="2" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>9</v>
@@ -6226,10 +6274,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="2" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>9</v>
@@ -6237,10 +6285,10 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="2" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>9</v>
@@ -6248,10 +6296,10 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="2" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>9</v>
@@ -6259,10 +6307,10 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="2" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>9</v>
@@ -6270,10 +6318,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="2" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>9</v>
@@ -6281,10 +6329,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="2" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>9</v>
@@ -6292,10 +6340,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="2" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>9</v>
@@ -6303,10 +6351,10 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="2" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>9</v>
@@ -6314,10 +6362,10 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="2" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>9</v>
@@ -6325,10 +6373,10 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="2" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>9</v>
@@ -6336,10 +6384,10 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="2" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>9</v>
@@ -6347,10 +6395,10 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="2" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>9</v>
@@ -6358,10 +6406,10 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="2" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>9</v>
@@ -6369,10 +6417,10 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>9</v>
@@ -6380,10 +6428,10 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="2" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>9</v>
@@ -6391,10 +6439,10 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>9</v>
@@ -6402,10 +6450,10 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="2" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>9</v>
@@ -6413,10 +6461,10 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>9</v>
@@ -6424,10 +6472,10 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="2" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>9</v>
@@ -6435,10 +6483,10 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>9</v>
@@ -6446,10 +6494,10 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="2" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>9</v>
@@ -6457,10 +6505,10 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="2" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>9</v>
@@ -6468,10 +6516,10 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="2" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>9</v>
@@ -6479,10 +6527,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="2" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>9</v>
@@ -6490,10 +6538,10 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="2" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>9</v>
@@ -6501,10 +6549,10 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="2" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>9</v>
@@ -6512,10 +6560,10 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="2" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>9</v>
@@ -6523,10 +6571,10 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="2" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>9</v>
@@ -6534,10 +6582,10 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="2" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>9</v>
@@ -6545,10 +6593,10 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="2" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>9</v>
@@ -6556,10 +6604,10 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="2" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>9</v>
@@ -6567,10 +6615,10 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="2" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>9</v>
@@ -6578,10 +6626,10 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="2" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>9</v>
@@ -6589,10 +6637,10 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="2" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>9</v>
@@ -6600,10 +6648,10 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="2" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>9</v>
@@ -6611,10 +6659,10 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="2" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>9</v>
@@ -6622,10 +6670,10 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="2" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>9</v>
@@ -6633,10 +6681,10 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="2" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>9</v>
@@ -6644,10 +6692,10 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="2" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>9</v>
@@ -6655,10 +6703,10 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="2" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>9</v>
@@ -6666,10 +6714,10 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="2" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>9</v>
@@ -6677,10 +6725,10 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="2" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>9</v>
@@ -6688,10 +6736,10 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>9</v>
@@ -6699,10 +6747,10 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="2" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>9</v>
@@ -6710,10 +6758,10 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="2" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>9</v>
@@ -6721,10 +6769,10 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="2" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>9</v>
@@ -6732,10 +6780,10 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="2" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>9</v>
@@ -6743,10 +6791,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="2" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>9</v>
@@ -6754,10 +6802,10 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="2" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>9</v>
@@ -6765,10 +6813,10 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="2" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>9</v>
@@ -6776,10 +6824,10 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>9</v>
@@ -6790,10 +6838,10 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>9</v>
@@ -6804,10 +6852,10 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="2" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>9</v>
@@ -6815,10 +6863,10 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="2" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>9</v>
@@ -6826,10 +6874,10 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>9</v>
@@ -6837,10 +6885,10 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="2" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>9</v>
@@ -6848,10 +6896,10 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>9</v>
@@ -6862,10 +6910,10 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="2" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>9</v>
@@ -6873,10 +6921,10 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="2" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>9</v>
@@ -6884,10 +6932,10 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="2" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>9</v>
@@ -6895,10 +6943,10 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="2" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>9</v>
@@ -6906,10 +6954,10 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="2" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>9</v>
@@ -6917,10 +6965,10 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="2" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>9</v>
@@ -6928,10 +6976,10 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="2" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>9</v>
@@ -6939,10 +6987,10 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="2" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>9</v>
@@ -6950,10 +6998,10 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="2" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>9</v>
@@ -6961,10 +7009,10 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="2" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>9</v>
@@ -6972,10 +7020,10 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="2" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>9</v>
@@ -6983,10 +7031,10 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>9</v>
@@ -6997,10 +7045,10 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="2" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>9</v>
@@ -7008,10 +7056,10 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="2" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>9</v>
@@ -7019,10 +7067,10 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="2" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>9</v>
@@ -7030,10 +7078,10 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="2" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>9</v>
@@ -7041,10 +7089,10 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="2" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>9</v>
@@ -7052,10 +7100,10 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="2" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>9</v>
@@ -7063,10 +7111,10 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>9</v>
@@ -7074,10 +7122,10 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="2" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>9</v>
@@ -7085,10 +7133,10 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>9</v>
@@ -7099,10 +7147,10 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="2" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>9</v>
@@ -7110,10 +7158,10 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="2" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>9</v>
@@ -7121,10 +7169,10 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="2" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>9</v>
@@ -7132,10 +7180,10 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="2" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>9</v>
@@ -7143,10 +7191,10 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="2" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>9</v>
@@ -7154,10 +7202,10 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="2" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>9</v>
@@ -7165,10 +7213,10 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="2" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>9</v>
@@ -7176,10 +7224,10 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>9</v>
@@ -7187,10 +7235,10 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="2" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>9</v>
@@ -7198,10 +7246,10 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="2" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>9</v>
@@ -7209,10 +7257,10 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="2" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>9</v>
@@ -7220,10 +7268,10 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>9</v>
@@ -7234,10 +7282,10 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="2" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>9</v>
@@ -7245,10 +7293,10 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="2" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>9</v>
@@ -7256,10 +7304,10 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="2" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>9</v>
@@ -7267,10 +7315,10 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>9</v>
@@ -7281,10 +7329,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="2" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>9</v>
@@ -7292,10 +7340,10 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>9</v>
@@ -7306,10 +7354,10 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>9</v>
@@ -7320,10 +7368,10 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="2" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>9</v>
@@ -7331,10 +7379,10 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="2" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>9</v>
@@ -7342,10 +7390,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="2" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>9</v>
@@ -7353,10 +7401,10 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="2" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>9</v>
@@ -7364,10 +7412,10 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="2" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>9</v>
@@ -7375,10 +7423,10 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="2" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>9</v>
@@ -7386,10 +7434,10 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="2" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>9</v>
@@ -7397,10 +7445,10 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="2" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>9</v>
@@ -7408,10 +7456,10 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="2" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>9</v>
@@ -7419,10 +7467,10 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="2" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>9</v>
@@ -7430,10 +7478,10 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="2" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>9</v>
@@ -7441,10 +7489,10 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="2" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>9</v>
@@ -7452,10 +7500,10 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="2" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>9</v>
@@ -7463,10 +7511,10 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="2" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>9</v>
@@ -7474,10 +7522,10 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="2" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>9</v>
@@ -7485,10 +7533,10 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="2" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>9</v>
@@ -7496,10 +7544,10 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="2" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>9</v>
@@ -7507,10 +7555,10 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="2" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>9</v>
@@ -7518,10 +7566,10 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="2" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>9</v>
@@ -7529,10 +7577,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="2" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>9</v>
@@ -7540,10 +7588,10 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="2" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>9</v>
@@ -7551,10 +7599,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="2" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>9</v>
@@ -7562,10 +7610,10 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="2" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>9</v>
@@ -7573,10 +7621,10 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="2" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>9</v>
@@ -7584,10 +7632,10 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="2" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>9</v>
@@ -7595,10 +7643,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="2" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>9</v>
@@ -7606,10 +7654,10 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="2" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>9</v>
@@ -7617,10 +7665,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>9</v>
@@ -7628,10 +7676,10 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="2" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>9</v>
@@ -7642,10 +7690,10 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="2" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>9</v>
@@ -7653,10 +7701,10 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="2" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>9</v>
@@ -7664,10 +7712,10 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="2" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>9</v>
@@ -7675,10 +7723,10 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="2" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>9</v>
@@ -7686,10 +7734,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="2" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>9</v>
@@ -7697,10 +7745,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="2" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>9</v>
@@ -7708,10 +7756,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="2" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>9</v>
@@ -7719,10 +7767,10 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="2" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>9</v>
@@ -7730,10 +7778,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="2" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>9</v>
@@ -7741,10 +7789,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="2" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>9</v>
@@ -7752,10 +7800,10 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="2" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>9</v>
@@ -7763,10 +7811,10 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="2" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>9</v>
@@ -7774,10 +7822,10 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="2" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>9</v>
@@ -7785,10 +7833,10 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="2" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>9</v>
@@ -7796,10 +7844,10 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="2" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>9</v>
@@ -7807,10 +7855,10 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="2" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>9</v>
@@ -7818,10 +7866,10 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="2" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>9</v>
@@ -7829,10 +7877,10 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="2" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>9</v>
@@ -7840,10 +7888,10 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="2" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>9</v>
@@ -7851,10 +7899,10 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="2" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>9</v>
@@ -7862,10 +7910,10 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="2" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>9</v>
@@ -7873,10 +7921,10 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="2" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>9</v>
@@ -7884,10 +7932,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="2" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>9</v>
@@ -7895,10 +7943,10 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="2" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>9</v>
@@ -7906,10 +7954,10 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="2" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>9</v>
@@ -7917,10 +7965,10 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="2" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>9</v>
@@ -7928,10 +7976,10 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="2" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>9</v>
@@ -7939,10 +7987,10 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="2" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>9</v>
@@ -7950,10 +7998,10 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="2" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>9</v>
@@ -7961,10 +8009,10 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>9</v>
@@ -7972,10 +8020,10 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>9</v>
@@ -7986,10 +8034,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="2" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>9</v>
@@ -7997,10 +8045,10 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="2" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>9</v>
@@ -8008,10 +8056,10 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="2" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>9</v>
@@ -8019,10 +8067,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="2" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>9</v>
@@ -8030,10 +8078,10 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="2" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>9</v>
@@ -8041,10 +8089,10 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="2" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>9</v>
@@ -8052,10 +8100,10 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="2" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>9</v>
@@ -8063,10 +8111,10 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="2" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>9</v>
@@ -8074,10 +8122,10 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="2" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>9</v>
@@ -8085,10 +8133,10 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="2" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>9</v>
@@ -8096,10 +8144,10 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="2" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>9</v>
@@ -8107,10 +8155,10 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="2" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>9</v>
@@ -8118,10 +8166,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="2" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>9</v>
@@ -8129,10 +8177,10 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>9</v>
@@ -8140,10 +8188,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="2" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>9</v>
@@ -8151,10 +8199,10 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="2" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>9</v>
@@ -8162,10 +8210,10 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="2" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>9</v>
@@ -8173,10 +8221,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="2" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>9</v>
@@ -8184,10 +8232,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>9</v>
@@ -8195,10 +8243,10 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="2" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>9</v>
@@ -8206,10 +8254,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="2" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>9</v>
@@ -8217,10 +8265,10 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="2" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>9</v>
@@ -8231,10 +8279,10 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="2" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>9</v>
@@ -8245,10 +8293,10 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>9</v>
@@ -8256,10 +8304,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="2" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>9</v>
@@ -8267,10 +8315,10 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="2" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>9</v>
@@ -8281,10 +8329,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="2" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>9</v>
@@ -8292,10 +8340,10 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="2" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>9</v>
@@ -8303,10 +8351,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="2" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>9</v>
@@ -8314,10 +8362,10 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="2" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>9</v>
@@ -8325,10 +8373,10 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="2" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>9</v>
@@ -8336,10 +8384,10 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="2" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>9</v>
@@ -8347,10 +8395,10 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="2" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>9</v>
@@ -8358,10 +8406,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>9</v>
@@ -8369,10 +8417,10 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="2" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>9</v>
@@ -8383,10 +8431,10 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="2" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>9</v>
@@ -8397,10 +8445,10 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>9</v>
@@ -8444,6 +8492,9 @@
     <hyperlink ref="H64" r:id="rId32" display="http://www.lfxww.com/"/>
     <hyperlink ref="H65" r:id="rId33" display="http://www.shuozhounews.cn/"/>
     <hyperlink ref="H66" r:id="rId34" display="https://www.sxxz.gov.cn/" tooltip="https://www.sxxz.gov.cn/"/>
+    <hyperlink ref="H67" r:id="rId35" display="http://www.sxllnews.cn/"/>
+    <hyperlink ref="H77" r:id="rId36" display="http://www.nmgnews.com.cn/"/>
+    <hyperlink ref="H78" r:id="rId37" display="http://www.northnews.cn/news/msnews/capitalnews/index.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Doc/lin.xlsx
+++ b/Doc/lin.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="551">
   <si>
     <t>media_name</t>
   </si>
@@ -537,12 +537,21 @@
     <t>正北方网</t>
   </si>
   <si>
+    <t>要闻 时政 内蒙古财经</t>
+  </si>
+  <si>
     <t>http://www.northnews.cn/news/msnews/capitalnews/index.html</t>
   </si>
   <si>
     <t>内蒙古晨网</t>
   </si>
   <si>
+    <t>财经 要闻</t>
+  </si>
+  <si>
+    <t>http://www.nmgcb.com.cn/</t>
+  </si>
+  <si>
     <t>内蒙古日报</t>
   </si>
   <si>
@@ -552,13 +561,28 @@
     <t>呼和浩特日报</t>
   </si>
   <si>
+    <t>不确定</t>
+  </si>
+  <si>
     <t>包头日报</t>
   </si>
   <si>
+    <t>要闻 包头</t>
+  </si>
+  <si>
+    <t>https://www.baotounews.com.cn/</t>
+  </si>
+  <si>
     <t>通辽日报</t>
   </si>
   <si>
     <t>东北新闻网</t>
+  </si>
+  <si>
+    <t>北方财经 财经要闻 财经辽宁 国内新闻 国际新闻</t>
+  </si>
+  <si>
+    <t>http://nen.com.cn/</t>
   </si>
   <si>
     <t>北国网</t>
@@ -2698,7 +2722,7 @@
   <dimension ref="A1:I454"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4020,30 +4044,45 @@
       <c r="D78">
         <v>1</v>
       </c>
+      <c r="E78" t="s">
+        <v>161</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
       <c r="H78" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79">
         <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>164</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -4051,21 +4090,21 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:8">
       <c r="A82" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -4073,52 +4112,76 @@
       <c r="D82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="G82">
+        <v>2</v>
+      </c>
+      <c r="H82" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83">
         <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>171</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:8">
       <c r="A85" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85">
         <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>175</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -4129,10 +4192,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
@@ -4143,10 +4206,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -4154,10 +4217,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
@@ -4165,10 +4228,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
@@ -4176,10 +4239,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
@@ -4187,10 +4250,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -4201,10 +4264,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
@@ -4215,10 +4278,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -4229,10 +4292,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -4240,10 +4303,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -4251,10 +4314,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -4262,10 +4325,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -4276,10 +4339,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -4290,10 +4353,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -4304,10 +4367,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -4318,10 +4381,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -4332,10 +4395,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -4343,10 +4406,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -4357,10 +4420,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -4371,10 +4434,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -4385,10 +4448,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -4396,10 +4459,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -4410,10 +4473,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -4424,10 +4487,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -4435,10 +4498,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
@@ -4446,10 +4509,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
@@ -4457,10 +4520,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
@@ -4471,10 +4534,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -4485,10 +4548,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -4499,10 +4562,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -4510,10 +4573,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -4524,10 +4587,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -4535,10 +4598,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
@@ -4546,10 +4609,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
@@ -4560,10 +4623,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
@@ -4571,10 +4634,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -4585,10 +4648,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
@@ -4599,10 +4662,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -4610,10 +4673,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -4624,10 +4687,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -4638,10 +4701,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -4649,10 +4712,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -4663,10 +4726,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -4674,10 +4737,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -4685,10 +4748,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -4696,10 +4759,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -4710,10 +4773,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -4724,10 +4787,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -4738,10 +4801,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -4749,10 +4812,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -4760,10 +4823,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -4774,10 +4837,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -4785,10 +4848,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -4799,10 +4862,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -4810,10 +4873,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
@@ -4821,10 +4884,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
@@ -4832,10 +4895,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
@@ -4843,10 +4906,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
@@ -4854,10 +4917,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
@@ -4865,10 +4928,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -4876,10 +4939,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -4887,10 +4950,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4898,10 +4961,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
@@ -4912,10 +4975,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
@@ -4926,10 +4989,10 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
@@ -4940,10 +5003,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
@@ -4954,10 +5017,10 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
@@ -4968,10 +5031,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
@@ -4982,10 +5045,10 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
@@ -4996,10 +5059,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
@@ -5007,10 +5070,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
@@ -5018,10 +5081,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -5029,10 +5092,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
@@ -5040,10 +5103,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
@@ -5051,10 +5114,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -5065,10 +5128,10 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -5079,10 +5142,10 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -5093,10 +5156,10 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -5107,10 +5170,10 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
@@ -5121,10 +5184,10 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -5135,10 +5198,10 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -5149,10 +5212,10 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -5163,10 +5226,10 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
@@ -5177,10 +5240,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
@@ -5191,10 +5254,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
@@ -5205,10 +5268,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
@@ -5219,10 +5282,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
@@ -5233,10 +5296,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
@@ -5247,10 +5310,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
@@ -5261,10 +5324,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="2" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
@@ -5272,10 +5335,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="2" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
@@ -5283,10 +5346,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="2" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
@@ -5294,10 +5357,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
@@ -5305,10 +5368,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
@@ -5319,10 +5382,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
@@ -5333,10 +5396,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
@@ -5347,10 +5410,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
@@ -5361,10 +5424,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
@@ -5375,10 +5438,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
@@ -5389,10 +5452,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
@@ -5400,10 +5463,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
@@ -5414,10 +5477,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="2" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
@@ -5425,10 +5488,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
@@ -5436,10 +5499,10 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
@@ -5450,10 +5513,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
@@ -5461,10 +5524,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
@@ -5472,10 +5535,10 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
@@ -5486,10 +5549,10 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
@@ -5500,10 +5563,10 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
@@ -5514,10 +5577,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="2" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
@@ -5525,10 +5588,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="2" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
@@ -5536,10 +5599,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
@@ -5547,10 +5610,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
@@ -5558,10 +5621,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="2" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
@@ -5569,10 +5632,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="2" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
@@ -5580,10 +5643,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="2" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
@@ -5591,10 +5654,10 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
@@ -5605,10 +5668,10 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
@@ -5619,10 +5682,10 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
@@ -5633,10 +5696,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="2" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
@@ -5644,10 +5707,10 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
@@ -5658,10 +5721,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="2" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
@@ -5669,10 +5732,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="2" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
@@ -5680,10 +5743,10 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
@@ -5694,10 +5757,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="2" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
@@ -5705,10 +5768,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="2" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
@@ -5716,10 +5779,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="2" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
@@ -5727,10 +5790,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="2" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
@@ -5738,10 +5801,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="2" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
@@ -5749,10 +5812,10 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
@@ -5763,10 +5826,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="2" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
@@ -5774,10 +5837,10 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
@@ -5788,10 +5851,10 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
@@ -5802,10 +5865,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="2" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
@@ -5813,10 +5876,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="2" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>9</v>
@@ -5824,10 +5887,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>9</v>
@@ -5835,10 +5898,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="2" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>9</v>
@@ -5846,10 +5909,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="2" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
@@ -5857,10 +5920,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
@@ -5868,10 +5931,10 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
@@ -5882,10 +5945,10 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>9</v>
@@ -5896,10 +5959,10 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>9</v>
@@ -5910,10 +5973,10 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>9</v>
@@ -5924,10 +5987,10 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>9</v>
@@ -5938,10 +6001,10 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>9</v>
@@ -5952,10 +6015,10 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>9</v>
@@ -5966,10 +6029,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>9</v>
@@ -5977,10 +6040,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="2" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>9</v>
@@ -5988,10 +6051,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>9</v>
@@ -5999,10 +6062,10 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>9</v>
@@ -6010,10 +6073,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
@@ -6021,10 +6084,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="2" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>9</v>
@@ -6032,10 +6095,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="2" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>9</v>
@@ -6043,10 +6106,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>9</v>
@@ -6054,10 +6117,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="2" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>9</v>
@@ -6065,10 +6128,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="2" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>9</v>
@@ -6076,10 +6139,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="2" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>9</v>
@@ -6087,10 +6150,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="2" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>9</v>
@@ -6098,10 +6161,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="2" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>9</v>
@@ -6109,10 +6172,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="2" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>9</v>
@@ -6120,10 +6183,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="2" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>9</v>
@@ -6131,10 +6194,10 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="2" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>9</v>
@@ -6142,10 +6205,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="2" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>9</v>
@@ -6153,10 +6216,10 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="2" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>9</v>
@@ -6164,10 +6227,10 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="2" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>9</v>
@@ -6175,10 +6238,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="2" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>9</v>
@@ -6186,10 +6249,10 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="2" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>9</v>
@@ -6197,10 +6260,10 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="2" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>9</v>
@@ -6208,10 +6271,10 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="2" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>9</v>
@@ -6219,10 +6282,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="2" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>9</v>
@@ -6230,10 +6293,10 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="2" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>9</v>
@@ -6241,10 +6304,10 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="2" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>9</v>
@@ -6252,10 +6315,10 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="2" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>9</v>
@@ -6263,10 +6326,10 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="2" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>9</v>
@@ -6274,10 +6337,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="2" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>9</v>
@@ -6285,10 +6348,10 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="2" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>9</v>
@@ -6296,10 +6359,10 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="2" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>9</v>
@@ -6307,10 +6370,10 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="2" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>9</v>
@@ -6318,10 +6381,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="2" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>9</v>
@@ -6329,10 +6392,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="2" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>9</v>
@@ -6340,10 +6403,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>9</v>
@@ -6351,10 +6414,10 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="2" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>9</v>
@@ -6362,10 +6425,10 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="2" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>9</v>
@@ -6373,10 +6436,10 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="2" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>9</v>
@@ -6384,10 +6447,10 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="2" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>9</v>
@@ -6395,10 +6458,10 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="2" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>9</v>
@@ -6406,10 +6469,10 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="2" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>9</v>
@@ -6417,10 +6480,10 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="2" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>9</v>
@@ -6428,10 +6491,10 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="2" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>9</v>
@@ -6439,10 +6502,10 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="2" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>9</v>
@@ -6450,10 +6513,10 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="2" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>9</v>
@@ -6461,10 +6524,10 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="2" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>9</v>
@@ -6472,10 +6535,10 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="2" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>9</v>
@@ -6483,10 +6546,10 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="2" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>9</v>
@@ -6494,10 +6557,10 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="2" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>9</v>
@@ -6505,10 +6568,10 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="2" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>9</v>
@@ -6516,10 +6579,10 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="2" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>9</v>
@@ -6527,10 +6590,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="2" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>9</v>
@@ -6538,10 +6601,10 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="2" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>9</v>
@@ -6549,10 +6612,10 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="2" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>9</v>
@@ -6560,10 +6623,10 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="2" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>9</v>
@@ -6571,10 +6634,10 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="2" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>9</v>
@@ -6582,10 +6645,10 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="2" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>9</v>
@@ -6593,10 +6656,10 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="2" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>9</v>
@@ -6604,10 +6667,10 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="2" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>9</v>
@@ -6615,10 +6678,10 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="2" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>9</v>
@@ -6626,10 +6689,10 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="2" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>9</v>
@@ -6637,10 +6700,10 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="2" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>9</v>
@@ -6648,10 +6711,10 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="2" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>9</v>
@@ -6659,10 +6722,10 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="2" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>9</v>
@@ -6670,10 +6733,10 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="2" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>9</v>
@@ -6681,10 +6744,10 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="2" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>9</v>
@@ -6692,10 +6755,10 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="2" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>9</v>
@@ -6703,10 +6766,10 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="2" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>9</v>
@@ -6714,10 +6777,10 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="2" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>9</v>
@@ -6725,10 +6788,10 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="2" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>9</v>
@@ -6736,10 +6799,10 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="2" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>9</v>
@@ -6747,10 +6810,10 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="2" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>9</v>
@@ -6758,10 +6821,10 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>9</v>
@@ -6769,10 +6832,10 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="2" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>9</v>
@@ -6780,10 +6843,10 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="2" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>9</v>
@@ -6791,10 +6854,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="2" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>9</v>
@@ -6802,10 +6865,10 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="2" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>9</v>
@@ -6813,10 +6876,10 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>9</v>
@@ -6824,10 +6887,10 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>9</v>
@@ -6838,10 +6901,10 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>9</v>
@@ -6852,10 +6915,10 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="2" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>9</v>
@@ -6863,10 +6926,10 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="2" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>9</v>
@@ -6874,10 +6937,10 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="2" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>9</v>
@@ -6885,10 +6948,10 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="2" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>9</v>
@@ -6896,10 +6959,10 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>9</v>
@@ -6910,10 +6973,10 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="2" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>9</v>
@@ -6921,10 +6984,10 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="2" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>9</v>
@@ -6932,10 +6995,10 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="2" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>9</v>
@@ -6943,10 +7006,10 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="2" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>9</v>
@@ -6954,10 +7017,10 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="2" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>9</v>
@@ -6965,10 +7028,10 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="2" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>9</v>
@@ -6976,10 +7039,10 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="2" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>9</v>
@@ -6987,10 +7050,10 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="2" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>9</v>
@@ -6998,10 +7061,10 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="2" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>9</v>
@@ -7009,10 +7072,10 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="2" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>9</v>
@@ -7020,10 +7083,10 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="2" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>9</v>
@@ -7031,10 +7094,10 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>9</v>
@@ -7045,10 +7108,10 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="2" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>9</v>
@@ -7056,10 +7119,10 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="2" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>9</v>
@@ -7067,10 +7130,10 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="2" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>9</v>
@@ -7078,10 +7141,10 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="2" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>9</v>
@@ -7089,10 +7152,10 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="2" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>9</v>
@@ -7100,10 +7163,10 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="2" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>9</v>
@@ -7111,10 +7174,10 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="2" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>9</v>
@@ -7122,10 +7185,10 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="2" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>9</v>
@@ -7133,10 +7196,10 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>9</v>
@@ -7147,10 +7210,10 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="2" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>9</v>
@@ -7158,10 +7221,10 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="2" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>9</v>
@@ -7169,10 +7232,10 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="2" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>9</v>
@@ -7180,10 +7243,10 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="2" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>9</v>
@@ -7191,10 +7254,10 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="2" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>9</v>
@@ -7202,10 +7265,10 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="2" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>9</v>
@@ -7213,10 +7276,10 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="2" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>9</v>
@@ -7224,10 +7287,10 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="2" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>9</v>
@@ -7235,10 +7298,10 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="2" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>9</v>
@@ -7246,10 +7309,10 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="2" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>9</v>
@@ -7257,10 +7320,10 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="2" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>9</v>
@@ -7268,10 +7331,10 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>9</v>
@@ -7282,10 +7345,10 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="2" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>9</v>
@@ -7293,10 +7356,10 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="2" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>9</v>
@@ -7304,10 +7367,10 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="2" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>9</v>
@@ -7315,10 +7378,10 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>9</v>
@@ -7329,10 +7392,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="2" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>9</v>
@@ -7340,10 +7403,10 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>9</v>
@@ -7354,10 +7417,10 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>9</v>
@@ -7368,10 +7431,10 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="2" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>9</v>
@@ -7379,10 +7442,10 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="2" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>9</v>
@@ -7390,10 +7453,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="2" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>9</v>
@@ -7401,10 +7464,10 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="2" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>9</v>
@@ -7412,10 +7475,10 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="2" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>9</v>
@@ -7423,10 +7486,10 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="2" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>9</v>
@@ -7434,10 +7497,10 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="2" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>9</v>
@@ -7445,10 +7508,10 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="2" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>9</v>
@@ -7456,10 +7519,10 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="2" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>9</v>
@@ -7467,10 +7530,10 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="2" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>9</v>
@@ -7478,10 +7541,10 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="2" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>9</v>
@@ -7489,10 +7552,10 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="2" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>9</v>
@@ -7500,10 +7563,10 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="2" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>9</v>
@@ -7511,10 +7574,10 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="2" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>9</v>
@@ -7522,10 +7585,10 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="2" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>9</v>
@@ -7533,10 +7596,10 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="2" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>9</v>
@@ -7544,10 +7607,10 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="2" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>9</v>
@@ -7555,10 +7618,10 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="2" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>9</v>
@@ -7566,10 +7629,10 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="2" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>9</v>
@@ -7577,10 +7640,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="2" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>9</v>
@@ -7588,10 +7651,10 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="2" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>9</v>
@@ -7599,10 +7662,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="2" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>9</v>
@@ -7610,10 +7673,10 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="2" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>9</v>
@@ -7621,10 +7684,10 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="2" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>9</v>
@@ -7632,10 +7695,10 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="2" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>9</v>
@@ -7643,10 +7706,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="2" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>9</v>
@@ -7654,10 +7717,10 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="2" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>9</v>
@@ -7665,10 +7728,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="2" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>9</v>
@@ -7676,10 +7739,10 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="2" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>9</v>
@@ -7690,10 +7753,10 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="2" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>9</v>
@@ -7701,10 +7764,10 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="2" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>9</v>
@@ -7712,10 +7775,10 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="2" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>9</v>
@@ -7723,10 +7786,10 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="2" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>9</v>
@@ -7734,10 +7797,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="2" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>9</v>
@@ -7745,10 +7808,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="2" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>9</v>
@@ -7756,10 +7819,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>9</v>
@@ -7767,10 +7830,10 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="2" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>9</v>
@@ -7778,10 +7841,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="2" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>9</v>
@@ -7789,10 +7852,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>9</v>
@@ -7800,10 +7863,10 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="2" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>9</v>
@@ -7811,10 +7874,10 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="2" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>9</v>
@@ -7822,10 +7885,10 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="2" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>9</v>
@@ -7833,10 +7896,10 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="2" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>9</v>
@@ -7844,10 +7907,10 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="2" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>9</v>
@@ -7855,10 +7918,10 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="2" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>9</v>
@@ -7866,10 +7929,10 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="2" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>9</v>
@@ -7877,10 +7940,10 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="2" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>9</v>
@@ -7888,10 +7951,10 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="2" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>9</v>
@@ -7899,10 +7962,10 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="2" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>9</v>
@@ -7910,10 +7973,10 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="2" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>9</v>
@@ -7921,10 +7984,10 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="2" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>9</v>
@@ -7932,10 +7995,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="2" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>9</v>
@@ -7943,10 +8006,10 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="2" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>9</v>
@@ -7954,10 +8017,10 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="2" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>9</v>
@@ -7965,10 +8028,10 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="2" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>9</v>
@@ -7976,10 +8039,10 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="2" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>9</v>
@@ -7987,10 +8050,10 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="2" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>9</v>
@@ -7998,10 +8061,10 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="2" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>9</v>
@@ -8009,10 +8072,10 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="2" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>9</v>
@@ -8020,10 +8083,10 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="2" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>9</v>
@@ -8034,10 +8097,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="2" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>9</v>
@@ -8045,10 +8108,10 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="2" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>9</v>
@@ -8056,10 +8119,10 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="2" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>9</v>
@@ -8067,10 +8130,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="2" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>9</v>
@@ -8078,10 +8141,10 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="2" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>9</v>
@@ -8089,10 +8152,10 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="2" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>9</v>
@@ -8100,10 +8163,10 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="2" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>9</v>
@@ -8111,10 +8174,10 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="2" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>9</v>
@@ -8122,10 +8185,10 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="2" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>9</v>
@@ -8133,10 +8196,10 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="2" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>9</v>
@@ -8144,10 +8207,10 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="2" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>9</v>
@@ -8155,10 +8218,10 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="2" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>9</v>
@@ -8166,10 +8229,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="2" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>9</v>
@@ -8177,10 +8240,10 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="2" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>9</v>
@@ -8188,10 +8251,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="2" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>9</v>
@@ -8199,10 +8262,10 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="2" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>9</v>
@@ -8210,10 +8273,10 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="2" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>9</v>
@@ -8221,10 +8284,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="2" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>9</v>
@@ -8232,10 +8295,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="2" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>9</v>
@@ -8243,10 +8306,10 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="2" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>9</v>
@@ -8254,10 +8317,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="2" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>9</v>
@@ -8265,10 +8328,10 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="2" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>9</v>
@@ -8279,10 +8342,10 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="2" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>9</v>
@@ -8293,10 +8356,10 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="2" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>9</v>
@@ -8304,10 +8367,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="2" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>9</v>
@@ -8315,10 +8378,10 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="2" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>9</v>
@@ -8329,10 +8392,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="2" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>9</v>
@@ -8340,10 +8403,10 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="2" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>9</v>
@@ -8351,10 +8414,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="2" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>9</v>
@@ -8362,10 +8425,10 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="2" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>9</v>
@@ -8373,10 +8436,10 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="2" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>9</v>
@@ -8384,10 +8447,10 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="2" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>9</v>
@@ -8395,10 +8458,10 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="2" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>9</v>
@@ -8406,10 +8469,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="2" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>9</v>
@@ -8417,10 +8480,10 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="2" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>9</v>
@@ -8431,10 +8494,10 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="2" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>9</v>
@@ -8445,10 +8508,10 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="2" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>9</v>
@@ -8495,6 +8558,9 @@
     <hyperlink ref="H67" r:id="rId35" display="http://www.sxllnews.cn/"/>
     <hyperlink ref="H77" r:id="rId36" display="http://www.nmgnews.com.cn/"/>
     <hyperlink ref="H78" r:id="rId37" display="http://www.northnews.cn/news/msnews/capitalnews/index.html"/>
+    <hyperlink ref="H79" r:id="rId38" display="http://www.nmgcb.com.cn/"/>
+    <hyperlink ref="H83" r:id="rId39" display="https://www.baotounews.com.cn/"/>
+    <hyperlink ref="H85" r:id="rId40" display="http://nen.com.cn/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Doc/lin.xlsx
+++ b/Doc/lin.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="557">
   <si>
     <t>media_name</t>
   </si>
@@ -588,9 +588,21 @@
     <t>北国网</t>
   </si>
   <si>
+    <t>今日辽宁  重要动态 社会新闻 时政要闻 时政 新闻要闻 国内 国际 财经</t>
+  </si>
+  <si>
+    <t>http://www.lndaily.com.cn/</t>
+  </si>
+  <si>
     <t>沈阳网</t>
   </si>
   <si>
+    <t>政务要闻</t>
+  </si>
+  <si>
+    <t>http://www.shenyang.gov.cn/</t>
+  </si>
+  <si>
     <t>辽宁日报</t>
   </si>
   <si>
@@ -604,6 +616,12 @@
   </si>
   <si>
     <t>中国吉林网</t>
+  </si>
+  <si>
+    <t>财经新闻 吉网原创 省内新闻 国内新闻 国际新闻 社会新闻</t>
+  </si>
+  <si>
+    <t>https://cnjiwang.com/</t>
   </si>
   <si>
     <t>大吉网</t>
@@ -2721,8 +2739,8 @@
   <sheetPr/>
   <dimension ref="A1:I454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4176,7 +4194,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:8">
       <c r="A86" s="2" t="s">
         <v>177</v>
       </c>
@@ -4189,27 +4207,48 @@
       <c r="D86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86" t="s">
+        <v>178</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87">
         <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>181</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I87" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -4217,10 +4256,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
@@ -4228,10 +4267,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
@@ -4239,35 +4278,44 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:8">
       <c r="A92" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92">
         <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>188</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
@@ -4278,10 +4326,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -4292,10 +4340,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -4303,10 +4351,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -4314,10 +4362,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -4325,10 +4373,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -4339,10 +4387,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -4353,10 +4401,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -4367,10 +4415,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -4381,10 +4429,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -4395,10 +4443,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -4406,10 +4454,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -4420,10 +4468,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -4434,10 +4482,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -4448,10 +4496,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -4459,10 +4507,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -4473,10 +4521,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -4487,10 +4535,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -4498,10 +4546,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
@@ -4509,10 +4557,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
@@ -4520,10 +4568,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
@@ -4534,10 +4582,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -4548,10 +4596,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -4562,10 +4610,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -4573,10 +4621,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -4587,10 +4635,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -4598,10 +4646,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
@@ -4609,10 +4657,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
@@ -4623,10 +4671,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
@@ -4634,10 +4682,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -4648,10 +4696,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
@@ -4662,10 +4710,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -4673,10 +4721,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -4687,10 +4735,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -4701,10 +4749,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -4712,10 +4760,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -4726,10 +4774,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -4737,10 +4785,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -4748,10 +4796,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -4759,10 +4807,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -4773,10 +4821,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -4787,10 +4835,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -4801,10 +4849,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -4812,10 +4860,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -4823,10 +4871,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -4837,10 +4885,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -4848,10 +4896,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -4862,10 +4910,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -4873,10 +4921,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
@@ -4884,10 +4932,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
@@ -4895,10 +4943,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
@@ -4906,10 +4954,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
@@ -4917,10 +4965,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
@@ -4928,10 +4976,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -4939,10 +4987,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -4950,10 +4998,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4961,10 +5009,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
@@ -4975,10 +5023,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
@@ -4989,10 +5037,10 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
@@ -5003,10 +5051,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
@@ -5017,10 +5065,10 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
@@ -5031,10 +5079,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
@@ -5045,10 +5093,10 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
@@ -5059,10 +5107,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
@@ -5070,10 +5118,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
@@ -5081,10 +5129,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -5092,10 +5140,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
@@ -5103,10 +5151,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
@@ -5114,10 +5162,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -5128,10 +5176,10 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -5142,10 +5190,10 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -5156,10 +5204,10 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -5170,10 +5218,10 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
@@ -5184,10 +5232,10 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -5198,10 +5246,10 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -5212,10 +5260,10 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -5226,10 +5274,10 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
@@ -5240,10 +5288,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
@@ -5254,10 +5302,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
@@ -5268,10 +5316,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
@@ -5282,10 +5330,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
@@ -5296,10 +5344,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
@@ -5310,10 +5358,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
@@ -5324,10 +5372,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="2" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
@@ -5335,10 +5383,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
@@ -5346,10 +5394,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
@@ -5357,10 +5405,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
@@ -5368,10 +5416,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
@@ -5382,10 +5430,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
@@ -5396,10 +5444,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
@@ -5410,10 +5458,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
@@ -5424,10 +5472,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
@@ -5438,10 +5486,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
@@ -5452,10 +5500,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
@@ -5463,10 +5511,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
@@ -5477,10 +5525,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="2" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
@@ -5488,10 +5536,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
@@ -5499,10 +5547,10 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
@@ -5513,10 +5561,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
@@ -5524,10 +5572,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
@@ -5535,10 +5583,10 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
@@ -5549,10 +5597,10 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
@@ -5563,10 +5611,10 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
@@ -5577,10 +5625,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="2" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
@@ -5588,10 +5636,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="2" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
@@ -5599,10 +5647,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
@@ -5610,10 +5658,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="2" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
@@ -5621,10 +5669,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="2" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
@@ -5632,10 +5680,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="2" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
@@ -5643,10 +5691,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="2" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
@@ -5654,10 +5702,10 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
@@ -5668,10 +5716,10 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
@@ -5682,10 +5730,10 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
@@ -5696,10 +5744,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="2" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
@@ -5707,10 +5755,10 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
@@ -5721,10 +5769,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="2" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
@@ -5732,10 +5780,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="2" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
@@ -5743,10 +5791,10 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
@@ -5757,10 +5805,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="2" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
@@ -5768,10 +5816,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
@@ -5779,10 +5827,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="2" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
@@ -5790,10 +5838,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
@@ -5801,10 +5849,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="2" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
@@ -5812,10 +5860,10 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
@@ -5826,10 +5874,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="2" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
@@ -5837,10 +5885,10 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
@@ -5851,10 +5899,10 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
@@ -5865,10 +5913,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="2" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
@@ -5876,10 +5924,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>9</v>
@@ -5887,10 +5935,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="2" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>9</v>
@@ -5898,10 +5946,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>9</v>
@@ -5909,10 +5957,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="2" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
@@ -5920,10 +5968,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
@@ -5931,10 +5979,10 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
@@ -5945,10 +5993,10 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>9</v>
@@ -5959,10 +6007,10 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>9</v>
@@ -5973,10 +6021,10 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>9</v>
@@ -5987,10 +6035,10 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>9</v>
@@ -6001,10 +6049,10 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>9</v>
@@ -6015,10 +6063,10 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>9</v>
@@ -6029,10 +6077,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>9</v>
@@ -6040,10 +6088,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="2" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>9</v>
@@ -6051,10 +6099,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>9</v>
@@ -6062,10 +6110,10 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>9</v>
@@ -6073,10 +6121,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
@@ -6084,10 +6132,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="2" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>9</v>
@@ -6095,10 +6143,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="2" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>9</v>
@@ -6106,10 +6154,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>9</v>
@@ -6117,10 +6165,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="2" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>9</v>
@@ -6128,10 +6176,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="2" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>9</v>
@@ -6139,10 +6187,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="2" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>9</v>
@@ -6150,10 +6198,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="2" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>9</v>
@@ -6161,10 +6209,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="2" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>9</v>
@@ -6172,10 +6220,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="2" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>9</v>
@@ -6183,10 +6231,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="2" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>9</v>
@@ -6194,10 +6242,10 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="2" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>9</v>
@@ -6205,10 +6253,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="2" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>9</v>
@@ -6216,10 +6264,10 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="2" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>9</v>
@@ -6227,10 +6275,10 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="2" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>9</v>
@@ -6238,10 +6286,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="2" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>9</v>
@@ -6249,10 +6297,10 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="2" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>9</v>
@@ -6260,10 +6308,10 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="2" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>9</v>
@@ -6271,10 +6319,10 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="2" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>9</v>
@@ -6282,10 +6330,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="2" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>9</v>
@@ -6293,10 +6341,10 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="2" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>9</v>
@@ -6304,10 +6352,10 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="2" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>9</v>
@@ -6315,10 +6363,10 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="2" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>9</v>
@@ -6326,10 +6374,10 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>9</v>
@@ -6337,10 +6385,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="2" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>9</v>
@@ -6348,10 +6396,10 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>9</v>
@@ -6359,10 +6407,10 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="2" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>9</v>
@@ -6370,10 +6418,10 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>9</v>
@@ -6381,10 +6429,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="2" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>9</v>
@@ -6392,10 +6440,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>9</v>
@@ -6403,10 +6451,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="2" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>9</v>
@@ -6414,10 +6462,10 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="2" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>9</v>
@@ -6425,10 +6473,10 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="2" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>9</v>
@@ -6436,10 +6484,10 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="2" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>9</v>
@@ -6447,10 +6495,10 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="2" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>9</v>
@@ -6458,10 +6506,10 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="2" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>9</v>
@@ -6469,10 +6517,10 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="2" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>9</v>
@@ -6480,10 +6528,10 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="2" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>9</v>
@@ -6491,10 +6539,10 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="2" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>9</v>
@@ -6502,10 +6550,10 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="2" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>9</v>
@@ -6513,10 +6561,10 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="2" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>9</v>
@@ -6524,10 +6572,10 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="2" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>9</v>
@@ -6535,10 +6583,10 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="2" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>9</v>
@@ -6546,10 +6594,10 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="2" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>9</v>
@@ -6557,10 +6605,10 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="2" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>9</v>
@@ -6568,10 +6616,10 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="2" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>9</v>
@@ -6579,10 +6627,10 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="2" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>9</v>
@@ -6590,10 +6638,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="2" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>9</v>
@@ -6601,10 +6649,10 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="2" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>9</v>
@@ -6612,10 +6660,10 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="2" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>9</v>
@@ -6623,10 +6671,10 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="2" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>9</v>
@@ -6634,10 +6682,10 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="2" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>9</v>
@@ -6645,10 +6693,10 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>9</v>
@@ -6656,10 +6704,10 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="2" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>9</v>
@@ -6667,10 +6715,10 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="2" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>9</v>
@@ -6678,10 +6726,10 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="2" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>9</v>
@@ -6689,10 +6737,10 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="2" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>9</v>
@@ -6700,10 +6748,10 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="2" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>9</v>
@@ -6711,10 +6759,10 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="2" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>9</v>
@@ -6722,10 +6770,10 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="2" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>9</v>
@@ -6733,10 +6781,10 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="2" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>9</v>
@@ -6744,10 +6792,10 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="2" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>9</v>
@@ -6755,10 +6803,10 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="2" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>9</v>
@@ -6766,10 +6814,10 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="2" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>9</v>
@@ -6777,10 +6825,10 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>9</v>
@@ -6788,10 +6836,10 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="2" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>9</v>
@@ -6799,10 +6847,10 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="2" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>9</v>
@@ -6810,10 +6858,10 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="2" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>9</v>
@@ -6821,10 +6869,10 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="2" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>9</v>
@@ -6832,10 +6880,10 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>9</v>
@@ -6843,10 +6891,10 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="2" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>9</v>
@@ -6854,10 +6902,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="2" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>9</v>
@@ -6865,10 +6913,10 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="2" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>9</v>
@@ -6876,10 +6924,10 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="2" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>9</v>
@@ -6887,10 +6935,10 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>9</v>
@@ -6901,10 +6949,10 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>9</v>
@@ -6915,10 +6963,10 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="2" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>9</v>
@@ -6926,10 +6974,10 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="2" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>9</v>
@@ -6937,10 +6985,10 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="2" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>9</v>
@@ -6948,10 +6996,10 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="2" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>9</v>
@@ -6959,10 +7007,10 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>9</v>
@@ -6973,10 +7021,10 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="2" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>9</v>
@@ -6984,10 +7032,10 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="2" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>9</v>
@@ -6995,10 +7043,10 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="2" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>9</v>
@@ -7006,10 +7054,10 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="2" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>9</v>
@@ -7017,10 +7065,10 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>9</v>
@@ -7028,10 +7076,10 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="2" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>9</v>
@@ -7039,10 +7087,10 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="2" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>9</v>
@@ -7050,10 +7098,10 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="2" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>9</v>
@@ -7061,10 +7109,10 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="2" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>9</v>
@@ -7072,10 +7120,10 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="2" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>9</v>
@@ -7083,10 +7131,10 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="2" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>9</v>
@@ -7094,10 +7142,10 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>9</v>
@@ -7108,10 +7156,10 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="2" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>9</v>
@@ -7119,10 +7167,10 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="2" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>9</v>
@@ -7130,10 +7178,10 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>9</v>
@@ -7141,10 +7189,10 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="2" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>9</v>
@@ -7152,10 +7200,10 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="2" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>9</v>
@@ -7163,10 +7211,10 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="2" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>9</v>
@@ -7174,10 +7222,10 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="2" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>9</v>
@@ -7185,10 +7233,10 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="2" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>9</v>
@@ -7196,10 +7244,10 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>9</v>
@@ -7210,10 +7258,10 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="2" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>9</v>
@@ -7221,10 +7269,10 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="2" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>9</v>
@@ -7232,10 +7280,10 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="2" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>9</v>
@@ -7243,10 +7291,10 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="2" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>9</v>
@@ -7254,10 +7302,10 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="2" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>9</v>
@@ -7265,10 +7313,10 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="2" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>9</v>
@@ -7276,10 +7324,10 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="2" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>9</v>
@@ -7287,10 +7335,10 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="2" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>9</v>
@@ -7298,10 +7346,10 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="2" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>9</v>
@@ -7309,10 +7357,10 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="2" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>9</v>
@@ -7320,10 +7368,10 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="2" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>9</v>
@@ -7331,10 +7379,10 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>9</v>
@@ -7345,10 +7393,10 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="2" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>9</v>
@@ -7356,10 +7404,10 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="2" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>9</v>
@@ -7367,10 +7415,10 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="2" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>9</v>
@@ -7378,10 +7426,10 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>9</v>
@@ -7392,10 +7440,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="2" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>9</v>
@@ -7403,10 +7451,10 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>9</v>
@@ -7417,10 +7465,10 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>9</v>
@@ -7431,10 +7479,10 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="2" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>9</v>
@@ -7442,10 +7490,10 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="2" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>9</v>
@@ -7453,10 +7501,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="2" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>9</v>
@@ -7464,10 +7512,10 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="2" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>9</v>
@@ -7475,10 +7523,10 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="2" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>9</v>
@@ -7486,10 +7534,10 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="2" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>9</v>
@@ -7497,10 +7545,10 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="2" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>9</v>
@@ -7508,10 +7556,10 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="2" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>9</v>
@@ -7519,10 +7567,10 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="2" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>9</v>
@@ -7530,10 +7578,10 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="2" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>9</v>
@@ -7541,10 +7589,10 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="2" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>9</v>
@@ -7552,10 +7600,10 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="2" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>9</v>
@@ -7563,10 +7611,10 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="2" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>9</v>
@@ -7574,10 +7622,10 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>9</v>
@@ -7585,10 +7633,10 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="2" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>9</v>
@@ -7596,10 +7644,10 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="2" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>9</v>
@@ -7607,10 +7655,10 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="2" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>9</v>
@@ -7618,10 +7666,10 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="2" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>9</v>
@@ -7629,10 +7677,10 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="2" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>9</v>
@@ -7640,10 +7688,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="2" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>9</v>
@@ -7651,10 +7699,10 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="2" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>9</v>
@@ -7662,10 +7710,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="2" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>9</v>
@@ -7673,10 +7721,10 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="2" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>9</v>
@@ -7684,10 +7732,10 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="2" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>9</v>
@@ -7695,10 +7743,10 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="2" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>9</v>
@@ -7706,10 +7754,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="2" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>9</v>
@@ -7717,10 +7765,10 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="2" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>9</v>
@@ -7728,10 +7776,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="2" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>9</v>
@@ -7739,10 +7787,10 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="2" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>9</v>
@@ -7753,10 +7801,10 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="2" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>9</v>
@@ -7764,10 +7812,10 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="2" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>9</v>
@@ -7775,10 +7823,10 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="2" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>9</v>
@@ -7786,10 +7834,10 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="2" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>9</v>
@@ -7797,10 +7845,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="2" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>9</v>
@@ -7808,10 +7856,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="2" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>9</v>
@@ -7819,10 +7867,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="2" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>9</v>
@@ -7830,10 +7878,10 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="2" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>9</v>
@@ -7841,10 +7889,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="2" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>9</v>
@@ -7852,10 +7900,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="2" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>9</v>
@@ -7863,10 +7911,10 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="2" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>9</v>
@@ -7874,10 +7922,10 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="2" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>9</v>
@@ -7885,10 +7933,10 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="2" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>9</v>
@@ -7896,10 +7944,10 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="2" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>9</v>
@@ -7907,10 +7955,10 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="2" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>9</v>
@@ -7918,10 +7966,10 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>9</v>
@@ -7929,10 +7977,10 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>9</v>
@@ -7940,10 +7988,10 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="2" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>9</v>
@@ -7951,10 +7999,10 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="2" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>9</v>
@@ -7962,10 +8010,10 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="2" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>9</v>
@@ -7973,10 +8021,10 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="2" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>9</v>
@@ -7984,10 +8032,10 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="2" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>9</v>
@@ -7995,10 +8043,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="2" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>9</v>
@@ -8006,10 +8054,10 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="2" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>9</v>
@@ -8017,10 +8065,10 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="2" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>9</v>
@@ -8028,10 +8076,10 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="2" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>9</v>
@@ -8039,10 +8087,10 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="2" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>9</v>
@@ -8050,10 +8098,10 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="2" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>9</v>
@@ -8061,10 +8109,10 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="2" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>9</v>
@@ -8072,10 +8120,10 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="2" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>9</v>
@@ -8083,10 +8131,10 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="2" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>9</v>
@@ -8097,10 +8145,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="2" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>9</v>
@@ -8108,10 +8156,10 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="2" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>9</v>
@@ -8119,10 +8167,10 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="2" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>9</v>
@@ -8130,10 +8178,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="2" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>9</v>
@@ -8141,10 +8189,10 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="2" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>9</v>
@@ -8152,10 +8200,10 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="2" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>9</v>
@@ -8163,10 +8211,10 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>9</v>
@@ -8174,10 +8222,10 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="2" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>9</v>
@@ -8185,10 +8233,10 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="2" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>9</v>
@@ -8196,10 +8244,10 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="2" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>9</v>
@@ -8207,10 +8255,10 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="2" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>9</v>
@@ -8218,10 +8266,10 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="2" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>9</v>
@@ -8229,10 +8277,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>9</v>
@@ -8240,10 +8288,10 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="2" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>9</v>
@@ -8251,10 +8299,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="2" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>9</v>
@@ -8262,10 +8310,10 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="2" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>9</v>
@@ -8273,10 +8321,10 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="2" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>9</v>
@@ -8284,10 +8332,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="2" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>9</v>
@@ -8295,10 +8343,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="2" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>9</v>
@@ -8306,10 +8354,10 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>9</v>
@@ -8317,10 +8365,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="2" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>9</v>
@@ -8328,10 +8376,10 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="2" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>9</v>
@@ -8342,10 +8390,10 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="2" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>9</v>
@@ -8356,10 +8404,10 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="2" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>9</v>
@@ -8367,10 +8415,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="2" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>9</v>
@@ -8378,10 +8426,10 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="2" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>9</v>
@@ -8392,10 +8440,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="2" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>9</v>
@@ -8403,10 +8451,10 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>9</v>
@@ -8414,10 +8462,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="2" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>9</v>
@@ -8425,10 +8473,10 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="2" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>9</v>
@@ -8436,10 +8484,10 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="2" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>9</v>
@@ -8447,10 +8495,10 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="2" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>9</v>
@@ -8458,10 +8506,10 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="2" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>9</v>
@@ -8469,10 +8517,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="2" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>9</v>
@@ -8480,10 +8528,10 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="2" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>9</v>
@@ -8494,10 +8542,10 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="2" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>9</v>
@@ -8508,10 +8556,10 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="2" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>9</v>
@@ -8561,6 +8609,9 @@
     <hyperlink ref="H79" r:id="rId38" display="http://www.nmgcb.com.cn/"/>
     <hyperlink ref="H83" r:id="rId39" display="https://www.baotounews.com.cn/"/>
     <hyperlink ref="H85" r:id="rId40" display="http://nen.com.cn/"/>
+    <hyperlink ref="H86" r:id="rId41" display="http://www.lndaily.com.cn/"/>
+    <hyperlink ref="H87" r:id="rId42" display="http://www.shenyang.gov.cn/"/>
+    <hyperlink ref="H92" r:id="rId43" display="https://cnjiwang.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Doc/lin.xlsx
+++ b/Doc/lin.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="566">
   <si>
     <t>media_name</t>
   </si>
@@ -627,9 +627,21 @@
     <t>大吉网</t>
   </si>
   <si>
+    <t>吉报融媒 吉林要闻 财经 吉报原创 省委书记报道集 省长报道集</t>
+  </si>
+  <si>
+    <t>http://www.dajilin.com/</t>
+  </si>
+  <si>
     <t>长春新闻网</t>
   </si>
   <si>
+    <t>国际 国内 吉林 政务 财经</t>
+  </si>
+  <si>
+    <t>http://changchunews.com/</t>
+  </si>
+  <si>
     <t>吉视网</t>
   </si>
   <si>
@@ -642,7 +654,22 @@
     <t>东北网</t>
   </si>
   <si>
+    <t>国内要闻 国际新闻 地方新闻</t>
+  </si>
+  <si>
+    <t>https://www.dbw.cn/</t>
+  </si>
+  <si>
     <t>哈尔滨新闻网</t>
+  </si>
+  <si>
+    <t>财经房产 冰城要闻 时政新闻</t>
+  </si>
+  <si>
+    <t>https://harbin.dbw.cn/</t>
+  </si>
+  <si>
+    <t>table很难配</t>
   </si>
   <si>
     <t>大庆网</t>
@@ -2739,8 +2766,8 @@
   <sheetPr/>
   <dimension ref="A1:I454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="I93" sqref="I93"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4310,7 +4337,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:8">
       <c r="A93" s="2" t="s">
         <v>190</v>
       </c>
@@ -4323,27 +4350,45 @@
       <c r="D93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93" t="s">
+        <v>191</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94">
         <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>194</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -4351,10 +4396,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -4362,21 +4407,21 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:8">
       <c r="A98" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -4384,27 +4429,48 @@
       <c r="D98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="E98" t="s">
+        <v>200</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99">
         <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>203</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I99" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -4415,10 +4481,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -4429,10 +4495,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -4443,10 +4509,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -4454,10 +4520,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -4468,10 +4534,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -4482,10 +4548,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -4496,10 +4562,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -4507,10 +4573,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -4521,10 +4587,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -4535,10 +4601,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -4546,10 +4612,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
@@ -4557,10 +4623,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
@@ -4568,10 +4634,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
@@ -4582,10 +4648,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -4596,10 +4662,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -4610,10 +4676,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
   